--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,8 +234,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -248,77 +248,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,31 +269,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,10 +293,101 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -400,7 +400,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,19 +508,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,25 +538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,73 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,43 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,22 +594,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,16 +643,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,36 +691,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -699,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1240,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>1.45</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>10001</v>
@@ -1266,13 +1266,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1.45</v>
       </c>
       <c r="G3" s="1">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>10001</v>
@@ -1292,13 +1292,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>1.45</v>
       </c>
       <c r="G4" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H4">
         <v>10001</v>
@@ -1318,13 +1318,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>1.45</v>
       </c>
       <c r="G5" s="1">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="H5">
         <v>10001</v>
@@ -1344,13 +1344,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>1.45</v>
       </c>
       <c r="G6" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H6">
         <v>10001</v>
@@ -1370,13 +1370,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>1.45</v>
       </c>
       <c r="G7" s="1">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>10001</v>
@@ -1396,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>400</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>1.45</v>
       </c>
       <c r="G8" s="1">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="H8">
         <v>10001</v>
@@ -1422,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>1.45</v>
       </c>
       <c r="G9" s="1">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H9">
         <v>10001</v>
@@ -1448,13 +1448,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>1.45</v>
       </c>
       <c r="G10" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H10">
         <v>10001</v>
@@ -1474,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>550</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>1.45</v>
       </c>
       <c r="G11" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="H11">
         <v>10001</v>
@@ -1500,13 +1500,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1515,7 +1515,8 @@
         <v>1.45</v>
       </c>
       <c r="G12" s="1">
-        <v>600</v>
+        <f t="shared" ref="G12:G75" si="0">G11+400</f>
+        <v>1500</v>
       </c>
       <c r="H12">
         <v>10001</v>
@@ -1526,13 +1527,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>650</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1">
-        <v>325</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1541,7 +1542,8 @@
         <v>1.45</v>
       </c>
       <c r="G13" s="1">
-        <v>650</v>
+        <f t="shared" si="0"/>
+        <v>1900</v>
       </c>
       <c r="H13">
         <v>10001</v>
@@ -1552,13 +1554,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>700</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1567,7 +1569,8 @@
         <v>1.45</v>
       </c>
       <c r="G14" s="1">
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>2300</v>
       </c>
       <c r="H14">
         <v>10001</v>
@@ -1578,13 +1581,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>750</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1593,7 +1596,8 @@
         <v>1.45</v>
       </c>
       <c r="G15" s="1">
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>2700</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -1604,13 +1608,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>800</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1619,7 +1623,8 @@
         <v>1.45</v>
       </c>
       <c r="G16" s="1">
-        <v>800</v>
+        <f t="shared" si="0"/>
+        <v>3100</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -1630,13 +1635,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>850</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1">
-        <v>425</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1645,7 +1650,8 @@
         <v>1.45</v>
       </c>
       <c r="G17" s="1">
-        <v>850</v>
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="H17">
         <v>10001</v>
@@ -1656,13 +1662,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>900</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1671,7 +1677,8 @@
         <v>1.45</v>
       </c>
       <c r="G18" s="1">
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>3900</v>
       </c>
       <c r="H18">
         <v>10001</v>
@@ -1682,13 +1689,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>950</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1">
-        <v>475</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1697,7 +1704,8 @@
         <v>1.45</v>
       </c>
       <c r="G19" s="1">
-        <v>950</v>
+        <f t="shared" si="0"/>
+        <v>4300</v>
       </c>
       <c r="H19">
         <v>10001</v>
@@ -1708,13 +1716,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1000</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1723,7 +1731,8 @@
         <v>1.45</v>
       </c>
       <c r="G20" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>4700</v>
       </c>
       <c r="H20">
         <v>10001</v>
@@ -1734,13 +1743,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1050</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1">
-        <v>525</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1749,7 +1758,8 @@
         <v>1.45</v>
       </c>
       <c r="G21" s="1">
-        <v>1050</v>
+        <f t="shared" si="0"/>
+        <v>5100</v>
       </c>
       <c r="H21">
         <v>10001</v>
@@ -1760,13 +1770,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1">
-        <v>550</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1775,7 +1785,8 @@
         <v>1.45</v>
       </c>
       <c r="G22" s="1">
-        <v>1100</v>
+        <f t="shared" si="0"/>
+        <v>5500</v>
       </c>
       <c r="H22">
         <v>10001</v>
@@ -1786,13 +1797,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1150</v>
+        <v>156</v>
       </c>
       <c r="C23" s="1">
-        <v>575</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1801,7 +1812,8 @@
         <v>1.45</v>
       </c>
       <c r="G23" s="1">
-        <v>1150</v>
+        <f t="shared" si="0"/>
+        <v>5900</v>
       </c>
       <c r="H23">
         <v>10001</v>
@@ -1812,13 +1824,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1200</v>
+        <v>162</v>
       </c>
       <c r="C24" s="1">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1827,7 +1839,8 @@
         <v>1.45</v>
       </c>
       <c r="G24" s="1">
-        <v>1200</v>
+        <f t="shared" si="0"/>
+        <v>6300</v>
       </c>
       <c r="H24">
         <v>10001</v>
@@ -1838,13 +1851,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1250</v>
+        <v>168</v>
       </c>
       <c r="C25" s="1">
-        <v>625</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1853,7 +1866,8 @@
         <v>1.45</v>
       </c>
       <c r="G25" s="1">
-        <v>1250</v>
+        <f t="shared" si="0"/>
+        <v>6700</v>
       </c>
       <c r="H25">
         <v>10001</v>
@@ -1864,13 +1878,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1300</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1">
-        <v>650</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1879,7 +1893,8 @@
         <v>1.45</v>
       </c>
       <c r="G26" s="1">
-        <v>1300</v>
+        <f t="shared" si="0"/>
+        <v>7100</v>
       </c>
       <c r="H26">
         <v>10001</v>
@@ -1890,13 +1905,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1350</v>
+        <v>180</v>
       </c>
       <c r="C27" s="1">
-        <v>675</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1905,7 +1920,8 @@
         <v>1.45</v>
       </c>
       <c r="G27" s="1">
-        <v>1350</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="H27">
         <v>10001</v>
@@ -1916,13 +1932,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1400</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1931,7 +1947,8 @@
         <v>1.45</v>
       </c>
       <c r="G28" s="1">
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>7900</v>
       </c>
       <c r="H28">
         <v>10001</v>
@@ -1942,13 +1959,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1450</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1">
-        <v>725</v>
+        <v>145</v>
       </c>
       <c r="D29" s="1">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1957,7 +1974,8 @@
         <v>1.45</v>
       </c>
       <c r="G29" s="1">
-        <v>1450</v>
+        <f t="shared" si="0"/>
+        <v>8300</v>
       </c>
       <c r="H29">
         <v>10001</v>
@@ -1968,13 +1986,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1500</v>
+        <v>198</v>
       </c>
       <c r="C30" s="1">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1983,7 +2001,8 @@
         <v>1.45</v>
       </c>
       <c r="G30" s="1">
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>8700</v>
       </c>
       <c r="H30">
         <v>10001</v>
@@ -1994,13 +2013,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1550</v>
+        <v>204</v>
       </c>
       <c r="C31" s="1">
-        <v>775</v>
+        <v>155</v>
       </c>
       <c r="D31" s="1">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2009,7 +2028,8 @@
         <v>1.45</v>
       </c>
       <c r="G31" s="1">
-        <v>1550</v>
+        <f t="shared" si="0"/>
+        <v>9100</v>
       </c>
       <c r="H31">
         <v>10001</v>
@@ -2020,13 +2040,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1600</v>
+        <v>210</v>
       </c>
       <c r="C32" s="1">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="D32" s="1">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2035,7 +2055,8 @@
         <v>1.45</v>
       </c>
       <c r="G32" s="1">
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>9500</v>
       </c>
       <c r="H32">
         <v>10001</v>
@@ -2046,13 +2067,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1650</v>
+        <v>216</v>
       </c>
       <c r="C33" s="1">
-        <v>825</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2061,7 +2082,8 @@
         <v>1.45</v>
       </c>
       <c r="G33" s="1">
-        <v>1650</v>
+        <f t="shared" si="0"/>
+        <v>9900</v>
       </c>
       <c r="H33">
         <v>10001</v>
@@ -2072,13 +2094,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1700</v>
+        <v>222</v>
       </c>
       <c r="C34" s="1">
-        <v>850</v>
+        <v>170</v>
       </c>
       <c r="D34" s="1">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2087,7 +2109,8 @@
         <v>1.45</v>
       </c>
       <c r="G34" s="1">
-        <v>1700</v>
+        <f t="shared" si="0"/>
+        <v>10300</v>
       </c>
       <c r="H34">
         <v>10001</v>
@@ -2098,13 +2121,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1750</v>
+        <v>228</v>
       </c>
       <c r="C35" s="1">
-        <v>875</v>
+        <v>175</v>
       </c>
       <c r="D35" s="1">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2113,7 +2136,8 @@
         <v>1.45</v>
       </c>
       <c r="G35" s="1">
-        <v>1750</v>
+        <f t="shared" si="0"/>
+        <v>10700</v>
       </c>
       <c r="H35">
         <v>10001</v>
@@ -2124,13 +2148,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1800</v>
+        <v>234</v>
       </c>
       <c r="C36" s="1">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2139,7 +2163,8 @@
         <v>1.45</v>
       </c>
       <c r="G36" s="1">
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>11100</v>
       </c>
       <c r="H36">
         <v>10001</v>
@@ -2150,13 +2175,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1850</v>
+        <v>240</v>
       </c>
       <c r="C37" s="1">
-        <v>925</v>
+        <v>185</v>
       </c>
       <c r="D37" s="1">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2165,7 +2190,8 @@
         <v>1.45</v>
       </c>
       <c r="G37" s="1">
-        <v>1850</v>
+        <f t="shared" si="0"/>
+        <v>11500</v>
       </c>
       <c r="H37">
         <v>10001</v>
@@ -2176,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>1900</v>
+        <v>246</v>
       </c>
       <c r="C38" s="1">
-        <v>950</v>
+        <v>190</v>
       </c>
       <c r="D38" s="1">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2191,7 +2217,8 @@
         <v>1.45</v>
       </c>
       <c r="G38" s="1">
-        <v>1900</v>
+        <f t="shared" si="0"/>
+        <v>11900</v>
       </c>
       <c r="H38">
         <v>10001</v>
@@ -2202,13 +2229,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1950</v>
+        <v>252</v>
       </c>
       <c r="C39" s="1">
-        <v>975</v>
+        <v>195</v>
       </c>
       <c r="D39" s="1">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2217,7 +2244,8 @@
         <v>1.45</v>
       </c>
       <c r="G39" s="1">
-        <v>1950</v>
+        <f t="shared" si="0"/>
+        <v>12300</v>
       </c>
       <c r="H39">
         <v>10001</v>
@@ -2228,13 +2256,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>2000</v>
+        <v>258</v>
       </c>
       <c r="C40" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D40" s="1">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2243,7 +2271,8 @@
         <v>1.45</v>
       </c>
       <c r="G40" s="1">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>12700</v>
       </c>
       <c r="H40">
         <v>10001</v>
@@ -2254,13 +2283,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>2050</v>
+        <v>264</v>
       </c>
       <c r="C41" s="1">
-        <v>1025</v>
+        <v>205</v>
       </c>
       <c r="D41" s="1">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2269,7 +2298,8 @@
         <v>1.45</v>
       </c>
       <c r="G41" s="1">
-        <v>2050</v>
+        <f t="shared" si="0"/>
+        <v>13100</v>
       </c>
       <c r="H41">
         <v>10001</v>
@@ -2280,13 +2310,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>2100</v>
+        <v>270</v>
       </c>
       <c r="C42" s="1">
-        <v>1050</v>
+        <v>210</v>
       </c>
       <c r="D42" s="1">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2295,7 +2325,8 @@
         <v>1.45</v>
       </c>
       <c r="G42" s="1">
-        <v>2100</v>
+        <f t="shared" si="0"/>
+        <v>13500</v>
       </c>
       <c r="H42">
         <v>10001</v>
@@ -2306,13 +2337,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>2150</v>
+        <v>276</v>
       </c>
       <c r="C43" s="1">
-        <v>1075</v>
+        <v>215</v>
       </c>
       <c r="D43" s="1">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2321,7 +2352,8 @@
         <v>1.45</v>
       </c>
       <c r="G43" s="1">
-        <v>2150</v>
+        <f t="shared" si="0"/>
+        <v>13900</v>
       </c>
       <c r="H43">
         <v>10001</v>
@@ -2332,13 +2364,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>2200</v>
+        <v>282</v>
       </c>
       <c r="C44" s="1">
-        <v>1100</v>
+        <v>220</v>
       </c>
       <c r="D44" s="1">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2347,7 +2379,8 @@
         <v>1.45</v>
       </c>
       <c r="G44" s="1">
-        <v>2200</v>
+        <f t="shared" si="0"/>
+        <v>14300</v>
       </c>
       <c r="H44">
         <v>10001</v>
@@ -2358,13 +2391,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>2250</v>
+        <v>288</v>
       </c>
       <c r="C45" s="1">
-        <v>1125</v>
+        <v>225</v>
       </c>
       <c r="D45" s="1">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2373,7 +2406,8 @@
         <v>1.45</v>
       </c>
       <c r="G45" s="1">
-        <v>2250</v>
+        <f t="shared" si="0"/>
+        <v>14700</v>
       </c>
       <c r="H45">
         <v>10001</v>
@@ -2384,13 +2418,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>2300</v>
+        <v>294</v>
       </c>
       <c r="C46" s="1">
-        <v>1150</v>
+        <v>230</v>
       </c>
       <c r="D46" s="1">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2399,7 +2433,8 @@
         <v>1.45</v>
       </c>
       <c r="G46" s="1">
-        <v>2300</v>
+        <f t="shared" si="0"/>
+        <v>15100</v>
       </c>
       <c r="H46">
         <v>10001</v>
@@ -2410,13 +2445,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>2350</v>
+        <v>300</v>
       </c>
       <c r="C47" s="1">
-        <v>1175</v>
+        <v>235</v>
       </c>
       <c r="D47" s="1">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2425,7 +2460,8 @@
         <v>1.45</v>
       </c>
       <c r="G47" s="1">
-        <v>2350</v>
+        <f t="shared" si="0"/>
+        <v>15500</v>
       </c>
       <c r="H47">
         <v>10001</v>
@@ -2436,13 +2472,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2400</v>
+        <v>306</v>
       </c>
       <c r="C48" s="1">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="D48" s="1">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2451,7 +2487,8 @@
         <v>1.45</v>
       </c>
       <c r="G48" s="1">
-        <v>2400</v>
+        <f t="shared" si="0"/>
+        <v>15900</v>
       </c>
       <c r="H48">
         <v>10001</v>
@@ -2462,13 +2499,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2450</v>
+        <v>312</v>
       </c>
       <c r="C49" s="1">
-        <v>1225</v>
+        <v>245</v>
       </c>
       <c r="D49" s="1">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2477,7 +2514,8 @@
         <v>1.45</v>
       </c>
       <c r="G49" s="1">
-        <v>2450</v>
+        <f t="shared" si="0"/>
+        <v>16300</v>
       </c>
       <c r="H49">
         <v>10001</v>
@@ -2488,13 +2526,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>2500</v>
+        <v>318</v>
       </c>
       <c r="C50" s="1">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="D50" s="1">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -2503,7 +2541,8 @@
         <v>1.45</v>
       </c>
       <c r="G50" s="1">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>16700</v>
       </c>
       <c r="H50">
         <v>10001</v>
@@ -2514,13 +2553,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>2550</v>
+        <v>324</v>
       </c>
       <c r="C51" s="1">
-        <v>1275</v>
+        <v>255</v>
       </c>
       <c r="D51" s="1">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2529,7 +2568,8 @@
         <v>1.45</v>
       </c>
       <c r="G51" s="1">
-        <v>2550</v>
+        <f t="shared" si="0"/>
+        <v>17100</v>
       </c>
       <c r="H51">
         <v>10001</v>
@@ -2540,13 +2580,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>2600</v>
+        <v>330</v>
       </c>
       <c r="C52" s="1">
-        <v>1300</v>
+        <v>260</v>
       </c>
       <c r="D52" s="1">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2555,7 +2595,8 @@
         <v>1.45</v>
       </c>
       <c r="G52" s="1">
-        <v>2600</v>
+        <f t="shared" si="0"/>
+        <v>17500</v>
       </c>
       <c r="H52">
         <v>10001</v>
@@ -2566,13 +2607,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>2650</v>
+        <v>336</v>
       </c>
       <c r="C53" s="1">
-        <v>1325</v>
+        <v>265</v>
       </c>
       <c r="D53" s="1">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2581,7 +2622,8 @@
         <v>1.45</v>
       </c>
       <c r="G53" s="1">
-        <v>2650</v>
+        <f t="shared" si="0"/>
+        <v>17900</v>
       </c>
       <c r="H53">
         <v>10001</v>
@@ -2592,13 +2634,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>2700</v>
+        <v>342</v>
       </c>
       <c r="C54" s="1">
-        <v>1350</v>
+        <v>270</v>
       </c>
       <c r="D54" s="1">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -2607,7 +2649,8 @@
         <v>1.45</v>
       </c>
       <c r="G54" s="1">
-        <v>2700</v>
+        <f t="shared" si="0"/>
+        <v>18300</v>
       </c>
       <c r="H54">
         <v>10001</v>
@@ -2618,13 +2661,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>2750</v>
+        <v>348</v>
       </c>
       <c r="C55" s="1">
-        <v>1375</v>
+        <v>275</v>
       </c>
       <c r="D55" s="1">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2633,7 +2676,8 @@
         <v>1.45</v>
       </c>
       <c r="G55" s="1">
-        <v>2750</v>
+        <f t="shared" si="0"/>
+        <v>18700</v>
       </c>
       <c r="H55">
         <v>10001</v>
@@ -2644,13 +2688,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>2800</v>
+        <v>354</v>
       </c>
       <c r="C56" s="1">
-        <v>1400</v>
+        <v>280</v>
       </c>
       <c r="D56" s="1">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2659,7 +2703,8 @@
         <v>1.45</v>
       </c>
       <c r="G56" s="1">
-        <v>2800</v>
+        <f t="shared" si="0"/>
+        <v>19100</v>
       </c>
       <c r="H56">
         <v>10001</v>
@@ -2670,13 +2715,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>2850</v>
+        <v>360</v>
       </c>
       <c r="C57" s="1">
-        <v>1425</v>
+        <v>285</v>
       </c>
       <c r="D57" s="1">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -2685,7 +2730,8 @@
         <v>1.45</v>
       </c>
       <c r="G57" s="1">
-        <v>2850</v>
+        <f t="shared" si="0"/>
+        <v>19500</v>
       </c>
       <c r="H57">
         <v>10001</v>
@@ -2696,13 +2742,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>2900</v>
+        <v>366</v>
       </c>
       <c r="C58" s="1">
-        <v>1450</v>
+        <v>290</v>
       </c>
       <c r="D58" s="1">
-        <v>290</v>
+        <v>173</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2711,7 +2757,8 @@
         <v>1.45</v>
       </c>
       <c r="G58" s="1">
-        <v>2900</v>
+        <f t="shared" si="0"/>
+        <v>19900</v>
       </c>
       <c r="H58">
         <v>10001</v>
@@ -2722,13 +2769,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>2950</v>
+        <v>372</v>
       </c>
       <c r="C59" s="1">
-        <v>1475</v>
+        <v>295</v>
       </c>
       <c r="D59" s="1">
-        <v>295</v>
+        <v>176</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2737,7 +2784,8 @@
         <v>1.45</v>
       </c>
       <c r="G59" s="1">
-        <v>2950</v>
+        <f t="shared" si="0"/>
+        <v>20300</v>
       </c>
       <c r="H59">
         <v>10001</v>
@@ -2748,13 +2796,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>3000</v>
+        <v>378</v>
       </c>
       <c r="C60" s="1">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D60" s="1">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -2763,7 +2811,8 @@
         <v>1.45</v>
       </c>
       <c r="G60" s="1">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>20700</v>
       </c>
       <c r="H60">
         <v>10001</v>
@@ -2774,13 +2823,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>3050</v>
+        <v>384</v>
       </c>
       <c r="C61" s="1">
-        <v>1525</v>
+        <v>305</v>
       </c>
       <c r="D61" s="1">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -2789,7 +2838,8 @@
         <v>1.45</v>
       </c>
       <c r="G61" s="1">
-        <v>3050</v>
+        <f t="shared" si="0"/>
+        <v>21100</v>
       </c>
       <c r="H61">
         <v>10001</v>
@@ -2800,13 +2850,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>3100</v>
+        <v>390</v>
       </c>
       <c r="C62" s="1">
-        <v>1550</v>
+        <v>310</v>
       </c>
       <c r="D62" s="1">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2815,7 +2865,8 @@
         <v>1.45</v>
       </c>
       <c r="G62" s="1">
-        <v>3100</v>
+        <f t="shared" si="0"/>
+        <v>21500</v>
       </c>
       <c r="H62">
         <v>10001</v>
@@ -2826,13 +2877,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>3150</v>
+        <v>396</v>
       </c>
       <c r="C63" s="1">
-        <v>1575</v>
+        <v>315</v>
       </c>
       <c r="D63" s="1">
-        <v>315</v>
+        <v>188</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2841,7 +2892,8 @@
         <v>1.45</v>
       </c>
       <c r="G63" s="1">
-        <v>3150</v>
+        <f t="shared" si="0"/>
+        <v>21900</v>
       </c>
       <c r="H63">
         <v>10001</v>
@@ -2852,13 +2904,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>3200</v>
+        <v>402</v>
       </c>
       <c r="C64" s="1">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="D64" s="1">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2867,7 +2919,8 @@
         <v>1.45</v>
       </c>
       <c r="G64" s="1">
-        <v>3200</v>
+        <f t="shared" si="0"/>
+        <v>22300</v>
       </c>
       <c r="H64">
         <v>10001</v>
@@ -2878,13 +2931,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>3250</v>
+        <v>408</v>
       </c>
       <c r="C65" s="1">
-        <v>1625</v>
+        <v>325</v>
       </c>
       <c r="D65" s="1">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -2893,7 +2946,8 @@
         <v>1.45</v>
       </c>
       <c r="G65" s="1">
-        <v>3250</v>
+        <f t="shared" si="0"/>
+        <v>22700</v>
       </c>
       <c r="H65">
         <v>10001</v>
@@ -2904,13 +2958,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>3300</v>
+        <v>414</v>
       </c>
       <c r="C66" s="1">
-        <v>1650</v>
+        <v>330</v>
       </c>
       <c r="D66" s="1">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -2919,7 +2973,8 @@
         <v>1.45</v>
       </c>
       <c r="G66" s="1">
-        <v>3300</v>
+        <f t="shared" si="0"/>
+        <v>23100</v>
       </c>
       <c r="H66">
         <v>10001</v>
@@ -2930,13 +2985,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>3350</v>
+        <v>420</v>
       </c>
       <c r="C67" s="1">
-        <v>1675</v>
+        <v>335</v>
       </c>
       <c r="D67" s="1">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2945,7 +3000,8 @@
         <v>1.45</v>
       </c>
       <c r="G67" s="1">
-        <v>3350</v>
+        <f t="shared" si="0"/>
+        <v>23500</v>
       </c>
       <c r="H67">
         <v>10001</v>
@@ -2956,13 +3012,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>3400</v>
+        <v>426</v>
       </c>
       <c r="C68" s="1">
-        <v>1700</v>
+        <v>340</v>
       </c>
       <c r="D68" s="1">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2971,7 +3027,8 @@
         <v>1.45</v>
       </c>
       <c r="G68" s="1">
-        <v>3400</v>
+        <f t="shared" si="0"/>
+        <v>23900</v>
       </c>
       <c r="H68">
         <v>10001</v>
@@ -2982,13 +3039,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>3450</v>
+        <v>432</v>
       </c>
       <c r="C69" s="1">
-        <v>1725</v>
+        <v>345</v>
       </c>
       <c r="D69" s="1">
-        <v>345</v>
+        <v>206</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2997,7 +3054,8 @@
         <v>1.45</v>
       </c>
       <c r="G69" s="1">
-        <v>3450</v>
+        <f t="shared" si="0"/>
+        <v>24300</v>
       </c>
       <c r="H69">
         <v>10001</v>
@@ -3008,13 +3066,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>3500</v>
+        <v>438</v>
       </c>
       <c r="C70" s="1">
-        <v>1750</v>
+        <v>350</v>
       </c>
       <c r="D70" s="1">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -3023,7 +3081,8 @@
         <v>1.45</v>
       </c>
       <c r="G70" s="1">
-        <v>3500</v>
+        <f t="shared" si="0"/>
+        <v>24700</v>
       </c>
       <c r="H70">
         <v>10001</v>
@@ -3034,13 +3093,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>3550</v>
+        <v>444</v>
       </c>
       <c r="C71" s="1">
-        <v>1775</v>
+        <v>355</v>
       </c>
       <c r="D71" s="1">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -3049,7 +3108,8 @@
         <v>1.45</v>
       </c>
       <c r="G71" s="1">
-        <v>3550</v>
+        <f t="shared" si="0"/>
+        <v>25100</v>
       </c>
       <c r="H71">
         <v>10001</v>
@@ -3060,13 +3120,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>3600</v>
+        <v>450</v>
       </c>
       <c r="C72" s="1">
-        <v>1800</v>
+        <v>360</v>
       </c>
       <c r="D72" s="1">
-        <v>360</v>
+        <v>215</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -3075,7 +3135,8 @@
         <v>1.45</v>
       </c>
       <c r="G72" s="1">
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>25500</v>
       </c>
       <c r="H72">
         <v>10001</v>
@@ -3086,13 +3147,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>3650</v>
+        <v>456</v>
       </c>
       <c r="C73" s="1">
-        <v>1825</v>
+        <v>365</v>
       </c>
       <c r="D73" s="1">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -3101,7 +3162,8 @@
         <v>1.45</v>
       </c>
       <c r="G73" s="1">
-        <v>3650</v>
+        <f t="shared" si="0"/>
+        <v>25900</v>
       </c>
       <c r="H73">
         <v>10001</v>
@@ -3112,13 +3174,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>3700</v>
+        <v>462</v>
       </c>
       <c r="C74" s="1">
-        <v>1850</v>
+        <v>370</v>
       </c>
       <c r="D74" s="1">
-        <v>370</v>
+        <v>221</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3127,7 +3189,8 @@
         <v>1.45</v>
       </c>
       <c r="G74" s="1">
-        <v>3700</v>
+        <f t="shared" si="0"/>
+        <v>26300</v>
       </c>
       <c r="H74">
         <v>10001</v>
@@ -3138,13 +3201,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>3750</v>
+        <v>468</v>
       </c>
       <c r="C75" s="1">
-        <v>1875</v>
+        <v>375</v>
       </c>
       <c r="D75" s="1">
-        <v>375</v>
+        <v>224</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -3153,7 +3216,8 @@
         <v>1.45</v>
       </c>
       <c r="G75" s="1">
-        <v>3750</v>
+        <f t="shared" si="0"/>
+        <v>26700</v>
       </c>
       <c r="H75">
         <v>10001</v>
@@ -3164,13 +3228,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>3800</v>
+        <v>474</v>
       </c>
       <c r="C76" s="1">
-        <v>1900</v>
+        <v>380</v>
       </c>
       <c r="D76" s="1">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3179,7 +3243,8 @@
         <v>1.45</v>
       </c>
       <c r="G76" s="1">
-        <v>3800</v>
+        <f t="shared" ref="G76:G101" si="1">G75+400</f>
+        <v>27100</v>
       </c>
       <c r="H76">
         <v>10001</v>
@@ -3190,13 +3255,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>3850</v>
+        <v>480</v>
       </c>
       <c r="C77" s="1">
-        <v>1925</v>
+        <v>385</v>
       </c>
       <c r="D77" s="1">
-        <v>385</v>
+        <v>230</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -3205,7 +3270,8 @@
         <v>1.45</v>
       </c>
       <c r="G77" s="1">
-        <v>3850</v>
+        <f t="shared" si="1"/>
+        <v>27500</v>
       </c>
       <c r="H77">
         <v>10001</v>
@@ -3216,13 +3282,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>3900</v>
+        <v>486</v>
       </c>
       <c r="C78" s="1">
-        <v>1950</v>
+        <v>390</v>
       </c>
       <c r="D78" s="1">
-        <v>390</v>
+        <v>233</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3231,7 +3297,8 @@
         <v>1.45</v>
       </c>
       <c r="G78" s="1">
-        <v>3900</v>
+        <f t="shared" si="1"/>
+        <v>27900</v>
       </c>
       <c r="H78">
         <v>10001</v>
@@ -3242,13 +3309,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>3950</v>
+        <v>492</v>
       </c>
       <c r="C79" s="1">
-        <v>1975</v>
+        <v>395</v>
       </c>
       <c r="D79" s="1">
-        <v>395</v>
+        <v>236</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3257,7 +3324,8 @@
         <v>1.45</v>
       </c>
       <c r="G79" s="1">
-        <v>3950</v>
+        <f t="shared" si="1"/>
+        <v>28300</v>
       </c>
       <c r="H79">
         <v>10001</v>
@@ -3268,13 +3336,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4000</v>
+        <v>498</v>
       </c>
       <c r="C80" s="1">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="D80" s="1">
-        <v>400</v>
+        <v>239</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -3283,7 +3351,8 @@
         <v>1.45</v>
       </c>
       <c r="G80" s="1">
-        <v>4000</v>
+        <f t="shared" si="1"/>
+        <v>28700</v>
       </c>
       <c r="H80">
         <v>10001</v>
@@ -3294,13 +3363,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4050</v>
+        <v>504</v>
       </c>
       <c r="C81" s="1">
-        <v>2025</v>
+        <v>405</v>
       </c>
       <c r="D81" s="1">
-        <v>405</v>
+        <v>242</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -3309,7 +3378,8 @@
         <v>1.45</v>
       </c>
       <c r="G81" s="1">
-        <v>4050</v>
+        <f t="shared" si="1"/>
+        <v>29100</v>
       </c>
       <c r="H81">
         <v>10001</v>
@@ -3320,13 +3390,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4100</v>
+        <v>510</v>
       </c>
       <c r="C82" s="1">
-        <v>2050</v>
+        <v>410</v>
       </c>
       <c r="D82" s="1">
-        <v>410</v>
+        <v>245</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -3335,7 +3405,8 @@
         <v>1.45</v>
       </c>
       <c r="G82" s="1">
-        <v>4100</v>
+        <f t="shared" si="1"/>
+        <v>29500</v>
       </c>
       <c r="H82">
         <v>10001</v>
@@ -3346,13 +3417,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4150</v>
+        <v>516</v>
       </c>
       <c r="C83" s="1">
-        <v>2075</v>
+        <v>415</v>
       </c>
       <c r="D83" s="1">
-        <v>415</v>
+        <v>248</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -3361,7 +3432,8 @@
         <v>1.45</v>
       </c>
       <c r="G83" s="1">
-        <v>4150</v>
+        <f t="shared" si="1"/>
+        <v>29900</v>
       </c>
       <c r="H83">
         <v>10001</v>
@@ -3372,13 +3444,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4200</v>
+        <v>522</v>
       </c>
       <c r="C84" s="1">
-        <v>2100</v>
+        <v>420</v>
       </c>
       <c r="D84" s="1">
-        <v>420</v>
+        <v>251</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3387,7 +3459,8 @@
         <v>1.45</v>
       </c>
       <c r="G84" s="1">
-        <v>4200</v>
+        <f t="shared" si="1"/>
+        <v>30300</v>
       </c>
       <c r="H84">
         <v>10001</v>
@@ -3398,13 +3471,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4250</v>
+        <v>528</v>
       </c>
       <c r="C85" s="1">
-        <v>2125</v>
+        <v>425</v>
       </c>
       <c r="D85" s="1">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -3413,7 +3486,8 @@
         <v>1.45</v>
       </c>
       <c r="G85" s="1">
-        <v>4250</v>
+        <f t="shared" si="1"/>
+        <v>30700</v>
       </c>
       <c r="H85">
         <v>10001</v>
@@ -3424,13 +3498,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4300</v>
+        <v>534</v>
       </c>
       <c r="C86" s="1">
-        <v>2150</v>
+        <v>430</v>
       </c>
       <c r="D86" s="1">
-        <v>430</v>
+        <v>257</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -3439,7 +3513,8 @@
         <v>1.45</v>
       </c>
       <c r="G86" s="1">
-        <v>4300</v>
+        <f t="shared" si="1"/>
+        <v>31100</v>
       </c>
       <c r="H86">
         <v>10001</v>
@@ -3450,13 +3525,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4350</v>
+        <v>540</v>
       </c>
       <c r="C87" s="1">
-        <v>2175</v>
+        <v>435</v>
       </c>
       <c r="D87" s="1">
-        <v>435</v>
+        <v>260</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3465,7 +3540,8 @@
         <v>1.45</v>
       </c>
       <c r="G87" s="1">
-        <v>4350</v>
+        <f t="shared" si="1"/>
+        <v>31500</v>
       </c>
       <c r="H87">
         <v>10001</v>
@@ -3476,13 +3552,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4400</v>
+        <v>546</v>
       </c>
       <c r="C88" s="1">
-        <v>2200</v>
+        <v>440</v>
       </c>
       <c r="D88" s="1">
-        <v>440</v>
+        <v>263</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -3491,7 +3567,8 @@
         <v>1.45</v>
       </c>
       <c r="G88" s="1">
-        <v>4400</v>
+        <f t="shared" si="1"/>
+        <v>31900</v>
       </c>
       <c r="H88">
         <v>10001</v>
@@ -3502,13 +3579,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4450</v>
+        <v>552</v>
       </c>
       <c r="C89" s="1">
-        <v>2225</v>
+        <v>445</v>
       </c>
       <c r="D89" s="1">
-        <v>445</v>
+        <v>266</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -3517,7 +3594,8 @@
         <v>1.45</v>
       </c>
       <c r="G89" s="1">
-        <v>4450</v>
+        <f t="shared" si="1"/>
+        <v>32300</v>
       </c>
       <c r="H89">
         <v>10001</v>
@@ -3528,13 +3606,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4500</v>
+        <v>558</v>
       </c>
       <c r="C90" s="1">
-        <v>2250</v>
+        <v>450</v>
       </c>
       <c r="D90" s="1">
-        <v>450</v>
+        <v>269</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -3543,7 +3621,8 @@
         <v>1.45</v>
       </c>
       <c r="G90" s="1">
-        <v>4500</v>
+        <f t="shared" si="1"/>
+        <v>32700</v>
       </c>
       <c r="H90">
         <v>10001</v>
@@ -3554,13 +3633,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4550</v>
+        <v>564</v>
       </c>
       <c r="C91" s="1">
-        <v>2275</v>
+        <v>455</v>
       </c>
       <c r="D91" s="1">
-        <v>455</v>
+        <v>272</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -3569,7 +3648,8 @@
         <v>1.45</v>
       </c>
       <c r="G91" s="1">
-        <v>4550</v>
+        <f t="shared" si="1"/>
+        <v>33100</v>
       </c>
       <c r="H91">
         <v>10001</v>
@@ -3580,13 +3660,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4600</v>
+        <v>570</v>
       </c>
       <c r="C92" s="1">
-        <v>2300</v>
+        <v>460</v>
       </c>
       <c r="D92" s="1">
-        <v>460</v>
+        <v>275</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -3595,7 +3675,8 @@
         <v>1.45</v>
       </c>
       <c r="G92" s="1">
-        <v>4600</v>
+        <f t="shared" si="1"/>
+        <v>33500</v>
       </c>
       <c r="H92">
         <v>10001</v>
@@ -3606,13 +3687,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4650</v>
+        <v>576</v>
       </c>
       <c r="C93" s="1">
-        <v>2325</v>
+        <v>465</v>
       </c>
       <c r="D93" s="1">
-        <v>465</v>
+        <v>278</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -3621,7 +3702,8 @@
         <v>1.45</v>
       </c>
       <c r="G93" s="1">
-        <v>4650</v>
+        <f t="shared" si="1"/>
+        <v>33900</v>
       </c>
       <c r="H93">
         <v>10001</v>
@@ -3632,13 +3714,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4700</v>
+        <v>582</v>
       </c>
       <c r="C94" s="1">
-        <v>2350</v>
+        <v>470</v>
       </c>
       <c r="D94" s="1">
-        <v>470</v>
+        <v>281</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -3647,7 +3729,8 @@
         <v>1.45</v>
       </c>
       <c r="G94" s="1">
-        <v>4700</v>
+        <f t="shared" si="1"/>
+        <v>34300</v>
       </c>
       <c r="H94">
         <v>10001</v>
@@ -3658,13 +3741,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4750</v>
+        <v>588</v>
       </c>
       <c r="C95" s="1">
-        <v>2375</v>
+        <v>475</v>
       </c>
       <c r="D95" s="1">
-        <v>475</v>
+        <v>284</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -3673,7 +3756,8 @@
         <v>1.45</v>
       </c>
       <c r="G95" s="1">
-        <v>4750</v>
+        <f t="shared" si="1"/>
+        <v>34700</v>
       </c>
       <c r="H95">
         <v>10001</v>
@@ -3684,13 +3768,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4800</v>
+        <v>594</v>
       </c>
       <c r="C96" s="1">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="D96" s="1">
-        <v>480</v>
+        <v>287</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -3699,7 +3783,8 @@
         <v>1.45</v>
       </c>
       <c r="G96" s="1">
-        <v>4800</v>
+        <f t="shared" si="1"/>
+        <v>35100</v>
       </c>
       <c r="H96">
         <v>10001</v>
@@ -3710,13 +3795,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4850</v>
+        <v>600</v>
       </c>
       <c r="C97" s="1">
-        <v>2425</v>
+        <v>485</v>
       </c>
       <c r="D97" s="1">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -3725,7 +3810,8 @@
         <v>1.45</v>
       </c>
       <c r="G97" s="1">
-        <v>4850</v>
+        <f t="shared" si="1"/>
+        <v>35500</v>
       </c>
       <c r="H97">
         <v>10001</v>
@@ -3736,13 +3822,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4900</v>
+        <v>606</v>
       </c>
       <c r="C98" s="1">
-        <v>2450</v>
+        <v>490</v>
       </c>
       <c r="D98" s="1">
-        <v>490</v>
+        <v>293</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -3751,7 +3837,8 @@
         <v>1.45</v>
       </c>
       <c r="G98" s="1">
-        <v>4900</v>
+        <f t="shared" si="1"/>
+        <v>35900</v>
       </c>
       <c r="H98">
         <v>10001</v>
@@ -3762,13 +3849,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4950</v>
+        <v>612</v>
       </c>
       <c r="C99" s="1">
-        <v>2475</v>
+        <v>495</v>
       </c>
       <c r="D99" s="1">
-        <v>495</v>
+        <v>296</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -3777,7 +3864,8 @@
         <v>1.45</v>
       </c>
       <c r="G99" s="1">
-        <v>4950</v>
+        <f t="shared" si="1"/>
+        <v>36300</v>
       </c>
       <c r="H99">
         <v>10001</v>
@@ -3788,13 +3876,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>5000</v>
+        <v>618</v>
       </c>
       <c r="C100" s="1">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D100" s="1">
-        <v>500</v>
+        <v>299</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -3803,7 +3891,8 @@
         <v>1.45</v>
       </c>
       <c r="G100" s="1">
-        <v>5000</v>
+        <f t="shared" si="1"/>
+        <v>36700</v>
       </c>
       <c r="H100">
         <v>10001</v>
@@ -3814,13 +3903,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>5050</v>
+        <v>624</v>
       </c>
       <c r="C101" s="1">
-        <v>2525</v>
+        <v>505</v>
       </c>
       <c r="D101" s="1">
-        <v>505</v>
+        <v>302</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -3829,7 +3918,8 @@
         <v>1.45</v>
       </c>
       <c r="G101" s="1">
-        <v>5050</v>
+        <f t="shared" si="1"/>
+        <v>37100</v>
       </c>
       <c r="H101">
         <v>10001</v>

--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -234,9 +234,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -254,6 +254,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -262,8 +291,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,29 +324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,30 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +354,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -368,24 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,25 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +430,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,103 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,19 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +609,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -624,11 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,23 +686,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,145 +699,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>1.45</v>
       </c>
       <c r="G2" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>10001</v>
@@ -1266,10 +1266,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -1281,7 +1281,7 @@
         <v>1.45</v>
       </c>
       <c r="G3" s="1">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="H3">
         <v>10001</v>
@@ -1292,13 +1292,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>42</v>
+        <v>1500</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>1.45</v>
       </c>
       <c r="G4" s="1">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="H4">
         <v>10001</v>
@@ -1318,13 +1318,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>48</v>
+        <v>2100</v>
       </c>
       <c r="C5" s="1">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="D5" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>1.45</v>
       </c>
       <c r="G5" s="1">
-        <v>230</v>
+        <v>409</v>
       </c>
       <c r="H5">
         <v>10001</v>
@@ -1344,13 +1344,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>54</v>
+        <v>2700</v>
       </c>
       <c r="C6" s="1">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="D6" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>1.45</v>
       </c>
       <c r="G6" s="1">
-        <v>400</v>
+        <v>516</v>
       </c>
       <c r="H6">
         <v>10001</v>
@@ -1370,13 +1370,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>3300</v>
       </c>
       <c r="C7" s="1">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>1.45</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>625</v>
       </c>
       <c r="H7">
         <v>10001</v>
@@ -1396,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>66</v>
+        <v>3900</v>
       </c>
       <c r="C8" s="1">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="D8" s="1">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>1.45</v>
       </c>
       <c r="G8" s="1">
-        <v>230</v>
+        <v>736</v>
       </c>
       <c r="H8">
         <v>10001</v>
@@ -1422,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>72</v>
+        <v>4500</v>
       </c>
       <c r="C9" s="1">
-        <v>45</v>
+        <v>475</v>
       </c>
       <c r="D9" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>1.45</v>
       </c>
       <c r="G9" s="1">
-        <v>420</v>
+        <v>849</v>
       </c>
       <c r="H9">
         <v>10001</v>
@@ -1448,13 +1448,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>78</v>
+        <v>5100</v>
       </c>
       <c r="C10" s="1">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="D10" s="1">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>1.45</v>
       </c>
       <c r="G10" s="1">
-        <v>700</v>
+        <v>964</v>
       </c>
       <c r="H10">
         <v>10001</v>
@@ -1474,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>84</v>
+        <v>5700</v>
       </c>
       <c r="C11" s="1">
-        <v>55</v>
+        <v>605</v>
       </c>
       <c r="D11" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>1.45</v>
       </c>
       <c r="G11" s="1">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="H11">
         <v>10001</v>
@@ -1500,13 +1500,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>90</v>
+        <v>6600</v>
       </c>
       <c r="C12" s="1">
-        <v>60</v>
+        <v>695</v>
       </c>
       <c r="D12" s="1">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1515,8 +1515,7 @@
         <v>1.45</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:G75" si="0">G11+400</f>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H12">
         <v>10001</v>
@@ -1527,13 +1526,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>96</v>
+        <v>7500</v>
       </c>
       <c r="C13" s="1">
-        <v>65</v>
+        <v>785</v>
       </c>
       <c r="D13" s="1">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1542,8 +1541,7 @@
         <v>1.45</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>1321</v>
       </c>
       <c r="H13">
         <v>10001</v>
@@ -1554,13 +1552,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>102</v>
+        <v>8400</v>
       </c>
       <c r="C14" s="1">
-        <v>70</v>
+        <v>875</v>
       </c>
       <c r="D14" s="1">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1569,8 +1567,7 @@
         <v>1.45</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>1444</v>
       </c>
       <c r="H14">
         <v>10001</v>
@@ -1581,13 +1578,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>108</v>
+        <v>9300</v>
       </c>
       <c r="C15" s="1">
-        <v>75</v>
+        <v>965</v>
       </c>
       <c r="D15" s="1">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1596,8 +1593,7 @@
         <v>1.45</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>1569</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -1608,14 +1604,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
+        <v>10200</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1055</v>
+      </c>
+      <c r="D16" s="1">
         <v>114</v>
       </c>
-      <c r="C16" s="1">
-        <v>80</v>
-      </c>
-      <c r="D16" s="1">
-        <v>47</v>
-      </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
@@ -1623,8 +1619,7 @@
         <v>1.45</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>1696</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -1635,13 +1630,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>120</v>
+        <v>11100</v>
       </c>
       <c r="C17" s="1">
-        <v>85</v>
+        <v>1145</v>
       </c>
       <c r="D17" s="1">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1650,8 +1645,7 @@
         <v>1.45</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>1825</v>
       </c>
       <c r="H17">
         <v>10001</v>
@@ -1662,13 +1656,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>126</v>
+        <v>12000</v>
       </c>
       <c r="C18" s="1">
-        <v>90</v>
+        <v>1235</v>
       </c>
       <c r="D18" s="1">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1677,8 +1671,7 @@
         <v>1.45</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>3900</v>
+        <v>1956</v>
       </c>
       <c r="H18">
         <v>10001</v>
@@ -1689,13 +1682,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>132</v>
+        <v>12900</v>
       </c>
       <c r="C19" s="1">
-        <v>95</v>
+        <v>1325</v>
       </c>
       <c r="D19" s="1">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1704,8 +1697,7 @@
         <v>1.45</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>4300</v>
+        <v>2089</v>
       </c>
       <c r="H19">
         <v>10001</v>
@@ -1716,13 +1708,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>138</v>
+        <v>13800</v>
       </c>
       <c r="C20" s="1">
-        <v>100</v>
+        <v>1415</v>
       </c>
       <c r="D20" s="1">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1731,8 +1723,7 @@
         <v>1.45</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>2224</v>
       </c>
       <c r="H20">
         <v>10001</v>
@@ -1743,13 +1734,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>144</v>
+        <v>14700</v>
       </c>
       <c r="C21" s="1">
-        <v>105</v>
+        <v>1505</v>
       </c>
       <c r="D21" s="1">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1758,8 +1749,7 @@
         <v>1.45</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>5100</v>
+        <v>2361</v>
       </c>
       <c r="H21">
         <v>10001</v>
@@ -1770,13 +1760,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>150</v>
+        <v>15900</v>
       </c>
       <c r="C22" s="1">
-        <v>110</v>
+        <v>1625</v>
       </c>
       <c r="D22" s="1">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1785,8 +1775,7 @@
         <v>1.45</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="H22">
         <v>10001</v>
@@ -1797,13 +1786,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>156</v>
+        <v>17100</v>
       </c>
       <c r="C23" s="1">
-        <v>115</v>
+        <v>1745</v>
       </c>
       <c r="D23" s="1">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1812,8 +1801,7 @@
         <v>1.45</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>5900</v>
+        <v>2641</v>
       </c>
       <c r="H23">
         <v>10001</v>
@@ -1824,13 +1812,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>162</v>
+        <v>18300</v>
       </c>
       <c r="C24" s="1">
-        <v>120</v>
+        <v>1865</v>
       </c>
       <c r="D24" s="1">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1839,8 +1827,7 @@
         <v>1.45</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>2784</v>
       </c>
       <c r="H24">
         <v>10001</v>
@@ -1851,13 +1838,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>168</v>
+        <v>19500</v>
       </c>
       <c r="C25" s="1">
-        <v>125</v>
+        <v>1985</v>
       </c>
       <c r="D25" s="1">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1866,8 +1853,7 @@
         <v>1.45</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>6700</v>
+        <v>2929</v>
       </c>
       <c r="H25">
         <v>10001</v>
@@ -1878,13 +1864,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>174</v>
+        <v>20700</v>
       </c>
       <c r="C26" s="1">
-        <v>130</v>
+        <v>2105</v>
       </c>
       <c r="D26" s="1">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1893,8 +1879,7 @@
         <v>1.45</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>7100</v>
+        <v>3076</v>
       </c>
       <c r="H26">
         <v>10001</v>
@@ -1905,13 +1890,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>180</v>
+        <v>21900</v>
       </c>
       <c r="C27" s="1">
-        <v>135</v>
+        <v>2225</v>
       </c>
       <c r="D27" s="1">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1920,8 +1905,7 @@
         <v>1.45</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>3225</v>
       </c>
       <c r="H27">
         <v>10001</v>
@@ -1932,13 +1916,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>186</v>
+        <v>23100</v>
       </c>
       <c r="C28" s="1">
-        <v>140</v>
+        <v>2345</v>
       </c>
       <c r="D28" s="1">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1947,8 +1931,7 @@
         <v>1.45</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>3376</v>
       </c>
       <c r="H28">
         <v>10001</v>
@@ -1959,13 +1942,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>192</v>
+        <v>24300</v>
       </c>
       <c r="C29" s="1">
-        <v>145</v>
+        <v>2465</v>
       </c>
       <c r="D29" s="1">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1974,8 +1957,7 @@
         <v>1.45</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>8300</v>
+        <v>3529</v>
       </c>
       <c r="H29">
         <v>10001</v>
@@ -1986,13 +1968,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>198</v>
+        <v>25500</v>
       </c>
       <c r="C30" s="1">
-        <v>150</v>
+        <v>2585</v>
       </c>
       <c r="D30" s="1">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2001,8 +1983,7 @@
         <v>1.45</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>8700</v>
+        <v>3684</v>
       </c>
       <c r="H30">
         <v>10001</v>
@@ -2013,13 +1994,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>204</v>
+        <v>26700</v>
       </c>
       <c r="C31" s="1">
-        <v>155</v>
+        <v>2705</v>
       </c>
       <c r="D31" s="1">
-        <v>92</v>
+        <v>314</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2028,8 +2009,7 @@
         <v>1.45</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>9100</v>
+        <v>3841</v>
       </c>
       <c r="H31">
         <v>10001</v>
@@ -2040,13 +2020,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>210</v>
+        <v>28200</v>
       </c>
       <c r="C32" s="1">
-        <v>160</v>
+        <v>2855</v>
       </c>
       <c r="D32" s="1">
-        <v>95</v>
+        <v>334</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2055,8 +2035,7 @@
         <v>1.45</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="H32">
         <v>10001</v>
@@ -2067,13 +2046,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>216</v>
+        <v>29700</v>
       </c>
       <c r="C33" s="1">
-        <v>165</v>
+        <v>3005</v>
       </c>
       <c r="D33" s="1">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2082,8 +2061,7 @@
         <v>1.45</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>4161</v>
       </c>
       <c r="H33">
         <v>10001</v>
@@ -2094,13 +2072,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>222</v>
+        <v>31200</v>
       </c>
       <c r="C34" s="1">
-        <v>170</v>
+        <v>3155</v>
       </c>
       <c r="D34" s="1">
-        <v>101</v>
+        <v>374</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2109,8 +2087,7 @@
         <v>1.45</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>10300</v>
+        <v>4324</v>
       </c>
       <c r="H34">
         <v>10001</v>
@@ -2121,13 +2098,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>228</v>
+        <v>32700</v>
       </c>
       <c r="C35" s="1">
-        <v>175</v>
+        <v>3305</v>
       </c>
       <c r="D35" s="1">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2136,8 +2113,7 @@
         <v>1.45</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>10700</v>
+        <v>4489</v>
       </c>
       <c r="H35">
         <v>10001</v>
@@ -2148,13 +2124,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>234</v>
+        <v>34200</v>
       </c>
       <c r="C36" s="1">
-        <v>180</v>
+        <v>3455</v>
       </c>
       <c r="D36" s="1">
-        <v>107</v>
+        <v>414</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2163,8 +2139,7 @@
         <v>1.45</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>11100</v>
+        <v>4656</v>
       </c>
       <c r="H36">
         <v>10001</v>
@@ -2175,13 +2150,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>240</v>
+        <v>35700</v>
       </c>
       <c r="C37" s="1">
-        <v>185</v>
+        <v>3605</v>
       </c>
       <c r="D37" s="1">
-        <v>110</v>
+        <v>434</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2190,8 +2165,7 @@
         <v>1.45</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>4825</v>
       </c>
       <c r="H37">
         <v>10001</v>
@@ -2202,13 +2176,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>246</v>
+        <v>37200</v>
       </c>
       <c r="C38" s="1">
-        <v>190</v>
+        <v>3755</v>
       </c>
       <c r="D38" s="1">
-        <v>113</v>
+        <v>454</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2217,8 +2191,7 @@
         <v>1.45</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>4996</v>
       </c>
       <c r="H38">
         <v>10001</v>
@@ -2229,13 +2202,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>252</v>
+        <v>38700</v>
       </c>
       <c r="C39" s="1">
-        <v>195</v>
+        <v>3905</v>
       </c>
       <c r="D39" s="1">
-        <v>116</v>
+        <v>474</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2244,8 +2217,7 @@
         <v>1.45</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>12300</v>
+        <v>5169</v>
       </c>
       <c r="H39">
         <v>10001</v>
@@ -2256,13 +2228,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>258</v>
+        <v>40200</v>
       </c>
       <c r="C40" s="1">
-        <v>200</v>
+        <v>4055</v>
       </c>
       <c r="D40" s="1">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2271,8 +2243,7 @@
         <v>1.45</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>12700</v>
+        <v>5344</v>
       </c>
       <c r="H40">
         <v>10001</v>
@@ -2283,13 +2254,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>264</v>
+        <v>41700</v>
       </c>
       <c r="C41" s="1">
-        <v>205</v>
+        <v>4205</v>
       </c>
       <c r="D41" s="1">
-        <v>122</v>
+        <v>514</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2298,8 +2269,7 @@
         <v>1.45</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>13100</v>
+        <v>5521</v>
       </c>
       <c r="H41">
         <v>10001</v>
@@ -2310,13 +2280,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>270</v>
+        <v>43500</v>
       </c>
       <c r="C42" s="1">
-        <v>210</v>
+        <v>4455</v>
       </c>
       <c r="D42" s="1">
-        <v>125</v>
+        <v>544</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2325,8 +2295,7 @@
         <v>1.45</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>5700</v>
       </c>
       <c r="H42">
         <v>10001</v>
@@ -2337,13 +2306,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>276</v>
+        <v>45300</v>
       </c>
       <c r="C43" s="1">
-        <v>215</v>
+        <v>4705</v>
       </c>
       <c r="D43" s="1">
-        <v>128</v>
+        <v>574</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2352,8 +2321,7 @@
         <v>1.45</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>13900</v>
+        <v>5881</v>
       </c>
       <c r="H43">
         <v>10001</v>
@@ -2364,13 +2332,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>282</v>
+        <v>47100</v>
       </c>
       <c r="C44" s="1">
-        <v>220</v>
+        <v>4955</v>
       </c>
       <c r="D44" s="1">
-        <v>131</v>
+        <v>604</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2379,8 +2347,7 @@
         <v>1.45</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>14300</v>
+        <v>6064</v>
       </c>
       <c r="H44">
         <v>10001</v>
@@ -2391,13 +2358,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>288</v>
+        <v>48900</v>
       </c>
       <c r="C45" s="1">
-        <v>225</v>
+        <v>5205</v>
       </c>
       <c r="D45" s="1">
-        <v>134</v>
+        <v>634</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2406,8 +2373,7 @@
         <v>1.45</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>14700</v>
+        <v>6249</v>
       </c>
       <c r="H45">
         <v>10001</v>
@@ -2418,13 +2384,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>294</v>
+        <v>50700</v>
       </c>
       <c r="C46" s="1">
-        <v>230</v>
+        <v>5455</v>
       </c>
       <c r="D46" s="1">
-        <v>137</v>
+        <v>664</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2433,8 +2399,7 @@
         <v>1.45</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>15100</v>
+        <v>6436</v>
       </c>
       <c r="H46">
         <v>10001</v>
@@ -2445,13 +2410,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>300</v>
+        <v>52500</v>
       </c>
       <c r="C47" s="1">
-        <v>235</v>
+        <v>5705</v>
       </c>
       <c r="D47" s="1">
-        <v>140</v>
+        <v>694</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2460,8 +2425,7 @@
         <v>1.45</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>15500</v>
+        <v>6625</v>
       </c>
       <c r="H47">
         <v>10001</v>
@@ -2472,13 +2436,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>306</v>
+        <v>54300</v>
       </c>
       <c r="C48" s="1">
-        <v>240</v>
+        <v>5955</v>
       </c>
       <c r="D48" s="1">
-        <v>143</v>
+        <v>724</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2487,8 +2451,7 @@
         <v>1.45</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>15900</v>
+        <v>6816</v>
       </c>
       <c r="H48">
         <v>10001</v>
@@ -2499,13 +2462,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>312</v>
+        <v>56100</v>
       </c>
       <c r="C49" s="1">
-        <v>245</v>
+        <v>6205</v>
       </c>
       <c r="D49" s="1">
-        <v>146</v>
+        <v>754</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2514,8 +2477,7 @@
         <v>1.45</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>16300</v>
+        <v>7009</v>
       </c>
       <c r="H49">
         <v>10001</v>
@@ -2526,13 +2488,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>318</v>
+        <v>57900</v>
       </c>
       <c r="C50" s="1">
-        <v>250</v>
+        <v>6455</v>
       </c>
       <c r="D50" s="1">
-        <v>149</v>
+        <v>784</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -2541,8 +2503,7 @@
         <v>1.45</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>16700</v>
+        <v>7204</v>
       </c>
       <c r="H50">
         <v>10001</v>
@@ -2553,13 +2514,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>324</v>
+        <v>59700</v>
       </c>
       <c r="C51" s="1">
-        <v>255</v>
+        <v>6705</v>
       </c>
       <c r="D51" s="1">
-        <v>152</v>
+        <v>814</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2568,8 +2529,7 @@
         <v>1.45</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>17100</v>
+        <v>7401</v>
       </c>
       <c r="H51">
         <v>10001</v>
@@ -2580,13 +2540,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>330</v>
+        <v>61500</v>
       </c>
       <c r="C52" s="1">
-        <v>260</v>
+        <v>6955</v>
       </c>
       <c r="D52" s="1">
-        <v>155</v>
+        <v>844</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2595,8 +2555,7 @@
         <v>1.45</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
-        <v>17500</v>
+        <v>7600</v>
       </c>
       <c r="H52">
         <v>10001</v>
@@ -2607,13 +2566,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>336</v>
+        <v>63300</v>
       </c>
       <c r="C53" s="1">
-        <v>265</v>
+        <v>7205</v>
       </c>
       <c r="D53" s="1">
-        <v>158</v>
+        <v>874</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2622,8 +2581,7 @@
         <v>1.45</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>17900</v>
+        <v>7801</v>
       </c>
       <c r="H53">
         <v>10001</v>
@@ -2634,13 +2592,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>342</v>
+        <v>65100</v>
       </c>
       <c r="C54" s="1">
-        <v>270</v>
+        <v>7455</v>
       </c>
       <c r="D54" s="1">
-        <v>161</v>
+        <v>904</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -2649,8 +2607,7 @@
         <v>1.45</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>18300</v>
+        <v>8004</v>
       </c>
       <c r="H54">
         <v>10001</v>
@@ -2661,13 +2618,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>348</v>
+        <v>66900</v>
       </c>
       <c r="C55" s="1">
-        <v>275</v>
+        <v>7705</v>
       </c>
       <c r="D55" s="1">
-        <v>164</v>
+        <v>934</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2676,8 +2633,7 @@
         <v>1.45</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
-        <v>18700</v>
+        <v>8209</v>
       </c>
       <c r="H55">
         <v>10001</v>
@@ -2688,13 +2644,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>354</v>
+        <v>68700</v>
       </c>
       <c r="C56" s="1">
-        <v>280</v>
+        <v>7955</v>
       </c>
       <c r="D56" s="1">
-        <v>167</v>
+        <v>964</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2703,8 +2659,7 @@
         <v>1.45</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
-        <v>19100</v>
+        <v>8416</v>
       </c>
       <c r="H56">
         <v>10001</v>
@@ -2715,13 +2670,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>360</v>
+        <v>70500</v>
       </c>
       <c r="C57" s="1">
-        <v>285</v>
+        <v>8205</v>
       </c>
       <c r="D57" s="1">
-        <v>170</v>
+        <v>994</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -2730,8 +2685,7 @@
         <v>1.45</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
-        <v>19500</v>
+        <v>8625</v>
       </c>
       <c r="H57">
         <v>10001</v>
@@ -2742,13 +2696,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>366</v>
+        <v>72300</v>
       </c>
       <c r="C58" s="1">
-        <v>290</v>
+        <v>8455</v>
       </c>
       <c r="D58" s="1">
-        <v>173</v>
+        <v>1024</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2757,8 +2711,7 @@
         <v>1.45</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
-        <v>19900</v>
+        <v>8836</v>
       </c>
       <c r="H58">
         <v>10001</v>
@@ -2769,13 +2722,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>372</v>
+        <v>74100</v>
       </c>
       <c r="C59" s="1">
-        <v>295</v>
+        <v>8705</v>
       </c>
       <c r="D59" s="1">
-        <v>176</v>
+        <v>1054</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2784,8 +2737,7 @@
         <v>1.45</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
-        <v>20300</v>
+        <v>9049</v>
       </c>
       <c r="H59">
         <v>10001</v>
@@ -2796,13 +2748,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>378</v>
+        <v>75900</v>
       </c>
       <c r="C60" s="1">
-        <v>300</v>
+        <v>8955</v>
       </c>
       <c r="D60" s="1">
-        <v>179</v>
+        <v>1084</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -2811,8 +2763,7 @@
         <v>1.45</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>9264</v>
       </c>
       <c r="H60">
         <v>10001</v>
@@ -2823,13 +2774,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>384</v>
+        <v>77700</v>
       </c>
       <c r="C61" s="1">
-        <v>305</v>
+        <v>9205</v>
       </c>
       <c r="D61" s="1">
-        <v>182</v>
+        <v>1114</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -2838,8 +2789,7 @@
         <v>1.45</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
-        <v>21100</v>
+        <v>9481</v>
       </c>
       <c r="H61">
         <v>10001</v>
@@ -2850,13 +2800,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>390</v>
+        <v>79500</v>
       </c>
       <c r="C62" s="1">
-        <v>310</v>
+        <v>9455</v>
       </c>
       <c r="D62" s="1">
-        <v>185</v>
+        <v>1144</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2865,8 +2815,7 @@
         <v>1.45</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
-        <v>21500</v>
+        <v>9700</v>
       </c>
       <c r="H62">
         <v>10001</v>
@@ -2877,13 +2826,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>396</v>
+        <v>81300</v>
       </c>
       <c r="C63" s="1">
-        <v>315</v>
+        <v>9705</v>
       </c>
       <c r="D63" s="1">
-        <v>188</v>
+        <v>1174</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2892,8 +2841,7 @@
         <v>1.45</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
-        <v>21900</v>
+        <v>9921</v>
       </c>
       <c r="H63">
         <v>10001</v>
@@ -2904,13 +2852,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>402</v>
+        <v>83100</v>
       </c>
       <c r="C64" s="1">
-        <v>320</v>
+        <v>9955</v>
       </c>
       <c r="D64" s="1">
-        <v>191</v>
+        <v>1204</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2919,8 +2867,7 @@
         <v>1.45</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
-        <v>22300</v>
+        <v>10144</v>
       </c>
       <c r="H64">
         <v>10001</v>
@@ -2931,13 +2878,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>408</v>
+        <v>84900</v>
       </c>
       <c r="C65" s="1">
-        <v>325</v>
+        <v>10205</v>
       </c>
       <c r="D65" s="1">
-        <v>194</v>
+        <v>1234</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -2946,8 +2893,7 @@
         <v>1.45</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
-        <v>22700</v>
+        <v>10369</v>
       </c>
       <c r="H65">
         <v>10001</v>
@@ -2958,13 +2904,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>414</v>
+        <v>86700</v>
       </c>
       <c r="C66" s="1">
-        <v>330</v>
+        <v>10455</v>
       </c>
       <c r="D66" s="1">
-        <v>197</v>
+        <v>1264</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -2973,8 +2919,7 @@
         <v>1.45</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
-        <v>23100</v>
+        <v>10596</v>
       </c>
       <c r="H66">
         <v>10001</v>
@@ -2985,13 +2930,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>420</v>
+        <v>88500</v>
       </c>
       <c r="C67" s="1">
-        <v>335</v>
+        <v>10705</v>
       </c>
       <c r="D67" s="1">
-        <v>200</v>
+        <v>1294</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3000,8 +2945,7 @@
         <v>1.45</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="0"/>
-        <v>23500</v>
+        <v>10825</v>
       </c>
       <c r="H67">
         <v>10001</v>
@@ -3012,13 +2956,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>426</v>
+        <v>90300</v>
       </c>
       <c r="C68" s="1">
-        <v>340</v>
+        <v>10955</v>
       </c>
       <c r="D68" s="1">
-        <v>203</v>
+        <v>1324</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -3027,8 +2971,7 @@
         <v>1.45</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="0"/>
-        <v>23900</v>
+        <v>11056</v>
       </c>
       <c r="H68">
         <v>10001</v>
@@ -3039,13 +2982,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>432</v>
+        <v>92100</v>
       </c>
       <c r="C69" s="1">
-        <v>345</v>
+        <v>11205</v>
       </c>
       <c r="D69" s="1">
-        <v>206</v>
+        <v>1354</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3054,8 +2997,7 @@
         <v>1.45</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="0"/>
-        <v>24300</v>
+        <v>11289</v>
       </c>
       <c r="H69">
         <v>10001</v>
@@ -3066,13 +3008,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>438</v>
+        <v>93900</v>
       </c>
       <c r="C70" s="1">
-        <v>350</v>
+        <v>11455</v>
       </c>
       <c r="D70" s="1">
-        <v>209</v>
+        <v>1384</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -3081,8 +3023,7 @@
         <v>1.45</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="0"/>
-        <v>24700</v>
+        <v>11524</v>
       </c>
       <c r="H70">
         <v>10001</v>
@@ -3093,13 +3034,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>444</v>
+        <v>95700</v>
       </c>
       <c r="C71" s="1">
-        <v>355</v>
+        <v>11705</v>
       </c>
       <c r="D71" s="1">
-        <v>212</v>
+        <v>1414</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -3108,8 +3049,7 @@
         <v>1.45</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="0"/>
-        <v>25100</v>
+        <v>11761</v>
       </c>
       <c r="H71">
         <v>10001</v>
@@ -3120,13 +3060,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>450</v>
+        <v>97500</v>
       </c>
       <c r="C72" s="1">
-        <v>360</v>
+        <v>11955</v>
       </c>
       <c r="D72" s="1">
-        <v>215</v>
+        <v>1444</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -3135,8 +3075,7 @@
         <v>1.45</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>12000</v>
       </c>
       <c r="H72">
         <v>10001</v>
@@ -3147,13 +3086,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>456</v>
+        <v>99300</v>
       </c>
       <c r="C73" s="1">
-        <v>365</v>
+        <v>12205</v>
       </c>
       <c r="D73" s="1">
-        <v>218</v>
+        <v>1474</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -3162,8 +3101,7 @@
         <v>1.45</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="0"/>
-        <v>25900</v>
+        <v>12241</v>
       </c>
       <c r="H73">
         <v>10001</v>
@@ -3174,13 +3112,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>462</v>
+        <v>101100</v>
       </c>
       <c r="C74" s="1">
-        <v>370</v>
+        <v>12455</v>
       </c>
       <c r="D74" s="1">
-        <v>221</v>
+        <v>1504</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3189,8 +3127,7 @@
         <v>1.45</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="0"/>
-        <v>26300</v>
+        <v>12484</v>
       </c>
       <c r="H74">
         <v>10001</v>
@@ -3201,13 +3138,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>468</v>
+        <v>102900</v>
       </c>
       <c r="C75" s="1">
-        <v>375</v>
+        <v>12705</v>
       </c>
       <c r="D75" s="1">
-        <v>224</v>
+        <v>1534</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -3216,8 +3153,7 @@
         <v>1.45</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="0"/>
-        <v>26700</v>
+        <v>12729</v>
       </c>
       <c r="H75">
         <v>10001</v>
@@ -3228,13 +3164,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>474</v>
+        <v>104700</v>
       </c>
       <c r="C76" s="1">
-        <v>380</v>
+        <v>12955</v>
       </c>
       <c r="D76" s="1">
-        <v>227</v>
+        <v>1564</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3243,8 +3179,7 @@
         <v>1.45</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" ref="G76:G101" si="1">G75+400</f>
-        <v>27100</v>
+        <v>12976</v>
       </c>
       <c r="H76">
         <v>10001</v>
@@ -3255,13 +3190,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>480</v>
+        <v>106500</v>
       </c>
       <c r="C77" s="1">
-        <v>385</v>
+        <v>13205</v>
       </c>
       <c r="D77" s="1">
-        <v>230</v>
+        <v>1594</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -3270,8 +3205,7 @@
         <v>1.45</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="1"/>
-        <v>27500</v>
+        <v>13225</v>
       </c>
       <c r="H77">
         <v>10001</v>
@@ -3282,13 +3216,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>486</v>
+        <v>108300</v>
       </c>
       <c r="C78" s="1">
-        <v>390</v>
+        <v>13455</v>
       </c>
       <c r="D78" s="1">
-        <v>233</v>
+        <v>1624</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3297,8 +3231,7 @@
         <v>1.45</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="1"/>
-        <v>27900</v>
+        <v>13476</v>
       </c>
       <c r="H78">
         <v>10001</v>
@@ -3309,13 +3242,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>492</v>
+        <v>110100</v>
       </c>
       <c r="C79" s="1">
-        <v>395</v>
+        <v>13705</v>
       </c>
       <c r="D79" s="1">
-        <v>236</v>
+        <v>1654</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3324,8 +3257,7 @@
         <v>1.45</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="1"/>
-        <v>28300</v>
+        <v>13729</v>
       </c>
       <c r="H79">
         <v>10001</v>
@@ -3336,13 +3268,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>498</v>
+        <v>111900</v>
       </c>
       <c r="C80" s="1">
-        <v>400</v>
+        <v>13955</v>
       </c>
       <c r="D80" s="1">
-        <v>239</v>
+        <v>1684</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -3351,8 +3283,7 @@
         <v>1.45</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="1"/>
-        <v>28700</v>
+        <v>13984</v>
       </c>
       <c r="H80">
         <v>10001</v>
@@ -3363,13 +3294,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>504</v>
+        <v>113700</v>
       </c>
       <c r="C81" s="1">
-        <v>405</v>
+        <v>14205</v>
       </c>
       <c r="D81" s="1">
-        <v>242</v>
+        <v>1714</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -3378,8 +3309,7 @@
         <v>1.45</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="1"/>
-        <v>29100</v>
+        <v>14241</v>
       </c>
       <c r="H81">
         <v>10001</v>
@@ -3390,13 +3320,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>510</v>
+        <v>115500</v>
       </c>
       <c r="C82" s="1">
-        <v>410</v>
+        <v>14455</v>
       </c>
       <c r="D82" s="1">
-        <v>245</v>
+        <v>1744</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -3405,8 +3335,7 @@
         <v>1.45</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="1"/>
-        <v>29500</v>
+        <v>14500</v>
       </c>
       <c r="H82">
         <v>10001</v>
@@ -3417,13 +3346,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>516</v>
+        <v>117300</v>
       </c>
       <c r="C83" s="1">
-        <v>415</v>
+        <v>14705</v>
       </c>
       <c r="D83" s="1">
-        <v>248</v>
+        <v>1774</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -3432,8 +3361,7 @@
         <v>1.45</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="1"/>
-        <v>29900</v>
+        <v>14761</v>
       </c>
       <c r="H83">
         <v>10001</v>
@@ -3444,13 +3372,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>522</v>
+        <v>119100</v>
       </c>
       <c r="C84" s="1">
-        <v>420</v>
+        <v>14955</v>
       </c>
       <c r="D84" s="1">
-        <v>251</v>
+        <v>1804</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3459,8 +3387,7 @@
         <v>1.45</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="1"/>
-        <v>30300</v>
+        <v>15024</v>
       </c>
       <c r="H84">
         <v>10001</v>
@@ -3471,13 +3398,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>528</v>
+        <v>120900</v>
       </c>
       <c r="C85" s="1">
-        <v>425</v>
+        <v>15205</v>
       </c>
       <c r="D85" s="1">
-        <v>254</v>
+        <v>1834</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -3486,8 +3413,7 @@
         <v>1.45</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="1"/>
-        <v>30700</v>
+        <v>15289</v>
       </c>
       <c r="H85">
         <v>10001</v>
@@ -3498,13 +3424,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>534</v>
+        <v>122700</v>
       </c>
       <c r="C86" s="1">
-        <v>430</v>
+        <v>15455</v>
       </c>
       <c r="D86" s="1">
-        <v>257</v>
+        <v>1864</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -3513,8 +3439,7 @@
         <v>1.45</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="1"/>
-        <v>31100</v>
+        <v>15556</v>
       </c>
       <c r="H86">
         <v>10001</v>
@@ -3525,13 +3450,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>540</v>
+        <v>124500</v>
       </c>
       <c r="C87" s="1">
-        <v>435</v>
+        <v>15705</v>
       </c>
       <c r="D87" s="1">
-        <v>260</v>
+        <v>1894</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3540,8 +3465,7 @@
         <v>1.45</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="1"/>
-        <v>31500</v>
+        <v>15825</v>
       </c>
       <c r="H87">
         <v>10001</v>
@@ -3552,13 +3476,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>546</v>
+        <v>126300</v>
       </c>
       <c r="C88" s="1">
-        <v>440</v>
+        <v>15955</v>
       </c>
       <c r="D88" s="1">
-        <v>263</v>
+        <v>1924</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -3567,8 +3491,7 @@
         <v>1.45</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="1"/>
-        <v>31900</v>
+        <v>16096</v>
       </c>
       <c r="H88">
         <v>10001</v>
@@ -3579,13 +3502,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>552</v>
+        <v>128100</v>
       </c>
       <c r="C89" s="1">
-        <v>445</v>
+        <v>16205</v>
       </c>
       <c r="D89" s="1">
-        <v>266</v>
+        <v>1954</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -3594,8 +3517,7 @@
         <v>1.45</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="1"/>
-        <v>32300</v>
+        <v>16369</v>
       </c>
       <c r="H89">
         <v>10001</v>
@@ -3606,13 +3528,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>558</v>
+        <v>129900</v>
       </c>
       <c r="C90" s="1">
-        <v>450</v>
+        <v>16455</v>
       </c>
       <c r="D90" s="1">
-        <v>269</v>
+        <v>1984</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -3621,8 +3543,7 @@
         <v>1.45</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="1"/>
-        <v>32700</v>
+        <v>16644</v>
       </c>
       <c r="H90">
         <v>10001</v>
@@ -3633,13 +3554,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>564</v>
+        <v>131700</v>
       </c>
       <c r="C91" s="1">
-        <v>455</v>
+        <v>16705</v>
       </c>
       <c r="D91" s="1">
-        <v>272</v>
+        <v>2014</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -3648,8 +3569,7 @@
         <v>1.45</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="1"/>
-        <v>33100</v>
+        <v>16921</v>
       </c>
       <c r="H91">
         <v>10001</v>
@@ -3660,13 +3580,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>570</v>
+        <v>133500</v>
       </c>
       <c r="C92" s="1">
-        <v>460</v>
+        <v>16955</v>
       </c>
       <c r="D92" s="1">
-        <v>275</v>
+        <v>2044</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -3675,8 +3595,7 @@
         <v>1.45</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="1"/>
-        <v>33500</v>
+        <v>17200</v>
       </c>
       <c r="H92">
         <v>10001</v>
@@ -3687,13 +3606,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>576</v>
+        <v>135300</v>
       </c>
       <c r="C93" s="1">
-        <v>465</v>
+        <v>17205</v>
       </c>
       <c r="D93" s="1">
-        <v>278</v>
+        <v>2074</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -3702,8 +3621,7 @@
         <v>1.45</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="1"/>
-        <v>33900</v>
+        <v>17481</v>
       </c>
       <c r="H93">
         <v>10001</v>
@@ -3714,13 +3632,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>582</v>
+        <v>137100</v>
       </c>
       <c r="C94" s="1">
-        <v>470</v>
+        <v>17455</v>
       </c>
       <c r="D94" s="1">
-        <v>281</v>
+        <v>2104</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -3729,8 +3647,7 @@
         <v>1.45</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="1"/>
-        <v>34300</v>
+        <v>17764</v>
       </c>
       <c r="H94">
         <v>10001</v>
@@ -3741,13 +3658,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>588</v>
+        <v>138900</v>
       </c>
       <c r="C95" s="1">
-        <v>475</v>
+        <v>17705</v>
       </c>
       <c r="D95" s="1">
-        <v>284</v>
+        <v>2134</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -3756,8 +3673,7 @@
         <v>1.45</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="1"/>
-        <v>34700</v>
+        <v>18049</v>
       </c>
       <c r="H95">
         <v>10001</v>
@@ -3768,13 +3684,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>594</v>
+        <v>140700</v>
       </c>
       <c r="C96" s="1">
-        <v>480</v>
+        <v>17955</v>
       </c>
       <c r="D96" s="1">
-        <v>287</v>
+        <v>2164</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -3783,8 +3699,7 @@
         <v>1.45</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="1"/>
-        <v>35100</v>
+        <v>18336</v>
       </c>
       <c r="H96">
         <v>10001</v>
@@ -3795,13 +3710,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>600</v>
+        <v>142500</v>
       </c>
       <c r="C97" s="1">
-        <v>485</v>
+        <v>18205</v>
       </c>
       <c r="D97" s="1">
-        <v>290</v>
+        <v>2194</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -3810,8 +3725,7 @@
         <v>1.45</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="1"/>
-        <v>35500</v>
+        <v>18625</v>
       </c>
       <c r="H97">
         <v>10001</v>
@@ -3822,13 +3736,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>606</v>
+        <v>144300</v>
       </c>
       <c r="C98" s="1">
-        <v>490</v>
+        <v>18455</v>
       </c>
       <c r="D98" s="1">
-        <v>293</v>
+        <v>2224</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -3837,8 +3751,7 @@
         <v>1.45</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="1"/>
-        <v>35900</v>
+        <v>18916</v>
       </c>
       <c r="H98">
         <v>10001</v>
@@ -3849,13 +3762,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>612</v>
+        <v>146100</v>
       </c>
       <c r="C99" s="1">
-        <v>495</v>
+        <v>18705</v>
       </c>
       <c r="D99" s="1">
-        <v>296</v>
+        <v>2254</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -3864,8 +3777,7 @@
         <v>1.45</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="1"/>
-        <v>36300</v>
+        <v>19209</v>
       </c>
       <c r="H99">
         <v>10001</v>
@@ -3876,13 +3788,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>618</v>
+        <v>147900</v>
       </c>
       <c r="C100" s="1">
-        <v>500</v>
+        <v>18955</v>
       </c>
       <c r="D100" s="1">
-        <v>299</v>
+        <v>2284</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -3891,8 +3803,7 @@
         <v>1.45</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="1"/>
-        <v>36700</v>
+        <v>19504</v>
       </c>
       <c r="H100">
         <v>10001</v>
@@ -3903,13 +3814,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>624</v>
+        <v>149700</v>
       </c>
       <c r="C101" s="1">
-        <v>505</v>
+        <v>19205</v>
       </c>
       <c r="D101" s="1">
-        <v>302</v>
+        <v>2314</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -3918,8 +3829,7 @@
         <v>1.45</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="1"/>
-        <v>37100</v>
+        <v>19801</v>
       </c>
       <c r="H101">
         <v>10001</v>

--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="13680" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
+    <author>48203541@qq.com</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -197,12 +198,144 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+命中</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+闪避</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暴击</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暴击伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+攻速提升</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+真实伤害</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>role_lv</t>
   </si>
@@ -227,6 +360,24 @@
   <si>
     <t>resource</t>
   </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>dod</t>
+  </si>
+  <si>
+    <t>cri</t>
+  </si>
+  <si>
+    <t>cri_dam</t>
+  </si>
+  <si>
+    <t>speed_up</t>
+  </si>
+  <si>
+    <t>real_dam</t>
+  </si>
 </sst>
 </file>
 
@@ -235,8 +386,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -248,28 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -277,15 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,9 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +437,68 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,7 +521,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,37 +532,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,7 +551,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,19 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,25 +641,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,67 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,31 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +742,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,15 +765,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +784,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,15 +813,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,15 +842,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -699,10 +850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +862,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,20 +1347,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G101"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,8 +1385,26 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1260,8 +1429,26 @@
       <c r="H2">
         <v>10001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2">
+        <v>5000</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1286,8 +1473,26 @@
       <c r="H3">
         <v>10001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3">
+        <v>5000</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1312,8 +1517,26 @@
       <c r="H4">
         <v>10001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4">
+        <v>5000</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1338,8 +1561,26 @@
       <c r="H5">
         <v>10001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5">
+        <v>5000</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1364,8 +1605,26 @@
       <c r="H6">
         <v>10001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6">
+        <v>5000</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1390,8 +1649,26 @@
       <c r="H7">
         <v>10001</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+      <c r="K7">
+        <v>5000</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1416,8 +1693,26 @@
       <c r="H8">
         <v>10001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8">
+        <v>5000</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1442,8 +1737,26 @@
       <c r="H9">
         <v>10001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="K9">
+        <v>5000</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1468,8 +1781,26 @@
       <c r="H10">
         <v>10001</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
+      <c r="K10">
+        <v>5000</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1494,8 +1825,26 @@
       <c r="H11">
         <v>10001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11">
+        <v>5000</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1520,8 +1869,26 @@
       <c r="H12">
         <v>10001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12">
+        <v>5000</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>1000</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1546,8 +1913,26 @@
       <c r="H13">
         <v>10001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="K13">
+        <v>5000</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>1000</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1572,8 +1957,26 @@
       <c r="H14">
         <v>10001</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+      <c r="K14">
+        <v>5000</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1598,8 +2001,26 @@
       <c r="H15">
         <v>10001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="J15">
+        <v>500</v>
+      </c>
+      <c r="K15">
+        <v>5000</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1624,8 +2045,26 @@
       <c r="H16">
         <v>10001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="K16">
+        <v>5000</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>1000</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1650,8 +2089,26 @@
       <c r="H17">
         <v>10001</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="J17">
+        <v>500</v>
+      </c>
+      <c r="K17">
+        <v>5000</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>1000</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1676,8 +2133,26 @@
       <c r="H18">
         <v>10001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <v>500</v>
+      </c>
+      <c r="K18">
+        <v>5000</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1702,8 +2177,26 @@
       <c r="H19">
         <v>10001</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>500</v>
+      </c>
+      <c r="K19">
+        <v>5000</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1728,8 +2221,26 @@
       <c r="H20">
         <v>10001</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20">
+        <v>5000</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1754,8 +2265,26 @@
       <c r="H21">
         <v>10001</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>1000</v>
+      </c>
+      <c r="J21">
+        <v>500</v>
+      </c>
+      <c r="K21">
+        <v>5000</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1780,8 +2309,26 @@
       <c r="H22">
         <v>10001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="J22">
+        <v>500</v>
+      </c>
+      <c r="K22">
+        <v>5000</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>1000</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1806,8 +2353,26 @@
       <c r="H23">
         <v>10001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <v>500</v>
+      </c>
+      <c r="K23">
+        <v>5000</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1832,8 +2397,26 @@
       <c r="H24">
         <v>10001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>1000</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24">
+        <v>5000</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1858,8 +2441,26 @@
       <c r="H25">
         <v>10001</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25">
+        <v>5000</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1884,8 +2485,26 @@
       <c r="H26">
         <v>10001</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+      <c r="K26">
+        <v>5000</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1910,8 +2529,26 @@
       <c r="H27">
         <v>10001</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>500</v>
+      </c>
+      <c r="K27">
+        <v>5000</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1936,8 +2573,26 @@
       <c r="H28">
         <v>10001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>1000</v>
+      </c>
+      <c r="J28">
+        <v>500</v>
+      </c>
+      <c r="K28">
+        <v>5000</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1962,8 +2617,26 @@
       <c r="H29">
         <v>10001</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>1000</v>
+      </c>
+      <c r="J29">
+        <v>500</v>
+      </c>
+      <c r="K29">
+        <v>5000</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1988,8 +2661,26 @@
       <c r="H30">
         <v>10001</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>1000</v>
+      </c>
+      <c r="J30">
+        <v>500</v>
+      </c>
+      <c r="K30">
+        <v>5000</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2014,8 +2705,26 @@
       <c r="H31">
         <v>10001</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>1000</v>
+      </c>
+      <c r="J31">
+        <v>500</v>
+      </c>
+      <c r="K31">
+        <v>5000</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2040,8 +2749,26 @@
       <c r="H32">
         <v>10001</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>1000</v>
+      </c>
+      <c r="J32">
+        <v>500</v>
+      </c>
+      <c r="K32">
+        <v>5000</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>1000</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2066,8 +2793,26 @@
       <c r="H33">
         <v>10001</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>500</v>
+      </c>
+      <c r="K33">
+        <v>5000</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2092,8 +2837,26 @@
       <c r="H34">
         <v>10001</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>1000</v>
+      </c>
+      <c r="J34">
+        <v>500</v>
+      </c>
+      <c r="K34">
+        <v>5000</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2118,8 +2881,26 @@
       <c r="H35">
         <v>10001</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>1000</v>
+      </c>
+      <c r="J35">
+        <v>500</v>
+      </c>
+      <c r="K35">
+        <v>5000</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>1000</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2144,8 +2925,26 @@
       <c r="H36">
         <v>10001</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>1000</v>
+      </c>
+      <c r="J36">
+        <v>500</v>
+      </c>
+      <c r="K36">
+        <v>5000</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2170,8 +2969,26 @@
       <c r="H37">
         <v>10001</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>1000</v>
+      </c>
+      <c r="J37">
+        <v>500</v>
+      </c>
+      <c r="K37">
+        <v>5000</v>
+      </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2196,8 +3013,26 @@
       <c r="H38">
         <v>10001</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>1000</v>
+      </c>
+      <c r="J38">
+        <v>500</v>
+      </c>
+      <c r="K38">
+        <v>5000</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>1000</v>
+      </c>
+      <c r="N38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2222,8 +3057,26 @@
       <c r="H39">
         <v>10001</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="J39">
+        <v>500</v>
+      </c>
+      <c r="K39">
+        <v>5000</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2248,8 +3101,26 @@
       <c r="H40">
         <v>10001</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>1000</v>
+      </c>
+      <c r="J40">
+        <v>500</v>
+      </c>
+      <c r="K40">
+        <v>5000</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2274,8 +3145,26 @@
       <c r="H41">
         <v>10001</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>1000</v>
+      </c>
+      <c r="J41">
+        <v>500</v>
+      </c>
+      <c r="K41">
+        <v>5000</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>1000</v>
+      </c>
+      <c r="N41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2300,8 +3189,26 @@
       <c r="H42">
         <v>10001</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>1000</v>
+      </c>
+      <c r="J42">
+        <v>500</v>
+      </c>
+      <c r="K42">
+        <v>5000</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>1000</v>
+      </c>
+      <c r="N42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2326,8 +3233,26 @@
       <c r="H43">
         <v>10001</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>1000</v>
+      </c>
+      <c r="J43">
+        <v>500</v>
+      </c>
+      <c r="K43">
+        <v>5000</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
+      </c>
+      <c r="N43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2352,8 +3277,26 @@
       <c r="H44">
         <v>10001</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>1000</v>
+      </c>
+      <c r="J44">
+        <v>500</v>
+      </c>
+      <c r="K44">
+        <v>5000</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="N44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2378,8 +3321,26 @@
       <c r="H45">
         <v>10001</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>1000</v>
+      </c>
+      <c r="J45">
+        <v>500</v>
+      </c>
+      <c r="K45">
+        <v>5000</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>1000</v>
+      </c>
+      <c r="N45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2404,8 +3365,26 @@
       <c r="H46">
         <v>10001</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>1000</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+      <c r="K46">
+        <v>5000</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>1000</v>
+      </c>
+      <c r="N46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2430,8 +3409,26 @@
       <c r="H47">
         <v>10001</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>1000</v>
+      </c>
+      <c r="J47">
+        <v>500</v>
+      </c>
+      <c r="K47">
+        <v>5000</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>1000</v>
+      </c>
+      <c r="N47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2456,8 +3453,26 @@
       <c r="H48">
         <v>10001</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>1000</v>
+      </c>
+      <c r="J48">
+        <v>500</v>
+      </c>
+      <c r="K48">
+        <v>5000</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+      <c r="M48">
+        <v>1000</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2482,8 +3497,26 @@
       <c r="H49">
         <v>10001</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>1000</v>
+      </c>
+      <c r="J49">
+        <v>500</v>
+      </c>
+      <c r="K49">
+        <v>5000</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>1000</v>
+      </c>
+      <c r="N49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2508,8 +3541,26 @@
       <c r="H50">
         <v>10001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>1000</v>
+      </c>
+      <c r="J50">
+        <v>500</v>
+      </c>
+      <c r="K50">
+        <v>5000</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2534,8 +3585,26 @@
       <c r="H51">
         <v>10001</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>1000</v>
+      </c>
+      <c r="J51">
+        <v>500</v>
+      </c>
+      <c r="K51">
+        <v>5000</v>
+      </c>
+      <c r="L51">
+        <v>10</v>
+      </c>
+      <c r="M51">
+        <v>1000</v>
+      </c>
+      <c r="N51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2560,8 +3629,26 @@
       <c r="H52">
         <v>10001</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>1000</v>
+      </c>
+      <c r="J52">
+        <v>500</v>
+      </c>
+      <c r="K52">
+        <v>5000</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
+      </c>
+      <c r="M52">
+        <v>1000</v>
+      </c>
+      <c r="N52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2586,8 +3673,26 @@
       <c r="H53">
         <v>10001</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>1000</v>
+      </c>
+      <c r="J53">
+        <v>500</v>
+      </c>
+      <c r="K53">
+        <v>5000</v>
+      </c>
+      <c r="L53">
+        <v>10</v>
+      </c>
+      <c r="M53">
+        <v>1000</v>
+      </c>
+      <c r="N53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2612,8 +3717,26 @@
       <c r="H54">
         <v>10001</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>1000</v>
+      </c>
+      <c r="J54">
+        <v>500</v>
+      </c>
+      <c r="K54">
+        <v>5000</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="M54">
+        <v>1000</v>
+      </c>
+      <c r="N54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2638,8 +3761,26 @@
       <c r="H55">
         <v>10001</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>1000</v>
+      </c>
+      <c r="J55">
+        <v>500</v>
+      </c>
+      <c r="K55">
+        <v>5000</v>
+      </c>
+      <c r="L55">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>1000</v>
+      </c>
+      <c r="N55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2664,8 +3805,26 @@
       <c r="H56">
         <v>10001</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>1000</v>
+      </c>
+      <c r="J56">
+        <v>500</v>
+      </c>
+      <c r="K56">
+        <v>5000</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>1000</v>
+      </c>
+      <c r="N56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2690,8 +3849,26 @@
       <c r="H57">
         <v>10001</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>1000</v>
+      </c>
+      <c r="J57">
+        <v>500</v>
+      </c>
+      <c r="K57">
+        <v>5000</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>1000</v>
+      </c>
+      <c r="N57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2716,8 +3893,26 @@
       <c r="H58">
         <v>10001</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>1000</v>
+      </c>
+      <c r="J58">
+        <v>500</v>
+      </c>
+      <c r="K58">
+        <v>5000</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>1000</v>
+      </c>
+      <c r="N58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2742,8 +3937,26 @@
       <c r="H59">
         <v>10001</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>1000</v>
+      </c>
+      <c r="J59">
+        <v>500</v>
+      </c>
+      <c r="K59">
+        <v>5000</v>
+      </c>
+      <c r="L59">
+        <v>10</v>
+      </c>
+      <c r="M59">
+        <v>1000</v>
+      </c>
+      <c r="N59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2768,8 +3981,26 @@
       <c r="H60">
         <v>10001</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>1000</v>
+      </c>
+      <c r="J60">
+        <v>500</v>
+      </c>
+      <c r="K60">
+        <v>5000</v>
+      </c>
+      <c r="L60">
+        <v>10</v>
+      </c>
+      <c r="M60">
+        <v>1000</v>
+      </c>
+      <c r="N60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2794,8 +4025,26 @@
       <c r="H61">
         <v>10001</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>1000</v>
+      </c>
+      <c r="J61">
+        <v>500</v>
+      </c>
+      <c r="K61">
+        <v>5000</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61">
+        <v>1000</v>
+      </c>
+      <c r="N61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2820,8 +4069,26 @@
       <c r="H62">
         <v>10001</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>1000</v>
+      </c>
+      <c r="J62">
+        <v>500</v>
+      </c>
+      <c r="K62">
+        <v>5000</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <v>1000</v>
+      </c>
+      <c r="N62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2846,8 +4113,26 @@
       <c r="H63">
         <v>10001</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>1000</v>
+      </c>
+      <c r="J63">
+        <v>500</v>
+      </c>
+      <c r="K63">
+        <v>5000</v>
+      </c>
+      <c r="L63">
+        <v>10</v>
+      </c>
+      <c r="M63">
+        <v>1000</v>
+      </c>
+      <c r="N63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2872,8 +4157,26 @@
       <c r="H64">
         <v>10001</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <v>1000</v>
+      </c>
+      <c r="J64">
+        <v>500</v>
+      </c>
+      <c r="K64">
+        <v>5000</v>
+      </c>
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <v>1000</v>
+      </c>
+      <c r="N64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2898,8 +4201,26 @@
       <c r="H65">
         <v>10001</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65">
+        <v>1000</v>
+      </c>
+      <c r="J65">
+        <v>500</v>
+      </c>
+      <c r="K65">
+        <v>5000</v>
+      </c>
+      <c r="L65">
+        <v>10</v>
+      </c>
+      <c r="M65">
+        <v>1000</v>
+      </c>
+      <c r="N65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2924,8 +4245,26 @@
       <c r="H66">
         <v>10001</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>1000</v>
+      </c>
+      <c r="J66">
+        <v>500</v>
+      </c>
+      <c r="K66">
+        <v>5000</v>
+      </c>
+      <c r="L66">
+        <v>10</v>
+      </c>
+      <c r="M66">
+        <v>1000</v>
+      </c>
+      <c r="N66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2950,8 +4289,26 @@
       <c r="H67">
         <v>10001</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>1000</v>
+      </c>
+      <c r="J67">
+        <v>500</v>
+      </c>
+      <c r="K67">
+        <v>5000</v>
+      </c>
+      <c r="L67">
+        <v>10</v>
+      </c>
+      <c r="M67">
+        <v>1000</v>
+      </c>
+      <c r="N67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2976,8 +4333,26 @@
       <c r="H68">
         <v>10001</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <v>1000</v>
+      </c>
+      <c r="J68">
+        <v>500</v>
+      </c>
+      <c r="K68">
+        <v>5000</v>
+      </c>
+      <c r="L68">
+        <v>10</v>
+      </c>
+      <c r="M68">
+        <v>1000</v>
+      </c>
+      <c r="N68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3002,8 +4377,26 @@
       <c r="H69">
         <v>10001</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>1000</v>
+      </c>
+      <c r="J69">
+        <v>500</v>
+      </c>
+      <c r="K69">
+        <v>5000</v>
+      </c>
+      <c r="L69">
+        <v>10</v>
+      </c>
+      <c r="M69">
+        <v>1000</v>
+      </c>
+      <c r="N69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3028,8 +4421,26 @@
       <c r="H70">
         <v>10001</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70">
+        <v>1000</v>
+      </c>
+      <c r="J70">
+        <v>500</v>
+      </c>
+      <c r="K70">
+        <v>5000</v>
+      </c>
+      <c r="L70">
+        <v>10</v>
+      </c>
+      <c r="M70">
+        <v>1000</v>
+      </c>
+      <c r="N70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3054,8 +4465,26 @@
       <c r="H71">
         <v>10001</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71">
+        <v>1000</v>
+      </c>
+      <c r="J71">
+        <v>500</v>
+      </c>
+      <c r="K71">
+        <v>5000</v>
+      </c>
+      <c r="L71">
+        <v>10</v>
+      </c>
+      <c r="M71">
+        <v>1000</v>
+      </c>
+      <c r="N71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3080,8 +4509,26 @@
       <c r="H72">
         <v>10001</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <v>1000</v>
+      </c>
+      <c r="J72">
+        <v>500</v>
+      </c>
+      <c r="K72">
+        <v>5000</v>
+      </c>
+      <c r="L72">
+        <v>10</v>
+      </c>
+      <c r="M72">
+        <v>1000</v>
+      </c>
+      <c r="N72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3106,8 +4553,26 @@
       <c r="H73">
         <v>10001</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73">
+        <v>1000</v>
+      </c>
+      <c r="J73">
+        <v>500</v>
+      </c>
+      <c r="K73">
+        <v>5000</v>
+      </c>
+      <c r="L73">
+        <v>10</v>
+      </c>
+      <c r="M73">
+        <v>1000</v>
+      </c>
+      <c r="N73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3132,8 +4597,26 @@
       <c r="H74">
         <v>10001</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74">
+        <v>1000</v>
+      </c>
+      <c r="J74">
+        <v>500</v>
+      </c>
+      <c r="K74">
+        <v>5000</v>
+      </c>
+      <c r="L74">
+        <v>10</v>
+      </c>
+      <c r="M74">
+        <v>1000</v>
+      </c>
+      <c r="N74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3158,8 +4641,26 @@
       <c r="H75">
         <v>10001</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75">
+        <v>1000</v>
+      </c>
+      <c r="J75">
+        <v>500</v>
+      </c>
+      <c r="K75">
+        <v>5000</v>
+      </c>
+      <c r="L75">
+        <v>10</v>
+      </c>
+      <c r="M75">
+        <v>1000</v>
+      </c>
+      <c r="N75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3184,8 +4685,26 @@
       <c r="H76">
         <v>10001</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76">
+        <v>1000</v>
+      </c>
+      <c r="J76">
+        <v>500</v>
+      </c>
+      <c r="K76">
+        <v>5000</v>
+      </c>
+      <c r="L76">
+        <v>10</v>
+      </c>
+      <c r="M76">
+        <v>1000</v>
+      </c>
+      <c r="N76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3210,8 +4729,26 @@
       <c r="H77">
         <v>10001</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <v>1000</v>
+      </c>
+      <c r="J77">
+        <v>500</v>
+      </c>
+      <c r="K77">
+        <v>5000</v>
+      </c>
+      <c r="L77">
+        <v>10</v>
+      </c>
+      <c r="M77">
+        <v>1000</v>
+      </c>
+      <c r="N77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3236,8 +4773,26 @@
       <c r="H78">
         <v>10001</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>1000</v>
+      </c>
+      <c r="J78">
+        <v>500</v>
+      </c>
+      <c r="K78">
+        <v>5000</v>
+      </c>
+      <c r="L78">
+        <v>10</v>
+      </c>
+      <c r="M78">
+        <v>1000</v>
+      </c>
+      <c r="N78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3262,8 +4817,26 @@
       <c r="H79">
         <v>10001</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79">
+        <v>1000</v>
+      </c>
+      <c r="J79">
+        <v>500</v>
+      </c>
+      <c r="K79">
+        <v>5000</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+      <c r="M79">
+        <v>1000</v>
+      </c>
+      <c r="N79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3288,8 +4861,26 @@
       <c r="H80">
         <v>10001</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>1000</v>
+      </c>
+      <c r="J80">
+        <v>500</v>
+      </c>
+      <c r="K80">
+        <v>5000</v>
+      </c>
+      <c r="L80">
+        <v>10</v>
+      </c>
+      <c r="M80">
+        <v>1000</v>
+      </c>
+      <c r="N80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3314,8 +4905,26 @@
       <c r="H81">
         <v>10001</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>1000</v>
+      </c>
+      <c r="J81">
+        <v>500</v>
+      </c>
+      <c r="K81">
+        <v>5000</v>
+      </c>
+      <c r="L81">
+        <v>10</v>
+      </c>
+      <c r="M81">
+        <v>1000</v>
+      </c>
+      <c r="N81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3340,8 +4949,26 @@
       <c r="H82">
         <v>10001</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>1000</v>
+      </c>
+      <c r="J82">
+        <v>500</v>
+      </c>
+      <c r="K82">
+        <v>5000</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+      <c r="M82">
+        <v>1000</v>
+      </c>
+      <c r="N82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3366,8 +4993,26 @@
       <c r="H83">
         <v>10001</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83">
+        <v>1000</v>
+      </c>
+      <c r="J83">
+        <v>500</v>
+      </c>
+      <c r="K83">
+        <v>5000</v>
+      </c>
+      <c r="L83">
+        <v>10</v>
+      </c>
+      <c r="M83">
+        <v>1000</v>
+      </c>
+      <c r="N83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3392,8 +5037,26 @@
       <c r="H84">
         <v>10001</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>1000</v>
+      </c>
+      <c r="J84">
+        <v>500</v>
+      </c>
+      <c r="K84">
+        <v>5000</v>
+      </c>
+      <c r="L84">
+        <v>10</v>
+      </c>
+      <c r="M84">
+        <v>1000</v>
+      </c>
+      <c r="N84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3418,8 +5081,26 @@
       <c r="H85">
         <v>10001</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <v>1000</v>
+      </c>
+      <c r="J85">
+        <v>500</v>
+      </c>
+      <c r="K85">
+        <v>5000</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+      <c r="M85">
+        <v>1000</v>
+      </c>
+      <c r="N85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3444,8 +5125,26 @@
       <c r="H86">
         <v>10001</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86">
+        <v>1000</v>
+      </c>
+      <c r="J86">
+        <v>500</v>
+      </c>
+      <c r="K86">
+        <v>5000</v>
+      </c>
+      <c r="L86">
+        <v>10</v>
+      </c>
+      <c r="M86">
+        <v>1000</v>
+      </c>
+      <c r="N86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3470,8 +5169,26 @@
       <c r="H87">
         <v>10001</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <v>1000</v>
+      </c>
+      <c r="J87">
+        <v>500</v>
+      </c>
+      <c r="K87">
+        <v>5000</v>
+      </c>
+      <c r="L87">
+        <v>10</v>
+      </c>
+      <c r="M87">
+        <v>1000</v>
+      </c>
+      <c r="N87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3496,8 +5213,26 @@
       <c r="H88">
         <v>10001</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88">
+        <v>1000</v>
+      </c>
+      <c r="J88">
+        <v>500</v>
+      </c>
+      <c r="K88">
+        <v>5000</v>
+      </c>
+      <c r="L88">
+        <v>10</v>
+      </c>
+      <c r="M88">
+        <v>1000</v>
+      </c>
+      <c r="N88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3522,8 +5257,26 @@
       <c r="H89">
         <v>10001</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89">
+        <v>1000</v>
+      </c>
+      <c r="J89">
+        <v>500</v>
+      </c>
+      <c r="K89">
+        <v>5000</v>
+      </c>
+      <c r="L89">
+        <v>10</v>
+      </c>
+      <c r="M89">
+        <v>1000</v>
+      </c>
+      <c r="N89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3548,8 +5301,26 @@
       <c r="H90">
         <v>10001</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <v>1000</v>
+      </c>
+      <c r="J90">
+        <v>500</v>
+      </c>
+      <c r="K90">
+        <v>5000</v>
+      </c>
+      <c r="L90">
+        <v>10</v>
+      </c>
+      <c r="M90">
+        <v>1000</v>
+      </c>
+      <c r="N90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3574,8 +5345,26 @@
       <c r="H91">
         <v>10001</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91">
+        <v>1000</v>
+      </c>
+      <c r="J91">
+        <v>500</v>
+      </c>
+      <c r="K91">
+        <v>5000</v>
+      </c>
+      <c r="L91">
+        <v>10</v>
+      </c>
+      <c r="M91">
+        <v>1000</v>
+      </c>
+      <c r="N91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3600,8 +5389,26 @@
       <c r="H92">
         <v>10001</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92">
+        <v>1000</v>
+      </c>
+      <c r="J92">
+        <v>500</v>
+      </c>
+      <c r="K92">
+        <v>5000</v>
+      </c>
+      <c r="L92">
+        <v>10</v>
+      </c>
+      <c r="M92">
+        <v>1000</v>
+      </c>
+      <c r="N92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3626,8 +5433,26 @@
       <c r="H93">
         <v>10001</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93">
+        <v>1000</v>
+      </c>
+      <c r="J93">
+        <v>500</v>
+      </c>
+      <c r="K93">
+        <v>5000</v>
+      </c>
+      <c r="L93">
+        <v>10</v>
+      </c>
+      <c r="M93">
+        <v>1000</v>
+      </c>
+      <c r="N93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3652,8 +5477,26 @@
       <c r="H94">
         <v>10001</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94">
+        <v>1000</v>
+      </c>
+      <c r="J94">
+        <v>500</v>
+      </c>
+      <c r="K94">
+        <v>5000</v>
+      </c>
+      <c r="L94">
+        <v>10</v>
+      </c>
+      <c r="M94">
+        <v>1000</v>
+      </c>
+      <c r="N94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3678,8 +5521,26 @@
       <c r="H95">
         <v>10001</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95">
+        <v>1000</v>
+      </c>
+      <c r="J95">
+        <v>500</v>
+      </c>
+      <c r="K95">
+        <v>5000</v>
+      </c>
+      <c r="L95">
+        <v>10</v>
+      </c>
+      <c r="M95">
+        <v>1000</v>
+      </c>
+      <c r="N95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3704,8 +5565,26 @@
       <c r="H96">
         <v>10001</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>1000</v>
+      </c>
+      <c r="J96">
+        <v>500</v>
+      </c>
+      <c r="K96">
+        <v>5000</v>
+      </c>
+      <c r="L96">
+        <v>10</v>
+      </c>
+      <c r="M96">
+        <v>1000</v>
+      </c>
+      <c r="N96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3730,8 +5609,26 @@
       <c r="H97">
         <v>10001</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97">
+        <v>1000</v>
+      </c>
+      <c r="J97">
+        <v>500</v>
+      </c>
+      <c r="K97">
+        <v>5000</v>
+      </c>
+      <c r="L97">
+        <v>10</v>
+      </c>
+      <c r="M97">
+        <v>1000</v>
+      </c>
+      <c r="N97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3756,8 +5653,26 @@
       <c r="H98">
         <v>10001</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98">
+        <v>1000</v>
+      </c>
+      <c r="J98">
+        <v>500</v>
+      </c>
+      <c r="K98">
+        <v>5000</v>
+      </c>
+      <c r="L98">
+        <v>10</v>
+      </c>
+      <c r="M98">
+        <v>1000</v>
+      </c>
+      <c r="N98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3782,8 +5697,26 @@
       <c r="H99">
         <v>10001</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99">
+        <v>1000</v>
+      </c>
+      <c r="J99">
+        <v>500</v>
+      </c>
+      <c r="K99">
+        <v>5000</v>
+      </c>
+      <c r="L99">
+        <v>10</v>
+      </c>
+      <c r="M99">
+        <v>1000</v>
+      </c>
+      <c r="N99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3808,8 +5741,26 @@
       <c r="H100">
         <v>10001</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>1000</v>
+      </c>
+      <c r="J100">
+        <v>500</v>
+      </c>
+      <c r="K100">
+        <v>5000</v>
+      </c>
+      <c r="L100">
+        <v>10</v>
+      </c>
+      <c r="M100">
+        <v>1000</v>
+      </c>
+      <c r="N100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3833,6 +5784,24 @@
       </c>
       <c r="H101">
         <v>10001</v>
+      </c>
+      <c r="I101">
+        <v>1000</v>
+      </c>
+      <c r="J101">
+        <v>500</v>
+      </c>
+      <c r="K101">
+        <v>5000</v>
+      </c>
+      <c r="L101">
+        <v>10</v>
+      </c>
+      <c r="M101">
+        <v>1000</v>
+      </c>
+      <c r="N101">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\桌面文档\大魔王\配置表(2)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42420C6F-0794-4D62-B74B-F20F85DBB2C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
     <author>48203541@qq.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>role_lv</t>
   </si>
@@ -382,14 +388,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,345 +398,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -744,251 +432,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,61 +446,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1341,26 +743,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1448,7 +850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1492,7 +894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1536,7 +938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1580,7 +982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1624,7 +1026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1668,7 +1070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1712,7 +1114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1756,7 +1158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1800,7 +1202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1844,7 +1246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1888,7 +1290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1932,7 +1334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1976,7 +1378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2020,7 +1422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2064,7 +1466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2108,7 +1510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2152,7 +1554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2196,7 +1598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2240,7 +1642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2284,7 +1686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2328,7 +1730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2372,7 +1774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2416,7 +1818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2460,7 +1862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2504,7 +1906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2548,7 +1950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2592,7 +1994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2636,7 +2038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2680,7 +2082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2724,7 +2126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2768,7 +2170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2812,7 +2214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2856,7 +2258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2900,7 +2302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2944,7 +2346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2988,7 +2390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3032,7 +2434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3076,7 +2478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3120,7 +2522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3164,7 +2566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3208,7 +2610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3252,7 +2654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3296,7 +2698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3340,7 +2742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3384,7 +2786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3428,7 +2830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3472,7 +2874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3516,7 +2918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3560,7 +2962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3604,7 +3006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3648,7 +3050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3692,7 +3094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3736,7 +3138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3780,7 +3182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3824,7 +3226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3868,7 +3270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3912,7 +3314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3956,7 +3358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4000,7 +3402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4044,7 +3446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4088,7 +3490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4132,7 +3534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4176,7 +3578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4220,7 +3622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4264,7 +3666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4308,7 +3710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4352,7 +3754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4396,7 +3798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4440,7 +3842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4484,7 +3886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4528,7 +3930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4572,7 +3974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4616,7 +4018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4660,7 +4062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4704,7 +4106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4748,7 +4150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4792,7 +4194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4836,7 +4238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4880,7 +4282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4924,7 +4326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4968,7 +4370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5012,7 +4414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5056,7 +4458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5100,7 +4502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5144,7 +4546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5188,7 +4590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5232,7 +4634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5276,7 +4678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5320,7 +4722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5364,7 +4766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5408,7 +4810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5452,7 +4854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5496,7 +4898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5540,7 +4942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5584,7 +4986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5628,7 +5030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5672,7 +5074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5716,7 +5118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5760,7 +5162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5805,43 +5207,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\桌面文档\大魔王\配置表(2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\配置表(2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42420C6F-0794-4D62-B74B-F20F85DBB2C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6007B570-D7EE-4734-931B-C2CFE114A350}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -389,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +407,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -751,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -838,16 +844,16 @@
         <v>500</v>
       </c>
       <c r="K2">
-        <v>5000</v>
+        <v>9900</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1000</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -5209,8 +5215,8 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5222,7 +5228,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5236,7 +5242,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\配置表(2)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6007B570-D7EE-4734-931B-C2CFE114A350}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +16,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
     <author>48203541@qq.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -226,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -248,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -270,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -292,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -314,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -341,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>role_lv</t>
   </si>
@@ -388,8 +382,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,39 +398,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -438,9 +744,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -452,17 +1000,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -749,26 +1341,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +1404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -826,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="1">
         <v>1.45</v>
@@ -856,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -870,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="1">
         <v>1.45</v>
@@ -900,7 +1492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -914,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="F4" s="1">
         <v>1.45</v>
@@ -944,7 +1536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -958,7 +1550,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="F5" s="1">
         <v>1.45</v>
@@ -988,7 +1580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1002,7 +1594,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="1">
         <v>1.45</v>
@@ -1032,7 +1624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1046,7 +1638,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="1">
         <v>1.45</v>
@@ -1076,7 +1668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1090,7 +1682,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="1">
         <v>1.45</v>
@@ -1120,7 +1712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1134,7 +1726,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="1">
         <v>1.45</v>
@@ -1164,7 +1756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1178,7 +1770,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="1">
         <v>1.45</v>
@@ -1208,7 +1800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1222,7 +1814,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="1">
         <v>1.45</v>
@@ -1252,7 +1844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1266,7 +1858,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="1">
         <v>1.45</v>
@@ -1296,7 +1888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1310,7 +1902,7 @@
         <v>84</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="1">
         <v>1.45</v>
@@ -1340,7 +1932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1354,7 +1946,7 @@
         <v>94</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="1">
         <v>1.45</v>
@@ -1384,7 +1976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1398,7 +1990,7 @@
         <v>104</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="1">
         <v>1.45</v>
@@ -1428,7 +2020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1442,7 +2034,7 @@
         <v>114</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="1">
         <v>1.45</v>
@@ -1472,7 +2064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1486,7 +2078,7 @@
         <v>124</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="1">
         <v>1.45</v>
@@ -1516,7 +2108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1530,7 +2122,7 @@
         <v>134</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="1">
         <v>1.45</v>
@@ -1560,7 +2152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1574,7 +2166,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="1">
         <v>1.45</v>
@@ -1604,7 +2196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1618,7 +2210,7 @@
         <v>154</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="1">
         <v>1.45</v>
@@ -1648,7 +2240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1662,7 +2254,7 @@
         <v>164</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="1">
         <v>1.45</v>
@@ -1692,7 +2284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1706,7 +2298,7 @@
         <v>179</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="1">
         <v>1.45</v>
@@ -1736,7 +2328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1750,7 +2342,7 @@
         <v>194</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="1">
         <v>1.45</v>
@@ -1780,7 +2372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1794,7 +2386,7 @@
         <v>209</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="1">
         <v>1.45</v>
@@ -1824,7 +2416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1838,7 +2430,7 @@
         <v>224</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="1">
         <v>1.45</v>
@@ -1868,7 +2460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1882,7 +2474,7 @@
         <v>239</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="1">
         <v>1.45</v>
@@ -1912,7 +2504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1926,7 +2518,7 @@
         <v>254</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="1">
         <v>1.45</v>
@@ -1956,7 +2548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1970,7 +2562,7 @@
         <v>269</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="1">
         <v>1.45</v>
@@ -2000,7 +2592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2014,7 +2606,7 @@
         <v>284</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F29" s="1">
         <v>1.45</v>
@@ -2044,7 +2636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2058,7 +2650,7 @@
         <v>299</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F30" s="1">
         <v>1.45</v>
@@ -2088,7 +2680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2102,7 +2694,7 @@
         <v>314</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F31" s="1">
         <v>1.45</v>
@@ -2132,7 +2724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2146,7 +2738,7 @@
         <v>334</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="1">
         <v>1.45</v>
@@ -2176,7 +2768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2190,7 +2782,7 @@
         <v>354</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="1">
         <v>1.45</v>
@@ -2220,7 +2812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2234,7 +2826,7 @@
         <v>374</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F34" s="1">
         <v>1.45</v>
@@ -2264,7 +2856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2278,7 +2870,7 @@
         <v>394</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="1">
         <v>1.45</v>
@@ -2308,7 +2900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2322,7 +2914,7 @@
         <v>414</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="1">
         <v>1.45</v>
@@ -2352,7 +2944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2366,7 +2958,7 @@
         <v>434</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F37" s="1">
         <v>1.45</v>
@@ -2396,7 +2988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2410,7 +3002,7 @@
         <v>454</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F38" s="1">
         <v>1.45</v>
@@ -2440,7 +3032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2454,7 +3046,7 @@
         <v>474</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="1">
         <v>1.45</v>
@@ -2484,7 +3076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2498,7 +3090,7 @@
         <v>494</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="1">
         <v>1.45</v>
@@ -2528,7 +3120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2542,7 +3134,7 @@
         <v>514</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="1">
         <v>1.45</v>
@@ -2572,7 +3164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2586,7 +3178,7 @@
         <v>544</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F42" s="1">
         <v>1.45</v>
@@ -2616,7 +3208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2630,7 +3222,7 @@
         <v>574</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="1">
         <v>1.45</v>
@@ -2660,7 +3252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2674,7 +3266,7 @@
         <v>604</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="1">
         <v>1.45</v>
@@ -2704,7 +3296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2718,7 +3310,7 @@
         <v>634</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="1">
         <v>1.45</v>
@@ -2748,7 +3340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2762,7 +3354,7 @@
         <v>664</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="1">
         <v>1.45</v>
@@ -2792,7 +3384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2806,7 +3398,7 @@
         <v>694</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="1">
         <v>1.45</v>
@@ -2836,7 +3428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2850,7 +3442,7 @@
         <v>724</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="1">
         <v>1.45</v>
@@ -2880,7 +3472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2894,7 +3486,7 @@
         <v>754</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="1">
         <v>1.45</v>
@@ -2924,7 +3516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2938,7 +3530,7 @@
         <v>784</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="1">
         <v>1.45</v>
@@ -2968,7 +3560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2982,7 +3574,7 @@
         <v>814</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F51" s="1">
         <v>1.45</v>
@@ -3012,7 +3604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3026,7 +3618,7 @@
         <v>844</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="1">
         <v>1.45</v>
@@ -3056,7 +3648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3070,7 +3662,7 @@
         <v>874</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F53" s="1">
         <v>1.45</v>
@@ -3100,7 +3692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3114,7 +3706,7 @@
         <v>904</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="1">
         <v>1.45</v>
@@ -3144,7 +3736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3158,7 +3750,7 @@
         <v>934</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F55" s="1">
         <v>1.45</v>
@@ -3188,7 +3780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3202,7 +3794,7 @@
         <v>964</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F56" s="1">
         <v>1.45</v>
@@ -3232,7 +3824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3246,7 +3838,7 @@
         <v>994</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="1">
         <v>1.45</v>
@@ -3276,7 +3868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3290,7 +3882,7 @@
         <v>1024</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="1">
         <v>1.45</v>
@@ -3320,7 +3912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3334,7 +3926,7 @@
         <v>1054</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="1">
         <v>1.45</v>
@@ -3364,7 +3956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3378,7 +3970,7 @@
         <v>1084</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F60" s="1">
         <v>1.45</v>
@@ -3408,7 +4000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3422,7 +4014,7 @@
         <v>1114</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="1">
         <v>1.45</v>
@@ -3452,7 +4044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3466,7 +4058,7 @@
         <v>1144</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="1">
         <v>1.45</v>
@@ -3496,7 +4088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3510,7 +4102,7 @@
         <v>1174</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="1">
         <v>1.45</v>
@@ -3540,7 +4132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3554,7 +4146,7 @@
         <v>1204</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F64" s="1">
         <v>1.45</v>
@@ -3584,7 +4176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3598,7 +4190,7 @@
         <v>1234</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F65" s="1">
         <v>1.45</v>
@@ -3628,7 +4220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3642,7 +4234,7 @@
         <v>1264</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F66" s="1">
         <v>1.45</v>
@@ -3672,7 +4264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3686,7 +4278,7 @@
         <v>1294</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F67" s="1">
         <v>1.45</v>
@@ -3716,7 +4308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3730,7 +4322,7 @@
         <v>1324</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F68" s="1">
         <v>1.45</v>
@@ -3760,7 +4352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3774,7 +4366,7 @@
         <v>1354</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F69" s="1">
         <v>1.45</v>
@@ -3804,7 +4396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3818,7 +4410,7 @@
         <v>1384</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F70" s="1">
         <v>1.45</v>
@@ -3848,7 +4440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3862,7 +4454,7 @@
         <v>1414</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F71" s="1">
         <v>1.45</v>
@@ -3892,7 +4484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3906,7 +4498,7 @@
         <v>1444</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F72" s="1">
         <v>1.45</v>
@@ -3936,7 +4528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3950,7 +4542,7 @@
         <v>1474</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F73" s="1">
         <v>1.45</v>
@@ -3980,7 +4572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3994,7 +4586,7 @@
         <v>1504</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F74" s="1">
         <v>1.45</v>
@@ -4024,7 +4616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4038,7 +4630,7 @@
         <v>1534</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F75" s="1">
         <v>1.45</v>
@@ -4068,7 +4660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4082,7 +4674,7 @@
         <v>1564</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F76" s="1">
         <v>1.45</v>
@@ -4112,7 +4704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4126,7 +4718,7 @@
         <v>1594</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F77" s="1">
         <v>1.45</v>
@@ -4156,7 +4748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4170,7 +4762,7 @@
         <v>1624</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F78" s="1">
         <v>1.45</v>
@@ -4200,7 +4792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4214,7 +4806,7 @@
         <v>1654</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F79" s="1">
         <v>1.45</v>
@@ -4244,7 +4836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4258,7 +4850,7 @@
         <v>1684</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F80" s="1">
         <v>1.45</v>
@@ -4288,7 +4880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4302,7 +4894,7 @@
         <v>1714</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F81" s="1">
         <v>1.45</v>
@@ -4332,7 +4924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4346,7 +4938,7 @@
         <v>1744</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F82" s="1">
         <v>1.45</v>
@@ -4376,7 +4968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4390,7 +4982,7 @@
         <v>1774</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="1">
         <v>1.45</v>
@@ -4420,7 +5012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4434,7 +5026,7 @@
         <v>1804</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F84" s="1">
         <v>1.45</v>
@@ -4464,7 +5056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4478,7 +5070,7 @@
         <v>1834</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F85" s="1">
         <v>1.45</v>
@@ -4508,7 +5100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4522,7 +5114,7 @@
         <v>1864</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F86" s="1">
         <v>1.45</v>
@@ -4552,7 +5144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4566,7 +5158,7 @@
         <v>1894</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F87" s="1">
         <v>1.45</v>
@@ -4596,7 +5188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4610,7 +5202,7 @@
         <v>1924</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F88" s="1">
         <v>1.45</v>
@@ -4640,7 +5232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4654,7 +5246,7 @@
         <v>1954</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F89" s="1">
         <v>1.45</v>
@@ -4684,7 +5276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4698,7 +5290,7 @@
         <v>1984</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F90" s="1">
         <v>1.45</v>
@@ -4728,7 +5320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4742,7 +5334,7 @@
         <v>2014</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F91" s="1">
         <v>1.45</v>
@@ -4772,7 +5364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4786,7 +5378,7 @@
         <v>2044</v>
       </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F92" s="1">
         <v>1.45</v>
@@ -4816,7 +5408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4830,7 +5422,7 @@
         <v>2074</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F93" s="1">
         <v>1.45</v>
@@ -4860,7 +5452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4874,7 +5466,7 @@
         <v>2104</v>
       </c>
       <c r="E94" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F94" s="1">
         <v>1.45</v>
@@ -4904,7 +5496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4918,7 +5510,7 @@
         <v>2134</v>
       </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F95" s="1">
         <v>1.45</v>
@@ -4948,7 +5540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4962,7 +5554,7 @@
         <v>2164</v>
       </c>
       <c r="E96" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F96" s="1">
         <v>1.45</v>
@@ -4992,7 +5584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5006,7 +5598,7 @@
         <v>2194</v>
       </c>
       <c r="E97" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F97" s="1">
         <v>1.45</v>
@@ -5036,7 +5628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5050,7 +5642,7 @@
         <v>2224</v>
       </c>
       <c r="E98" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F98" s="1">
         <v>1.45</v>
@@ -5080,7 +5672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5094,7 +5686,7 @@
         <v>2254</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="1">
         <v>1.45</v>
@@ -5124,7 +5716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5138,7 +5730,7 @@
         <v>2284</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F100" s="1">
         <v>1.45</v>
@@ -5168,7 +5760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5182,7 +5774,7 @@
         <v>2314</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F101" s="1">
         <v>1.45</v>
@@ -5213,37 +5805,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\配置表(2)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{623122A7-37A3-4C09-847D-644D9B00801E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
     <author>48203541@qq.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -59,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,13 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -81,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,13 +100,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -103,6 +116,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -110,13 +124,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -125,6 +140,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -132,13 +148,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -147,6 +164,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -154,13 +172,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -169,6 +188,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,13 +196,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -191,6 +212,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,13 +220,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -213,6 +236,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -220,13 +244,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -235,6 +260,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -242,13 +268,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -257,6 +284,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -264,13 +292,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -279,6 +308,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -286,13 +316,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -301,6 +332,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -308,13 +340,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -323,6 +356,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -335,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>role_lv</t>
   </si>
@@ -382,14 +416,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,345 +426,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -744,251 +469,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,61 +483,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1341,26 +780,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1415,10 +854,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>1.45</v>
@@ -1433,10 +872,10 @@
         <v>1000</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9900</v>
+        <v>1000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1448,27 +887,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="C3" s="1">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1.45</v>
       </c>
       <c r="G3" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H3">
         <v>10001</v>
@@ -1477,42 +916,42 @@
         <v>1000</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1000</v>
       </c>
       <c r="N3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="C4" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>1.45</v>
       </c>
       <c r="G4" s="1">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H4">
         <v>10001</v>
@@ -1521,42 +960,42 @@
         <v>1000</v>
       </c>
       <c r="J4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1000</v>
       </c>
       <c r="N4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="C5" s="1">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>1.45</v>
       </c>
       <c r="G5" s="1">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H5">
         <v>10001</v>
@@ -1565,42 +1004,42 @@
         <v>1000</v>
       </c>
       <c r="J5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1000</v>
       </c>
       <c r="N5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="C6" s="1">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1.45</v>
       </c>
       <c r="G6" s="1">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="H6">
         <v>10001</v>
@@ -1609,42 +1048,42 @@
         <v>1000</v>
       </c>
       <c r="J6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>1000</v>
       </c>
       <c r="N6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="C7" s="1">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>1.45</v>
       </c>
       <c r="G7" s="1">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="H7">
         <v>10001</v>
@@ -1653,42 +1092,42 @@
         <v>1000</v>
       </c>
       <c r="J7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1000</v>
       </c>
       <c r="N7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3900</v>
+        <v>900</v>
       </c>
       <c r="C8" s="1">
-        <v>410</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>1.45</v>
       </c>
       <c r="G8" s="1">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="H8">
         <v>10001</v>
@@ -1697,42 +1136,42 @@
         <v>1000</v>
       </c>
       <c r="J8">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>1000</v>
       </c>
       <c r="N8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="1">
-        <v>475</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>1.45</v>
       </c>
       <c r="G9" s="1">
-        <v>849</v>
+        <v>800</v>
       </c>
       <c r="H9">
         <v>10001</v>
@@ -1741,42 +1180,42 @@
         <v>1000</v>
       </c>
       <c r="J9">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1000</v>
       </c>
       <c r="N9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5100</v>
+        <v>1100</v>
       </c>
       <c r="C10" s="1">
-        <v>540</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>1.45</v>
       </c>
       <c r="G10" s="1">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="H10">
         <v>10001</v>
@@ -1785,42 +1224,42 @@
         <v>1000</v>
       </c>
       <c r="J10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1000</v>
       </c>
       <c r="N10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>5700</v>
+        <v>1200</v>
       </c>
       <c r="C11" s="1">
-        <v>605</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>1.45</v>
       </c>
       <c r="G11" s="1">
-        <v>1081</v>
+        <v>1000</v>
       </c>
       <c r="H11">
         <v>10001</v>
@@ -1829,42 +1268,42 @@
         <v>1000</v>
       </c>
       <c r="J11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1000</v>
       </c>
       <c r="N11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>6600</v>
+        <v>1300</v>
       </c>
       <c r="C12" s="1">
-        <v>695</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>1.45</v>
       </c>
       <c r="G12" s="1">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H12">
         <v>10001</v>
@@ -1873,42 +1312,42 @@
         <v>1000</v>
       </c>
       <c r="J12">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1000</v>
       </c>
       <c r="N12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="C13" s="1">
-        <v>785</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>1.45</v>
       </c>
       <c r="G13" s="1">
-        <v>1321</v>
+        <v>1200</v>
       </c>
       <c r="H13">
         <v>10001</v>
@@ -1917,42 +1356,42 @@
         <v>1000</v>
       </c>
       <c r="J13">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>1000</v>
       </c>
       <c r="N13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>8400</v>
+        <v>1500</v>
       </c>
       <c r="C14" s="1">
-        <v>875</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>1.45</v>
       </c>
       <c r="G14" s="1">
-        <v>1444</v>
+        <v>1300</v>
       </c>
       <c r="H14">
         <v>10001</v>
@@ -1961,42 +1400,42 @@
         <v>1000</v>
       </c>
       <c r="J14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1000</v>
       </c>
       <c r="N14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>9300</v>
+        <v>1600</v>
       </c>
       <c r="C15" s="1">
-        <v>965</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>1.45</v>
       </c>
       <c r="G15" s="1">
-        <v>1569</v>
+        <v>1400</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -2005,42 +1444,42 @@
         <v>1000</v>
       </c>
       <c r="J15">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>1000</v>
       </c>
       <c r="N15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>10200</v>
+        <v>1700</v>
       </c>
       <c r="C16" s="1">
-        <v>1055</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>1.45</v>
       </c>
       <c r="G16" s="1">
-        <v>1696</v>
+        <v>1500</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -2049,42 +1488,42 @@
         <v>1000</v>
       </c>
       <c r="J16">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>1000</v>
       </c>
       <c r="N16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>11100</v>
+        <v>1800</v>
       </c>
       <c r="C17" s="1">
-        <v>1145</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>1.45</v>
       </c>
       <c r="G17" s="1">
-        <v>1825</v>
+        <v>1600</v>
       </c>
       <c r="H17">
         <v>10001</v>
@@ -2093,42 +1532,42 @@
         <v>1000</v>
       </c>
       <c r="J17">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1000</v>
       </c>
       <c r="N17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>12000</v>
+        <v>1900</v>
       </c>
       <c r="C18" s="1">
-        <v>1235</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>1.45</v>
       </c>
       <c r="G18" s="1">
-        <v>1956</v>
+        <v>1700</v>
       </c>
       <c r="H18">
         <v>10001</v>
@@ -2137,42 +1576,42 @@
         <v>1000</v>
       </c>
       <c r="J18">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>1000</v>
       </c>
       <c r="N18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>12900</v>
+        <v>2000</v>
       </c>
       <c r="C19" s="1">
-        <v>1325</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>1.45</v>
       </c>
       <c r="G19" s="1">
-        <v>2089</v>
+        <v>1800</v>
       </c>
       <c r="H19">
         <v>10001</v>
@@ -2181,42 +1620,42 @@
         <v>1000</v>
       </c>
       <c r="J19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>1000</v>
       </c>
       <c r="N19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>13800</v>
+        <v>2100</v>
       </c>
       <c r="C20" s="1">
-        <v>1415</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>1.45</v>
       </c>
       <c r="G20" s="1">
-        <v>2224</v>
+        <v>1900</v>
       </c>
       <c r="H20">
         <v>10001</v>
@@ -2225,42 +1664,42 @@
         <v>1000</v>
       </c>
       <c r="J20">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>1000</v>
       </c>
       <c r="N20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>14700</v>
+        <v>2200</v>
       </c>
       <c r="C21" s="1">
-        <v>1505</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>1.45</v>
       </c>
       <c r="G21" s="1">
-        <v>2361</v>
+        <v>2000</v>
       </c>
       <c r="H21">
         <v>10001</v>
@@ -2269,42 +1708,42 @@
         <v>1000</v>
       </c>
       <c r="J21">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>1000</v>
       </c>
       <c r="N21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>15900</v>
+        <v>2300</v>
       </c>
       <c r="C22" s="1">
-        <v>1625</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>1.45</v>
       </c>
       <c r="G22" s="1">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="H22">
         <v>10001</v>
@@ -2313,42 +1752,42 @@
         <v>1000</v>
       </c>
       <c r="J22">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>1000</v>
       </c>
       <c r="N22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>17100</v>
+        <v>2400</v>
       </c>
       <c r="C23" s="1">
-        <v>1745</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>1.45</v>
       </c>
       <c r="G23" s="1">
-        <v>2641</v>
+        <v>2200</v>
       </c>
       <c r="H23">
         <v>10001</v>
@@ -2357,42 +1796,42 @@
         <v>1000</v>
       </c>
       <c r="J23">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>1000</v>
       </c>
       <c r="N23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>18300</v>
+        <v>2500</v>
       </c>
       <c r="C24" s="1">
-        <v>1865</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>1.45</v>
       </c>
       <c r="G24" s="1">
-        <v>2784</v>
+        <v>2300</v>
       </c>
       <c r="H24">
         <v>10001</v>
@@ -2401,42 +1840,42 @@
         <v>1000</v>
       </c>
       <c r="J24">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>1000</v>
       </c>
       <c r="N24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>19500</v>
+        <v>2600</v>
       </c>
       <c r="C25" s="1">
-        <v>1985</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>1.45</v>
       </c>
       <c r="G25" s="1">
-        <v>2929</v>
+        <v>2400</v>
       </c>
       <c r="H25">
         <v>10001</v>
@@ -2445,42 +1884,42 @@
         <v>1000</v>
       </c>
       <c r="J25">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1000</v>
       </c>
       <c r="N25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>20700</v>
+        <v>2700</v>
       </c>
       <c r="C26" s="1">
-        <v>2105</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>1.45</v>
       </c>
       <c r="G26" s="1">
-        <v>3076</v>
+        <v>2500</v>
       </c>
       <c r="H26">
         <v>10001</v>
@@ -2489,42 +1928,42 @@
         <v>1000</v>
       </c>
       <c r="J26">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1000</v>
       </c>
       <c r="N26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>21900</v>
+        <v>2800</v>
       </c>
       <c r="C27" s="1">
-        <v>2225</v>
+        <v>145</v>
       </c>
       <c r="D27" s="1">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>1.45</v>
       </c>
       <c r="G27" s="1">
-        <v>3225</v>
+        <v>2600</v>
       </c>
       <c r="H27">
         <v>10001</v>
@@ -2533,42 +1972,42 @@
         <v>1000</v>
       </c>
       <c r="J27">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>1000</v>
       </c>
       <c r="N27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23100</v>
+        <v>2900</v>
       </c>
       <c r="C28" s="1">
-        <v>2345</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>1.45</v>
       </c>
       <c r="G28" s="1">
-        <v>3376</v>
+        <v>2700</v>
       </c>
       <c r="H28">
         <v>10001</v>
@@ -2577,42 +2016,42 @@
         <v>1000</v>
       </c>
       <c r="J28">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>1000</v>
       </c>
       <c r="N28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>24300</v>
+        <v>3000</v>
       </c>
       <c r="C29" s="1">
-        <v>2465</v>
+        <v>155</v>
       </c>
       <c r="D29" s="1">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>1.45</v>
       </c>
       <c r="G29" s="1">
-        <v>3529</v>
+        <v>2800</v>
       </c>
       <c r="H29">
         <v>10001</v>
@@ -2621,42 +2060,42 @@
         <v>1000</v>
       </c>
       <c r="J29">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>1000</v>
       </c>
       <c r="N29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>25500</v>
+        <v>3100</v>
       </c>
       <c r="C30" s="1">
-        <v>2585</v>
+        <v>160</v>
       </c>
       <c r="D30" s="1">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>1.45</v>
       </c>
       <c r="G30" s="1">
-        <v>3684</v>
+        <v>2900</v>
       </c>
       <c r="H30">
         <v>10001</v>
@@ -2665,42 +2104,42 @@
         <v>1000</v>
       </c>
       <c r="J30">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>1000</v>
       </c>
       <c r="N30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>26700</v>
+        <v>3200</v>
       </c>
       <c r="C31" s="1">
-        <v>2705</v>
+        <v>165</v>
       </c>
       <c r="D31" s="1">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>1.45</v>
       </c>
       <c r="G31" s="1">
-        <v>3841</v>
+        <v>3000</v>
       </c>
       <c r="H31">
         <v>10001</v>
@@ -2709,42 +2148,42 @@
         <v>1000</v>
       </c>
       <c r="J31">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>1000</v>
       </c>
       <c r="N31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>28200</v>
+        <v>3300</v>
       </c>
       <c r="C32" s="1">
-        <v>2855</v>
+        <v>170</v>
       </c>
       <c r="D32" s="1">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>1.45</v>
       </c>
       <c r="G32" s="1">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="H32">
         <v>10001</v>
@@ -2753,42 +2192,42 @@
         <v>1000</v>
       </c>
       <c r="J32">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>1000</v>
       </c>
       <c r="N32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>29700</v>
+        <v>3400</v>
       </c>
       <c r="C33" s="1">
-        <v>3005</v>
+        <v>175</v>
       </c>
       <c r="D33" s="1">
-        <v>354</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>1.45</v>
       </c>
       <c r="G33" s="1">
-        <v>4161</v>
+        <v>3200</v>
       </c>
       <c r="H33">
         <v>10001</v>
@@ -2797,42 +2236,42 @@
         <v>1000</v>
       </c>
       <c r="J33">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>1000</v>
       </c>
       <c r="N33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>31200</v>
+        <v>3500</v>
       </c>
       <c r="C34" s="1">
-        <v>3155</v>
+        <v>180</v>
       </c>
       <c r="D34" s="1">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <v>1.45</v>
       </c>
       <c r="G34" s="1">
-        <v>4324</v>
+        <v>3300</v>
       </c>
       <c r="H34">
         <v>10001</v>
@@ -2841,42 +2280,42 @@
         <v>1000</v>
       </c>
       <c r="J34">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>1000</v>
       </c>
       <c r="N34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>32700</v>
+        <v>3600</v>
       </c>
       <c r="C35" s="1">
-        <v>3305</v>
+        <v>185</v>
       </c>
       <c r="D35" s="1">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>1.45</v>
       </c>
       <c r="G35" s="1">
-        <v>4489</v>
+        <v>3400</v>
       </c>
       <c r="H35">
         <v>10001</v>
@@ -2885,42 +2324,42 @@
         <v>1000</v>
       </c>
       <c r="J35">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>1000</v>
       </c>
       <c r="N35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>34200</v>
+        <v>3700</v>
       </c>
       <c r="C36" s="1">
-        <v>3455</v>
+        <v>190</v>
       </c>
       <c r="D36" s="1">
-        <v>414</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>1.45</v>
       </c>
       <c r="G36" s="1">
-        <v>4656</v>
+        <v>3500</v>
       </c>
       <c r="H36">
         <v>10001</v>
@@ -2929,42 +2368,42 @@
         <v>1000</v>
       </c>
       <c r="J36">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>1000</v>
       </c>
       <c r="N36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>35700</v>
+        <v>3800</v>
       </c>
       <c r="C37" s="1">
-        <v>3605</v>
+        <v>195</v>
       </c>
       <c r="D37" s="1">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>1.45</v>
       </c>
       <c r="G37" s="1">
-        <v>4825</v>
+        <v>3600</v>
       </c>
       <c r="H37">
         <v>10001</v>
@@ -2973,42 +2412,42 @@
         <v>1000</v>
       </c>
       <c r="J37">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>1000</v>
       </c>
       <c r="N37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>37200</v>
+        <v>3900</v>
       </c>
       <c r="C38" s="1">
-        <v>3755</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="E38" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
         <v>1.45</v>
       </c>
       <c r="G38" s="1">
-        <v>4996</v>
+        <v>3700</v>
       </c>
       <c r="H38">
         <v>10001</v>
@@ -3017,42 +2456,42 @@
         <v>1000</v>
       </c>
       <c r="J38">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>1000</v>
       </c>
       <c r="N38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>38700</v>
+        <v>4000</v>
       </c>
       <c r="C39" s="1">
-        <v>3905</v>
+        <v>205</v>
       </c>
       <c r="D39" s="1">
-        <v>474</v>
+        <v>39</v>
       </c>
       <c r="E39" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
         <v>1.45</v>
       </c>
       <c r="G39" s="1">
-        <v>5169</v>
+        <v>3800</v>
       </c>
       <c r="H39">
         <v>10001</v>
@@ -3061,42 +2500,42 @@
         <v>1000</v>
       </c>
       <c r="J39">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>1000</v>
       </c>
       <c r="N39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>40200</v>
+        <v>4100</v>
       </c>
       <c r="C40" s="1">
-        <v>4055</v>
+        <v>210</v>
       </c>
       <c r="D40" s="1">
-        <v>494</v>
+        <v>40</v>
       </c>
       <c r="E40" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
         <v>1.45</v>
       </c>
       <c r="G40" s="1">
-        <v>5344</v>
+        <v>3900</v>
       </c>
       <c r="H40">
         <v>10001</v>
@@ -3105,42 +2544,42 @@
         <v>1000</v>
       </c>
       <c r="J40">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>1000</v>
       </c>
       <c r="N40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>41700</v>
+        <v>4200</v>
       </c>
       <c r="C41" s="1">
-        <v>4205</v>
+        <v>215</v>
       </c>
       <c r="D41" s="1">
-        <v>514</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>1.45</v>
       </c>
       <c r="G41" s="1">
-        <v>5521</v>
+        <v>4000</v>
       </c>
       <c r="H41">
         <v>10001</v>
@@ -3149,42 +2588,42 @@
         <v>1000</v>
       </c>
       <c r="J41">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>1000</v>
       </c>
       <c r="N41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>43500</v>
+        <v>4300</v>
       </c>
       <c r="C42" s="1">
-        <v>4455</v>
+        <v>220</v>
       </c>
       <c r="D42" s="1">
-        <v>544</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
         <v>1.45</v>
       </c>
       <c r="G42" s="1">
-        <v>5700</v>
+        <v>4100</v>
       </c>
       <c r="H42">
         <v>10001</v>
@@ -3193,42 +2632,42 @@
         <v>1000</v>
       </c>
       <c r="J42">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>1000</v>
       </c>
       <c r="N42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>45300</v>
+        <v>4400</v>
       </c>
       <c r="C43" s="1">
-        <v>4705</v>
+        <v>225</v>
       </c>
       <c r="D43" s="1">
-        <v>574</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
         <v>1.45</v>
       </c>
       <c r="G43" s="1">
-        <v>5881</v>
+        <v>4200</v>
       </c>
       <c r="H43">
         <v>10001</v>
@@ -3237,42 +2676,42 @@
         <v>1000</v>
       </c>
       <c r="J43">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>1000</v>
       </c>
       <c r="N43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>47100</v>
+        <v>4500</v>
       </c>
       <c r="C44" s="1">
-        <v>4955</v>
+        <v>230</v>
       </c>
       <c r="D44" s="1">
-        <v>604</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
         <v>1.45</v>
       </c>
       <c r="G44" s="1">
-        <v>6064</v>
+        <v>4300</v>
       </c>
       <c r="H44">
         <v>10001</v>
@@ -3281,42 +2720,42 @@
         <v>1000</v>
       </c>
       <c r="J44">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>1000</v>
       </c>
       <c r="N44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>48900</v>
+        <v>4600</v>
       </c>
       <c r="C45" s="1">
-        <v>5205</v>
+        <v>235</v>
       </c>
       <c r="D45" s="1">
-        <v>634</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
         <v>1.45</v>
       </c>
       <c r="G45" s="1">
-        <v>6249</v>
+        <v>4400</v>
       </c>
       <c r="H45">
         <v>10001</v>
@@ -3325,42 +2764,42 @@
         <v>1000</v>
       </c>
       <c r="J45">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>1000</v>
       </c>
       <c r="N45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>50700</v>
+        <v>4700</v>
       </c>
       <c r="C46" s="1">
-        <v>5455</v>
+        <v>240</v>
       </c>
       <c r="D46" s="1">
-        <v>664</v>
+        <v>46</v>
       </c>
       <c r="E46" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>1.45</v>
       </c>
       <c r="G46" s="1">
-        <v>6436</v>
+        <v>4500</v>
       </c>
       <c r="H46">
         <v>10001</v>
@@ -3369,42 +2808,42 @@
         <v>1000</v>
       </c>
       <c r="J46">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>1000</v>
       </c>
       <c r="N46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>52500</v>
+        <v>4800</v>
       </c>
       <c r="C47" s="1">
-        <v>5705</v>
+        <v>245</v>
       </c>
       <c r="D47" s="1">
-        <v>694</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
         <v>1.45</v>
       </c>
       <c r="G47" s="1">
-        <v>6625</v>
+        <v>4600</v>
       </c>
       <c r="H47">
         <v>10001</v>
@@ -3413,42 +2852,42 @@
         <v>1000</v>
       </c>
       <c r="J47">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>1000</v>
       </c>
       <c r="N47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>54300</v>
+        <v>4900</v>
       </c>
       <c r="C48" s="1">
-        <v>5955</v>
+        <v>250</v>
       </c>
       <c r="D48" s="1">
-        <v>724</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
         <v>1.45</v>
       </c>
       <c r="G48" s="1">
-        <v>6816</v>
+        <v>4700</v>
       </c>
       <c r="H48">
         <v>10001</v>
@@ -3457,42 +2896,42 @@
         <v>1000</v>
       </c>
       <c r="J48">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>1000</v>
       </c>
       <c r="N48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>56100</v>
+        <v>5000</v>
       </c>
       <c r="C49" s="1">
-        <v>6205</v>
+        <v>255</v>
       </c>
       <c r="D49" s="1">
-        <v>754</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
         <v>1.45</v>
       </c>
       <c r="G49" s="1">
-        <v>7009</v>
+        <v>4800</v>
       </c>
       <c r="H49">
         <v>10001</v>
@@ -3501,42 +2940,42 @@
         <v>1000</v>
       </c>
       <c r="J49">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>1000</v>
       </c>
       <c r="N49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>57900</v>
+        <v>5100</v>
       </c>
       <c r="C50" s="1">
-        <v>6455</v>
+        <v>260</v>
       </c>
       <c r="D50" s="1">
-        <v>784</v>
+        <v>50</v>
       </c>
       <c r="E50" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>1.45</v>
       </c>
       <c r="G50" s="1">
-        <v>7204</v>
+        <v>4900</v>
       </c>
       <c r="H50">
         <v>10001</v>
@@ -3545,42 +2984,42 @@
         <v>1000</v>
       </c>
       <c r="J50">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>1000</v>
       </c>
       <c r="N50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>59700</v>
+        <v>5200</v>
       </c>
       <c r="C51" s="1">
-        <v>6705</v>
+        <v>265</v>
       </c>
       <c r="D51" s="1">
-        <v>814</v>
+        <v>51</v>
       </c>
       <c r="E51" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1">
         <v>1.45</v>
       </c>
       <c r="G51" s="1">
-        <v>7401</v>
+        <v>5000</v>
       </c>
       <c r="H51">
         <v>10001</v>
@@ -3589,42 +3028,42 @@
         <v>1000</v>
       </c>
       <c r="J51">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>1000</v>
       </c>
       <c r="N51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>61500</v>
+        <v>5300</v>
       </c>
       <c r="C52" s="1">
-        <v>6955</v>
+        <v>270</v>
       </c>
       <c r="D52" s="1">
-        <v>844</v>
+        <v>52</v>
       </c>
       <c r="E52" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>1.45</v>
       </c>
       <c r="G52" s="1">
-        <v>7600</v>
+        <v>5100</v>
       </c>
       <c r="H52">
         <v>10001</v>
@@ -3633,42 +3072,42 @@
         <v>1000</v>
       </c>
       <c r="J52">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>1000</v>
       </c>
       <c r="N52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>63300</v>
+        <v>5400</v>
       </c>
       <c r="C53" s="1">
-        <v>7205</v>
+        <v>275</v>
       </c>
       <c r="D53" s="1">
-        <v>874</v>
+        <v>53</v>
       </c>
       <c r="E53" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
         <v>1.45</v>
       </c>
       <c r="G53" s="1">
-        <v>7801</v>
+        <v>5200</v>
       </c>
       <c r="H53">
         <v>10001</v>
@@ -3677,42 +3116,42 @@
         <v>1000</v>
       </c>
       <c r="J53">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>1000</v>
       </c>
       <c r="N53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>65100</v>
+        <v>5500</v>
       </c>
       <c r="C54" s="1">
-        <v>7455</v>
+        <v>280</v>
       </c>
       <c r="D54" s="1">
-        <v>904</v>
+        <v>54</v>
       </c>
       <c r="E54" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
         <v>1.45</v>
       </c>
       <c r="G54" s="1">
-        <v>8004</v>
+        <v>5300</v>
       </c>
       <c r="H54">
         <v>10001</v>
@@ -3721,42 +3160,42 @@
         <v>1000</v>
       </c>
       <c r="J54">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>1000</v>
       </c>
       <c r="N54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>66900</v>
+        <v>5600</v>
       </c>
       <c r="C55" s="1">
-        <v>7705</v>
+        <v>285</v>
       </c>
       <c r="D55" s="1">
-        <v>934</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
         <v>1.45</v>
       </c>
       <c r="G55" s="1">
-        <v>8209</v>
+        <v>5400</v>
       </c>
       <c r="H55">
         <v>10001</v>
@@ -3765,42 +3204,42 @@
         <v>1000</v>
       </c>
       <c r="J55">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>1000</v>
       </c>
       <c r="N55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>68700</v>
+        <v>5700</v>
       </c>
       <c r="C56" s="1">
-        <v>7955</v>
+        <v>290</v>
       </c>
       <c r="D56" s="1">
-        <v>964</v>
+        <v>56</v>
       </c>
       <c r="E56" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
         <v>1.45</v>
       </c>
       <c r="G56" s="1">
-        <v>8416</v>
+        <v>5500</v>
       </c>
       <c r="H56">
         <v>10001</v>
@@ -3809,42 +3248,42 @@
         <v>1000</v>
       </c>
       <c r="J56">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>1000</v>
       </c>
       <c r="N56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>70500</v>
+        <v>5800</v>
       </c>
       <c r="C57" s="1">
-        <v>8205</v>
+        <v>295</v>
       </c>
       <c r="D57" s="1">
-        <v>994</v>
+        <v>57</v>
       </c>
       <c r="E57" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
         <v>1.45</v>
       </c>
       <c r="G57" s="1">
-        <v>8625</v>
+        <v>5600</v>
       </c>
       <c r="H57">
         <v>10001</v>
@@ -3853,42 +3292,42 @@
         <v>1000</v>
       </c>
       <c r="J57">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>1000</v>
       </c>
       <c r="N57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>72300</v>
+        <v>5900</v>
       </c>
       <c r="C58" s="1">
-        <v>8455</v>
+        <v>300</v>
       </c>
       <c r="D58" s="1">
-        <v>1024</v>
+        <v>58</v>
       </c>
       <c r="E58" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
         <v>1.45</v>
       </c>
       <c r="G58" s="1">
-        <v>8836</v>
+        <v>5700</v>
       </c>
       <c r="H58">
         <v>10001</v>
@@ -3897,42 +3336,42 @@
         <v>1000</v>
       </c>
       <c r="J58">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>1000</v>
       </c>
       <c r="N58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>74100</v>
+        <v>6000</v>
       </c>
       <c r="C59" s="1">
-        <v>8705</v>
+        <v>305</v>
       </c>
       <c r="D59" s="1">
-        <v>1054</v>
+        <v>59</v>
       </c>
       <c r="E59" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>1.45</v>
       </c>
       <c r="G59" s="1">
-        <v>9049</v>
+        <v>5800</v>
       </c>
       <c r="H59">
         <v>10001</v>
@@ -3941,42 +3380,42 @@
         <v>1000</v>
       </c>
       <c r="J59">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>1000</v>
       </c>
       <c r="N59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>75900</v>
+        <v>6100</v>
       </c>
       <c r="C60" s="1">
-        <v>8955</v>
+        <v>310</v>
       </c>
       <c r="D60" s="1">
-        <v>1084</v>
+        <v>60</v>
       </c>
       <c r="E60" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>1.45</v>
       </c>
       <c r="G60" s="1">
-        <v>9264</v>
+        <v>5900</v>
       </c>
       <c r="H60">
         <v>10001</v>
@@ -3985,42 +3424,42 @@
         <v>1000</v>
       </c>
       <c r="J60">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>1000</v>
       </c>
       <c r="N60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>77700</v>
+        <v>6200</v>
       </c>
       <c r="C61" s="1">
-        <v>9205</v>
+        <v>315</v>
       </c>
       <c r="D61" s="1">
-        <v>1114</v>
+        <v>61</v>
       </c>
       <c r="E61" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
         <v>1.45</v>
       </c>
       <c r="G61" s="1">
-        <v>9481</v>
+        <v>6000</v>
       </c>
       <c r="H61">
         <v>10001</v>
@@ -4029,42 +3468,42 @@
         <v>1000</v>
       </c>
       <c r="J61">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>1000</v>
       </c>
       <c r="N61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>79500</v>
+        <v>6300</v>
       </c>
       <c r="C62" s="1">
-        <v>9455</v>
+        <v>320</v>
       </c>
       <c r="D62" s="1">
-        <v>1144</v>
+        <v>62</v>
       </c>
       <c r="E62" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
         <v>1.45</v>
       </c>
       <c r="G62" s="1">
-        <v>9700</v>
+        <v>6100</v>
       </c>
       <c r="H62">
         <v>10001</v>
@@ -4073,42 +3512,42 @@
         <v>1000</v>
       </c>
       <c r="J62">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>1000</v>
       </c>
       <c r="N62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>81300</v>
+        <v>6400</v>
       </c>
       <c r="C63" s="1">
-        <v>9705</v>
+        <v>325</v>
       </c>
       <c r="D63" s="1">
-        <v>1174</v>
+        <v>63</v>
       </c>
       <c r="E63" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
         <v>1.45</v>
       </c>
       <c r="G63" s="1">
-        <v>9921</v>
+        <v>6200</v>
       </c>
       <c r="H63">
         <v>10001</v>
@@ -4117,42 +3556,42 @@
         <v>1000</v>
       </c>
       <c r="J63">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <v>1000</v>
       </c>
       <c r="N63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>83100</v>
+        <v>6500</v>
       </c>
       <c r="C64" s="1">
-        <v>9955</v>
+        <v>330</v>
       </c>
       <c r="D64" s="1">
-        <v>1204</v>
+        <v>64</v>
       </c>
       <c r="E64" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
         <v>1.45</v>
       </c>
       <c r="G64" s="1">
-        <v>10144</v>
+        <v>6300</v>
       </c>
       <c r="H64">
         <v>10001</v>
@@ -4161,42 +3600,42 @@
         <v>1000</v>
       </c>
       <c r="J64">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L64">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>1000</v>
       </c>
       <c r="N64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>84900</v>
+        <v>6600</v>
       </c>
       <c r="C65" s="1">
-        <v>10205</v>
+        <v>335</v>
       </c>
       <c r="D65" s="1">
-        <v>1234</v>
+        <v>65</v>
       </c>
       <c r="E65" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1">
         <v>1.45</v>
       </c>
       <c r="G65" s="1">
-        <v>10369</v>
+        <v>6400</v>
       </c>
       <c r="H65">
         <v>10001</v>
@@ -4205,42 +3644,42 @@
         <v>1000</v>
       </c>
       <c r="J65">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>1000</v>
       </c>
       <c r="N65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>86700</v>
+        <v>6700</v>
       </c>
       <c r="C66" s="1">
-        <v>10455</v>
+        <v>340</v>
       </c>
       <c r="D66" s="1">
-        <v>1264</v>
+        <v>66</v>
       </c>
       <c r="E66" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
         <v>1.45</v>
       </c>
       <c r="G66" s="1">
-        <v>10596</v>
+        <v>6500</v>
       </c>
       <c r="H66">
         <v>10001</v>
@@ -4249,42 +3688,42 @@
         <v>1000</v>
       </c>
       <c r="J66">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>1000</v>
       </c>
       <c r="N66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>88500</v>
+        <v>6800</v>
       </c>
       <c r="C67" s="1">
-        <v>10705</v>
+        <v>345</v>
       </c>
       <c r="D67" s="1">
-        <v>1294</v>
+        <v>67</v>
       </c>
       <c r="E67" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <v>1.45</v>
       </c>
       <c r="G67" s="1">
-        <v>10825</v>
+        <v>6600</v>
       </c>
       <c r="H67">
         <v>10001</v>
@@ -4293,42 +3732,42 @@
         <v>1000</v>
       </c>
       <c r="J67">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>1000</v>
       </c>
       <c r="N67">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>90300</v>
+        <v>6900</v>
       </c>
       <c r="C68" s="1">
-        <v>10955</v>
+        <v>350</v>
       </c>
       <c r="D68" s="1">
-        <v>1324</v>
+        <v>68</v>
       </c>
       <c r="E68" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1">
         <v>1.45</v>
       </c>
       <c r="G68" s="1">
-        <v>11056</v>
+        <v>6700</v>
       </c>
       <c r="H68">
         <v>10001</v>
@@ -4337,42 +3776,42 @@
         <v>1000</v>
       </c>
       <c r="J68">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>1000</v>
       </c>
       <c r="N68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>92100</v>
+        <v>7000</v>
       </c>
       <c r="C69" s="1">
-        <v>11205</v>
+        <v>355</v>
       </c>
       <c r="D69" s="1">
-        <v>1354</v>
+        <v>69</v>
       </c>
       <c r="E69" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
         <v>1.45</v>
       </c>
       <c r="G69" s="1">
-        <v>11289</v>
+        <v>6800</v>
       </c>
       <c r="H69">
         <v>10001</v>
@@ -4381,42 +3820,42 @@
         <v>1000</v>
       </c>
       <c r="J69">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>1000</v>
       </c>
       <c r="N69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>93900</v>
+        <v>7100</v>
       </c>
       <c r="C70" s="1">
-        <v>11455</v>
+        <v>360</v>
       </c>
       <c r="D70" s="1">
-        <v>1384</v>
+        <v>70</v>
       </c>
       <c r="E70" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
         <v>1.45</v>
       </c>
       <c r="G70" s="1">
-        <v>11524</v>
+        <v>6900</v>
       </c>
       <c r="H70">
         <v>10001</v>
@@ -4425,42 +3864,42 @@
         <v>1000</v>
       </c>
       <c r="J70">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>1000</v>
       </c>
       <c r="N70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>95700</v>
+        <v>7200</v>
       </c>
       <c r="C71" s="1">
-        <v>11705</v>
+        <v>365</v>
       </c>
       <c r="D71" s="1">
-        <v>1414</v>
+        <v>71</v>
       </c>
       <c r="E71" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1">
         <v>1.45</v>
       </c>
       <c r="G71" s="1">
-        <v>11761</v>
+        <v>7000</v>
       </c>
       <c r="H71">
         <v>10001</v>
@@ -4469,42 +3908,42 @@
         <v>1000</v>
       </c>
       <c r="J71">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>1000</v>
       </c>
       <c r="N71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>97500</v>
+        <v>7300</v>
       </c>
       <c r="C72" s="1">
-        <v>11955</v>
+        <v>370</v>
       </c>
       <c r="D72" s="1">
-        <v>1444</v>
+        <v>72</v>
       </c>
       <c r="E72" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
         <v>1.45</v>
       </c>
       <c r="G72" s="1">
-        <v>12000</v>
+        <v>7100</v>
       </c>
       <c r="H72">
         <v>10001</v>
@@ -4513,42 +3952,42 @@
         <v>1000</v>
       </c>
       <c r="J72">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>1000</v>
       </c>
       <c r="N72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>99300</v>
+        <v>7400</v>
       </c>
       <c r="C73" s="1">
-        <v>12205</v>
+        <v>375</v>
       </c>
       <c r="D73" s="1">
-        <v>1474</v>
+        <v>73</v>
       </c>
       <c r="E73" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1">
         <v>1.45</v>
       </c>
       <c r="G73" s="1">
-        <v>12241</v>
+        <v>7200</v>
       </c>
       <c r="H73">
         <v>10001</v>
@@ -4557,42 +3996,42 @@
         <v>1000</v>
       </c>
       <c r="J73">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>1000</v>
       </c>
       <c r="N73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>101100</v>
+        <v>7500</v>
       </c>
       <c r="C74" s="1">
-        <v>12455</v>
+        <v>380</v>
       </c>
       <c r="D74" s="1">
-        <v>1504</v>
+        <v>74</v>
       </c>
       <c r="E74" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
         <v>1.45</v>
       </c>
       <c r="G74" s="1">
-        <v>12484</v>
+        <v>7300</v>
       </c>
       <c r="H74">
         <v>10001</v>
@@ -4601,42 +4040,42 @@
         <v>1000</v>
       </c>
       <c r="J74">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L74">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>1000</v>
       </c>
       <c r="N74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>102900</v>
+        <v>7600</v>
       </c>
       <c r="C75" s="1">
-        <v>12705</v>
+        <v>385</v>
       </c>
       <c r="D75" s="1">
-        <v>1534</v>
+        <v>75</v>
       </c>
       <c r="E75" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
         <v>1.45</v>
       </c>
       <c r="G75" s="1">
-        <v>12729</v>
+        <v>7400</v>
       </c>
       <c r="H75">
         <v>10001</v>
@@ -4645,42 +4084,42 @@
         <v>1000</v>
       </c>
       <c r="J75">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>1000</v>
       </c>
       <c r="N75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>104700</v>
+        <v>7700</v>
       </c>
       <c r="C76" s="1">
-        <v>12955</v>
+        <v>390</v>
       </c>
       <c r="D76" s="1">
-        <v>1564</v>
+        <v>76</v>
       </c>
       <c r="E76" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
         <v>1.45</v>
       </c>
       <c r="G76" s="1">
-        <v>12976</v>
+        <v>7500</v>
       </c>
       <c r="H76">
         <v>10001</v>
@@ -4689,42 +4128,42 @@
         <v>1000</v>
       </c>
       <c r="J76">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>1000</v>
       </c>
       <c r="N76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>106500</v>
+        <v>7800</v>
       </c>
       <c r="C77" s="1">
-        <v>13205</v>
+        <v>395</v>
       </c>
       <c r="D77" s="1">
-        <v>1594</v>
+        <v>77</v>
       </c>
       <c r="E77" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1">
         <v>1.45</v>
       </c>
       <c r="G77" s="1">
-        <v>13225</v>
+        <v>7600</v>
       </c>
       <c r="H77">
         <v>10001</v>
@@ -4733,42 +4172,42 @@
         <v>1000</v>
       </c>
       <c r="J77">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L77">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>1000</v>
       </c>
       <c r="N77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>108300</v>
+        <v>7900</v>
       </c>
       <c r="C78" s="1">
-        <v>13455</v>
+        <v>400</v>
       </c>
       <c r="D78" s="1">
-        <v>1624</v>
+        <v>78</v>
       </c>
       <c r="E78" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1">
         <v>1.45</v>
       </c>
       <c r="G78" s="1">
-        <v>13476</v>
+        <v>7700</v>
       </c>
       <c r="H78">
         <v>10001</v>
@@ -4777,42 +4216,42 @@
         <v>1000</v>
       </c>
       <c r="J78">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L78">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M78">
         <v>1000</v>
       </c>
       <c r="N78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>110100</v>
+        <v>8000</v>
       </c>
       <c r="C79" s="1">
-        <v>13705</v>
+        <v>405</v>
       </c>
       <c r="D79" s="1">
-        <v>1654</v>
+        <v>79</v>
       </c>
       <c r="E79" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
         <v>1.45</v>
       </c>
       <c r="G79" s="1">
-        <v>13729</v>
+        <v>7800</v>
       </c>
       <c r="H79">
         <v>10001</v>
@@ -4821,42 +4260,42 @@
         <v>1000</v>
       </c>
       <c r="J79">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>1000</v>
       </c>
       <c r="N79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>111900</v>
+        <v>8100</v>
       </c>
       <c r="C80" s="1">
-        <v>13955</v>
+        <v>410</v>
       </c>
       <c r="D80" s="1">
-        <v>1684</v>
+        <v>80</v>
       </c>
       <c r="E80" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1">
         <v>1.45</v>
       </c>
       <c r="G80" s="1">
-        <v>13984</v>
+        <v>7900</v>
       </c>
       <c r="H80">
         <v>10001</v>
@@ -4865,42 +4304,42 @@
         <v>1000</v>
       </c>
       <c r="J80">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>1000</v>
       </c>
       <c r="N80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>113700</v>
+        <v>8200</v>
       </c>
       <c r="C81" s="1">
-        <v>14205</v>
+        <v>415</v>
       </c>
       <c r="D81" s="1">
-        <v>1714</v>
+        <v>81</v>
       </c>
       <c r="E81" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1">
         <v>1.45</v>
       </c>
       <c r="G81" s="1">
-        <v>14241</v>
+        <v>8000</v>
       </c>
       <c r="H81">
         <v>10001</v>
@@ -4909,42 +4348,42 @@
         <v>1000</v>
       </c>
       <c r="J81">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L81">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>1000</v>
       </c>
       <c r="N81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>115500</v>
+        <v>8300</v>
       </c>
       <c r="C82" s="1">
-        <v>14455</v>
+        <v>420</v>
       </c>
       <c r="D82" s="1">
-        <v>1744</v>
+        <v>82</v>
       </c>
       <c r="E82" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1">
         <v>1.45</v>
       </c>
       <c r="G82" s="1">
-        <v>14500</v>
+        <v>8100</v>
       </c>
       <c r="H82">
         <v>10001</v>
@@ -4953,42 +4392,42 @@
         <v>1000</v>
       </c>
       <c r="J82">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L82">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>1000</v>
       </c>
       <c r="N82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>117300</v>
+        <v>8400</v>
       </c>
       <c r="C83" s="1">
-        <v>14705</v>
+        <v>425</v>
       </c>
       <c r="D83" s="1">
-        <v>1774</v>
+        <v>83</v>
       </c>
       <c r="E83" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1">
         <v>1.45</v>
       </c>
       <c r="G83" s="1">
-        <v>14761</v>
+        <v>8200</v>
       </c>
       <c r="H83">
         <v>10001</v>
@@ -4997,42 +4436,42 @@
         <v>1000</v>
       </c>
       <c r="J83">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M83">
         <v>1000</v>
       </c>
       <c r="N83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>119100</v>
+        <v>8500</v>
       </c>
       <c r="C84" s="1">
-        <v>14955</v>
+        <v>430</v>
       </c>
       <c r="D84" s="1">
-        <v>1804</v>
+        <v>84</v>
       </c>
       <c r="E84" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1">
         <v>1.45</v>
       </c>
       <c r="G84" s="1">
-        <v>15024</v>
+        <v>8300</v>
       </c>
       <c r="H84">
         <v>10001</v>
@@ -5041,42 +4480,42 @@
         <v>1000</v>
       </c>
       <c r="J84">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M84">
         <v>1000</v>
       </c>
       <c r="N84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>120900</v>
+        <v>8600</v>
       </c>
       <c r="C85" s="1">
-        <v>15205</v>
+        <v>435</v>
       </c>
       <c r="D85" s="1">
-        <v>1834</v>
+        <v>85</v>
       </c>
       <c r="E85" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1">
         <v>1.45</v>
       </c>
       <c r="G85" s="1">
-        <v>15289</v>
+        <v>8400</v>
       </c>
       <c r="H85">
         <v>10001</v>
@@ -5085,42 +4524,42 @@
         <v>1000</v>
       </c>
       <c r="J85">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L85">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>1000</v>
       </c>
       <c r="N85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>122700</v>
+        <v>8700</v>
       </c>
       <c r="C86" s="1">
-        <v>15455</v>
+        <v>440</v>
       </c>
       <c r="D86" s="1">
-        <v>1864</v>
+        <v>86</v>
       </c>
       <c r="E86" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1">
         <v>1.45</v>
       </c>
       <c r="G86" s="1">
-        <v>15556</v>
+        <v>8500</v>
       </c>
       <c r="H86">
         <v>10001</v>
@@ -5129,42 +4568,42 @@
         <v>1000</v>
       </c>
       <c r="J86">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>1000</v>
       </c>
       <c r="N86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>124500</v>
+        <v>8800</v>
       </c>
       <c r="C87" s="1">
-        <v>15705</v>
+        <v>445</v>
       </c>
       <c r="D87" s="1">
-        <v>1894</v>
+        <v>87</v>
       </c>
       <c r="E87" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1">
         <v>1.45</v>
       </c>
       <c r="G87" s="1">
-        <v>15825</v>
+        <v>8600</v>
       </c>
       <c r="H87">
         <v>10001</v>
@@ -5173,42 +4612,42 @@
         <v>1000</v>
       </c>
       <c r="J87">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>1000</v>
       </c>
       <c r="N87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>126300</v>
+        <v>8900</v>
       </c>
       <c r="C88" s="1">
-        <v>15955</v>
+        <v>450</v>
       </c>
       <c r="D88" s="1">
-        <v>1924</v>
+        <v>88</v>
       </c>
       <c r="E88" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1">
         <v>1.45</v>
       </c>
       <c r="G88" s="1">
-        <v>16096</v>
+        <v>8700</v>
       </c>
       <c r="H88">
         <v>10001</v>
@@ -5217,42 +4656,42 @@
         <v>1000</v>
       </c>
       <c r="J88">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>1000</v>
       </c>
       <c r="N88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>128100</v>
+        <v>9000</v>
       </c>
       <c r="C89" s="1">
-        <v>16205</v>
+        <v>455</v>
       </c>
       <c r="D89" s="1">
-        <v>1954</v>
+        <v>89</v>
       </c>
       <c r="E89" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F89" s="1">
         <v>1.45</v>
       </c>
       <c r="G89" s="1">
-        <v>16369</v>
+        <v>8800</v>
       </c>
       <c r="H89">
         <v>10001</v>
@@ -5261,42 +4700,42 @@
         <v>1000</v>
       </c>
       <c r="J89">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>1000</v>
       </c>
       <c r="N89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>129900</v>
+        <v>9100</v>
       </c>
       <c r="C90" s="1">
-        <v>16455</v>
+        <v>460</v>
       </c>
       <c r="D90" s="1">
-        <v>1984</v>
+        <v>90</v>
       </c>
       <c r="E90" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1">
         <v>1.45</v>
       </c>
       <c r="G90" s="1">
-        <v>16644</v>
+        <v>8900</v>
       </c>
       <c r="H90">
         <v>10001</v>
@@ -5305,42 +4744,42 @@
         <v>1000</v>
       </c>
       <c r="J90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>1000</v>
       </c>
       <c r="N90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>131700</v>
+        <v>9200</v>
       </c>
       <c r="C91" s="1">
-        <v>16705</v>
+        <v>465</v>
       </c>
       <c r="D91" s="1">
-        <v>2014</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
         <v>1.45</v>
       </c>
       <c r="G91" s="1">
-        <v>16921</v>
+        <v>9000</v>
       </c>
       <c r="H91">
         <v>10001</v>
@@ -5349,42 +4788,42 @@
         <v>1000</v>
       </c>
       <c r="J91">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>1000</v>
       </c>
       <c r="N91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>133500</v>
+        <v>9300</v>
       </c>
       <c r="C92" s="1">
-        <v>16955</v>
+        <v>470</v>
       </c>
       <c r="D92" s="1">
-        <v>2044</v>
+        <v>92</v>
       </c>
       <c r="E92" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F92" s="1">
         <v>1.45</v>
       </c>
       <c r="G92" s="1">
-        <v>17200</v>
+        <v>9100</v>
       </c>
       <c r="H92">
         <v>10001</v>
@@ -5393,42 +4832,42 @@
         <v>1000</v>
       </c>
       <c r="J92">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>1000</v>
       </c>
       <c r="N92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>135300</v>
+        <v>9400</v>
       </c>
       <c r="C93" s="1">
-        <v>17205</v>
+        <v>475</v>
       </c>
       <c r="D93" s="1">
-        <v>2074</v>
+        <v>93</v>
       </c>
       <c r="E93" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1">
         <v>1.45</v>
       </c>
       <c r="G93" s="1">
-        <v>17481</v>
+        <v>9200</v>
       </c>
       <c r="H93">
         <v>10001</v>
@@ -5437,42 +4876,42 @@
         <v>1000</v>
       </c>
       <c r="J93">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>1000</v>
       </c>
       <c r="N93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>137100</v>
+        <v>9500</v>
       </c>
       <c r="C94" s="1">
-        <v>17455</v>
+        <v>480</v>
       </c>
       <c r="D94" s="1">
-        <v>2104</v>
+        <v>94</v>
       </c>
       <c r="E94" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1">
         <v>1.45</v>
       </c>
       <c r="G94" s="1">
-        <v>17764</v>
+        <v>9300</v>
       </c>
       <c r="H94">
         <v>10001</v>
@@ -5481,42 +4920,42 @@
         <v>1000</v>
       </c>
       <c r="J94">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>1000</v>
       </c>
       <c r="N94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>138900</v>
+        <v>9600</v>
       </c>
       <c r="C95" s="1">
-        <v>17705</v>
+        <v>485</v>
       </c>
       <c r="D95" s="1">
-        <v>2134</v>
+        <v>95</v>
       </c>
       <c r="E95" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1">
         <v>1.45</v>
       </c>
       <c r="G95" s="1">
-        <v>18049</v>
+        <v>9400</v>
       </c>
       <c r="H95">
         <v>10001</v>
@@ -5525,42 +4964,42 @@
         <v>1000</v>
       </c>
       <c r="J95">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>1000</v>
       </c>
       <c r="N95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>140700</v>
+        <v>9700</v>
       </c>
       <c r="C96" s="1">
-        <v>17955</v>
+        <v>490</v>
       </c>
       <c r="D96" s="1">
-        <v>2164</v>
+        <v>96</v>
       </c>
       <c r="E96" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1">
         <v>1.45</v>
       </c>
       <c r="G96" s="1">
-        <v>18336</v>
+        <v>9500</v>
       </c>
       <c r="H96">
         <v>10001</v>
@@ -5569,42 +5008,42 @@
         <v>1000</v>
       </c>
       <c r="J96">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <v>1000</v>
       </c>
       <c r="N96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>142500</v>
+        <v>9800</v>
       </c>
       <c r="C97" s="1">
-        <v>18205</v>
+        <v>495</v>
       </c>
       <c r="D97" s="1">
-        <v>2194</v>
+        <v>97</v>
       </c>
       <c r="E97" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1">
         <v>1.45</v>
       </c>
       <c r="G97" s="1">
-        <v>18625</v>
+        <v>9600</v>
       </c>
       <c r="H97">
         <v>10001</v>
@@ -5613,42 +5052,42 @@
         <v>1000</v>
       </c>
       <c r="J97">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L97">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>1000</v>
       </c>
       <c r="N97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>144300</v>
+        <v>9900</v>
       </c>
       <c r="C98" s="1">
-        <v>18455</v>
+        <v>500</v>
       </c>
       <c r="D98" s="1">
-        <v>2224</v>
+        <v>98</v>
       </c>
       <c r="E98" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1">
         <v>1.45</v>
       </c>
       <c r="G98" s="1">
-        <v>18916</v>
+        <v>9700</v>
       </c>
       <c r="H98">
         <v>10001</v>
@@ -5657,42 +5096,42 @@
         <v>1000</v>
       </c>
       <c r="J98">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>1000</v>
       </c>
       <c r="N98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>146100</v>
+        <v>10000</v>
       </c>
       <c r="C99" s="1">
-        <v>18705</v>
+        <v>505</v>
       </c>
       <c r="D99" s="1">
-        <v>2254</v>
+        <v>99</v>
       </c>
       <c r="E99" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F99" s="1">
         <v>1.45</v>
       </c>
       <c r="G99" s="1">
-        <v>19209</v>
+        <v>9800</v>
       </c>
       <c r="H99">
         <v>10001</v>
@@ -5701,42 +5140,42 @@
         <v>1000</v>
       </c>
       <c r="J99">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L99">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M99">
         <v>1000</v>
       </c>
       <c r="N99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>147900</v>
+        <v>10100</v>
       </c>
       <c r="C100" s="1">
-        <v>18955</v>
+        <v>510</v>
       </c>
       <c r="D100" s="1">
-        <v>2284</v>
+        <v>100</v>
       </c>
       <c r="E100" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1">
         <v>1.45</v>
       </c>
       <c r="G100" s="1">
-        <v>19504</v>
+        <v>9900</v>
       </c>
       <c r="H100">
         <v>10001</v>
@@ -5745,42 +5184,42 @@
         <v>1000</v>
       </c>
       <c r="J100">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L100">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>1000</v>
       </c>
       <c r="N100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>149700</v>
+        <v>10200</v>
       </c>
       <c r="C101" s="1">
-        <v>19205</v>
+        <v>515</v>
       </c>
       <c r="D101" s="1">
-        <v>2314</v>
+        <v>101</v>
       </c>
       <c r="E101" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1">
         <v>1.45</v>
       </c>
       <c r="G101" s="1">
-        <v>19801</v>
+        <v>10000</v>
       </c>
       <c r="H101">
         <v>10001</v>
@@ -5789,59 +5228,53 @@
         <v>1000</v>
       </c>
       <c r="J101">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L101">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>1000</v>
       </c>
       <c r="N101">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48203\Desktop\大魔王\配置表(2)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{623122A7-37A3-4C09-847D-644D9B00801E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21405" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,20 +16,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
     <author>48203541@qq.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -44,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -68,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -92,7 +81,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -100,14 +88,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -116,7 +103,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -124,14 +110,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -140,7 +125,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -148,14 +132,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -164,7 +147,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -172,14 +154,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -188,7 +169,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -196,14 +176,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -212,7 +191,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -220,14 +198,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -236,7 +213,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -244,14 +220,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -260,7 +235,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -268,14 +242,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -284,7 +257,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -292,14 +264,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -308,7 +279,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -316,14 +286,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -332,7 +301,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -340,14 +308,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -356,7 +323,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -369,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>role_lv</t>
   </si>
@@ -416,8 +382,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,42 +398,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -469,31 +751,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -780,45 +1354,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="6" width="13.75" customWidth="1"/>
+    <col min="4" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -843,26 +1418,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>300</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G2" s="2">
         <v>100</v>
       </c>
       <c r="H2">
@@ -887,26 +1462,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>400</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G3" s="2">
         <v>200</v>
       </c>
       <c r="H3">
@@ -931,26 +1506,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>500</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G4" s="2">
         <v>300</v>
       </c>
       <c r="H4">
@@ -975,26 +1550,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>600</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>35</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G5" s="2">
         <v>400</v>
       </c>
       <c r="H5">
@@ -1019,26 +1594,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>700</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>40</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G6" s="2">
         <v>500</v>
       </c>
       <c r="H6">
@@ -1063,26 +1638,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>800</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>45</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G7" s="2">
         <v>600</v>
       </c>
       <c r="H7">
@@ -1107,26 +1682,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>900</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>50</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G8" s="2">
         <v>700</v>
       </c>
       <c r="H8">
@@ -1151,26 +1726,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="2">
         <v>55</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>9</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G9" s="2">
         <v>800</v>
       </c>
       <c r="H9">
@@ -1195,26 +1770,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>1100</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>60</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G10" s="2">
         <v>900</v>
       </c>
       <c r="H10">
@@ -1239,26 +1814,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1200</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>65</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>11</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G11" s="2">
         <v>1000</v>
       </c>
       <c r="H11">
@@ -1283,26 +1858,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1300</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>70</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>12</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G12" s="2">
         <v>1100</v>
       </c>
       <c r="H12">
@@ -1327,26 +1902,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1400</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>75</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>13</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G13" s="2">
         <v>1200</v>
       </c>
       <c r="H13">
@@ -1371,26 +1946,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>1500</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>80</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>14</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G14" s="2">
         <v>1300</v>
       </c>
       <c r="H14">
@@ -1415,26 +1990,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>1600</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>85</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G15" s="2">
         <v>1400</v>
       </c>
       <c r="H15">
@@ -1459,26 +2034,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>1700</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>90</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>16</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G16" s="2">
         <v>1500</v>
       </c>
       <c r="H16">
@@ -1503,26 +2078,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1800</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>95</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>17</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G17" s="2">
         <v>1600</v>
       </c>
       <c r="H17">
@@ -1547,26 +2122,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>1900</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>100</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>18</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G18" s="2">
         <v>1700</v>
       </c>
       <c r="H18">
@@ -1591,26 +2166,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>2000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>105</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>19</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G19" s="2">
         <v>1800</v>
       </c>
       <c r="H19">
@@ -1635,26 +2210,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>2100</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>110</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G20" s="2">
         <v>1900</v>
       </c>
       <c r="H20">
@@ -1679,26 +2254,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>2200</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>115</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>21</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G21" s="2">
         <v>2000</v>
       </c>
       <c r="H21">
@@ -1723,26 +2298,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    <row r="22" spans="1:14">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>2300</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>120</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>22</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G22" s="2">
         <v>2100</v>
       </c>
       <c r="H22">
@@ -1767,26 +2342,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+    <row r="23" spans="1:14">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>2400</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>125</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>23</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G23" s="2">
         <v>2200</v>
       </c>
       <c r="H23">
@@ -1811,26 +2386,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+    <row r="24" spans="1:14">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>2500</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>130</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>24</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G24" s="2">
         <v>2300</v>
       </c>
       <c r="H24">
@@ -1855,26 +2430,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>2600</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>135</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>25</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G25" s="2">
         <v>2400</v>
       </c>
       <c r="H25">
@@ -1899,26 +2474,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+    <row r="26" spans="1:14">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>2700</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>140</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>26</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G26" s="2">
         <v>2500</v>
       </c>
       <c r="H26">
@@ -1943,26 +2518,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+    <row r="27" spans="1:14">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>2800</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>145</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>27</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G27" s="2">
         <v>2600</v>
       </c>
       <c r="H27">
@@ -1987,26 +2562,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+    <row r="28" spans="1:14">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>2900</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>150</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>28</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G28" s="2">
         <v>2700</v>
       </c>
       <c r="H28">
@@ -2031,26 +2606,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+    <row r="29" spans="1:14">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>3000</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>155</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>29</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G29" s="2">
         <v>2800</v>
       </c>
       <c r="H29">
@@ -2075,26 +2650,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>3100</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>160</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>30</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G30" s="2">
         <v>2900</v>
       </c>
       <c r="H30">
@@ -2119,26 +2694,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+    <row r="31" spans="1:14">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>3200</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>165</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>31</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G31" s="2">
         <v>3000</v>
       </c>
       <c r="H31">
@@ -2163,26 +2738,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+    <row r="32" spans="1:14">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>3300</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>170</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>32</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G32" s="2">
         <v>3100</v>
       </c>
       <c r="H32">
@@ -2207,26 +2782,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>3400</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>175</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>33</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G33" s="2">
         <v>3200</v>
       </c>
       <c r="H33">
@@ -2251,26 +2826,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
+    <row r="34" spans="1:14">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>3500</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>180</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>34</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G34" s="2">
         <v>3300</v>
       </c>
       <c r="H34">
@@ -2295,26 +2870,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+    <row r="35" spans="1:14">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>3600</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>185</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>35</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G35" s="2">
         <v>3400</v>
       </c>
       <c r="H35">
@@ -2339,26 +2914,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+    <row r="36" spans="1:14">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>3700</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>190</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>36</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G36" s="2">
         <v>3500</v>
       </c>
       <c r="H36">
@@ -2383,26 +2958,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+    <row r="37" spans="1:14">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>3800</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>195</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>37</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G37" s="2">
         <v>3600</v>
       </c>
       <c r="H37">
@@ -2427,26 +3002,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>3900</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>200</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>38</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G38" s="2">
         <v>3700</v>
       </c>
       <c r="H38">
@@ -2471,26 +3046,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
+    <row r="39" spans="1:14">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>4000</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>205</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>39</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G39" s="2">
         <v>3800</v>
       </c>
       <c r="H39">
@@ -2515,26 +3090,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
+    <row r="40" spans="1:14">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>4100</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>210</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>40</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G40" s="2">
         <v>3900</v>
       </c>
       <c r="H40">
@@ -2559,26 +3134,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+    <row r="41" spans="1:14">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>4200</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>215</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>41</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G41" s="2">
         <v>4000</v>
       </c>
       <c r="H41">
@@ -2603,26 +3178,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
+    <row r="42" spans="1:14">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>4300</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>220</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>42</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G42" s="2">
         <v>4100</v>
       </c>
       <c r="H42">
@@ -2647,26 +3222,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
+    <row r="43" spans="1:14">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>4400</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>225</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>43</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G43" s="2">
         <v>4200</v>
       </c>
       <c r="H43">
@@ -2691,26 +3266,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+    <row r="44" spans="1:14">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>4500</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>230</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>44</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G44" s="2">
         <v>4300</v>
       </c>
       <c r="H44">
@@ -2735,26 +3310,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
+    <row r="45" spans="1:14">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>4600</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>235</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>45</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G45" s="2">
         <v>4400</v>
       </c>
       <c r="H45">
@@ -2779,26 +3354,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+    <row r="46" spans="1:14">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>4700</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>240</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>46</v>
       </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G46" s="2">
         <v>4500</v>
       </c>
       <c r="H46">
@@ -2823,26 +3398,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
+    <row r="47" spans="1:14">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>4800</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>245</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>47</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G47" s="2">
         <v>4600</v>
       </c>
       <c r="H47">
@@ -2867,26 +3442,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
+    <row r="48" spans="1:14">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>4900</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>250</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>48</v>
       </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G48" s="2">
         <v>4700</v>
       </c>
       <c r="H48">
@@ -2911,26 +3486,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
+    <row r="49" spans="1:14">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>5000</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>255</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>49</v>
       </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G49" s="2">
         <v>4800</v>
       </c>
       <c r="H49">
@@ -2955,26 +3530,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+    <row r="50" spans="1:14">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>5100</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>260</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>50</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G50" s="2">
         <v>4900</v>
       </c>
       <c r="H50">
@@ -2999,26 +3574,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+    <row r="51" spans="1:14">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>5200</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>265</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>51</v>
       </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G51" s="2">
         <v>5000</v>
       </c>
       <c r="H51">
@@ -3043,26 +3618,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+    <row r="52" spans="1:14">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>5300</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>270</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>52</v>
       </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G52" s="2">
         <v>5100</v>
       </c>
       <c r="H52">
@@ -3087,26 +3662,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+    <row r="53" spans="1:14">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>5400</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>275</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>53</v>
       </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G53" s="2">
         <v>5200</v>
       </c>
       <c r="H53">
@@ -3131,26 +3706,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+    <row r="54" spans="1:14">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>5500</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>280</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>54</v>
       </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G54" s="1">
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G54" s="2">
         <v>5300</v>
       </c>
       <c r="H54">
@@ -3175,26 +3750,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
+    <row r="55" spans="1:14">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>5600</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>285</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>55</v>
       </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G55" s="1">
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G55" s="2">
         <v>5400</v>
       </c>
       <c r="H55">
@@ -3219,26 +3794,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
+    <row r="56" spans="1:14">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>5700</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>290</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>56</v>
       </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G56" s="1">
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G56" s="2">
         <v>5500</v>
       </c>
       <c r="H56">
@@ -3263,26 +3838,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
+    <row r="57" spans="1:14">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>5800</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>295</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>57</v>
       </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G57" s="2">
         <v>5600</v>
       </c>
       <c r="H57">
@@ -3307,26 +3882,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
+    <row r="58" spans="1:14">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>5900</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>300</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>58</v>
       </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G58" s="1">
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G58" s="2">
         <v>5700</v>
       </c>
       <c r="H58">
@@ -3351,26 +3926,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
+    <row r="59" spans="1:14">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>6000</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>305</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>59</v>
       </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G59" s="2">
         <v>5800</v>
       </c>
       <c r="H59">
@@ -3395,26 +3970,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
+    <row r="60" spans="1:14">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>6100</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>310</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>60</v>
       </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G60" s="2">
         <v>5900</v>
       </c>
       <c r="H60">
@@ -3439,26 +4014,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
+    <row r="61" spans="1:14">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>6200</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>315</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>61</v>
       </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G61" s="2">
         <v>6000</v>
       </c>
       <c r="H61">
@@ -3483,26 +4058,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
+    <row r="62" spans="1:14">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>6300</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>320</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>62</v>
       </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G62" s="1">
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G62" s="2">
         <v>6100</v>
       </c>
       <c r="H62">
@@ -3527,26 +4102,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
+    <row r="63" spans="1:14">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>6400</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>325</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>63</v>
       </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G63" s="1">
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G63" s="2">
         <v>6200</v>
       </c>
       <c r="H63">
@@ -3571,26 +4146,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
+    <row r="64" spans="1:14">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>6500</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>330</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>64</v>
       </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G64" s="1">
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G64" s="2">
         <v>6300</v>
       </c>
       <c r="H64">
@@ -3615,26 +4190,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
+    <row r="65" spans="1:14">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>6600</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>335</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>65</v>
       </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G65" s="1">
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G65" s="2">
         <v>6400</v>
       </c>
       <c r="H65">
@@ -3659,26 +4234,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+    <row r="66" spans="1:14">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>6700</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>340</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>66</v>
       </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G66" s="2">
         <v>6500</v>
       </c>
       <c r="H66">
@@ -3703,26 +4278,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
+    <row r="67" spans="1:14">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>6800</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>345</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>67</v>
       </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G67" s="2">
         <v>6600</v>
       </c>
       <c r="H67">
@@ -3747,26 +4322,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
+    <row r="68" spans="1:14">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>6900</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>350</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>68</v>
       </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G68" s="1">
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G68" s="2">
         <v>6700</v>
       </c>
       <c r="H68">
@@ -3791,26 +4366,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
+    <row r="69" spans="1:14">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>7000</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>355</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>69</v>
       </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G69" s="1">
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G69" s="2">
         <v>6800</v>
       </c>
       <c r="H69">
@@ -3835,26 +4410,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
+    <row r="70" spans="1:14">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>7100</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>360</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>70</v>
       </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G70" s="1">
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G70" s="2">
         <v>6900</v>
       </c>
       <c r="H70">
@@ -3879,26 +4454,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
+    <row r="71" spans="1:14">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>7200</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>365</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>71</v>
       </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G71" s="1">
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G71" s="2">
         <v>7000</v>
       </c>
       <c r="H71">
@@ -3923,26 +4498,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
+    <row r="72" spans="1:14">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>7300</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>370</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>72</v>
       </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G72" s="1">
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G72" s="2">
         <v>7100</v>
       </c>
       <c r="H72">
@@ -3967,26 +4542,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
+    <row r="73" spans="1:14">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>7400</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>375</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>73</v>
       </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G73" s="1">
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G73" s="2">
         <v>7200</v>
       </c>
       <c r="H73">
@@ -4011,26 +4586,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
+    <row r="74" spans="1:14">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>7500</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>380</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>74</v>
       </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G74" s="1">
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G74" s="2">
         <v>7300</v>
       </c>
       <c r="H74">
@@ -4055,26 +4630,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
+    <row r="75" spans="1:14">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>7600</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>385</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>75</v>
       </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G75" s="1">
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G75" s="2">
         <v>7400</v>
       </c>
       <c r="H75">
@@ -4099,26 +4674,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
+    <row r="76" spans="1:14">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>7700</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>390</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>76</v>
       </c>
-      <c r="E76" s="1">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G76" s="1">
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G76" s="2">
         <v>7500</v>
       </c>
       <c r="H76">
@@ -4143,26 +4718,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
+    <row r="77" spans="1:14">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>7800</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>395</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>77</v>
       </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G77" s="1">
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G77" s="2">
         <v>7600</v>
       </c>
       <c r="H77">
@@ -4187,26 +4762,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
+    <row r="78" spans="1:14">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>7900</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>400</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>78</v>
       </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G78" s="1">
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G78" s="2">
         <v>7700</v>
       </c>
       <c r="H78">
@@ -4231,26 +4806,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
+    <row r="79" spans="1:14">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>8000</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>405</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>79</v>
       </c>
-      <c r="E79" s="1">
-        <v>1</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G79" s="1">
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G79" s="2">
         <v>7800</v>
       </c>
       <c r="H79">
@@ -4275,26 +4850,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
+    <row r="80" spans="1:14">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>8100</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>410</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>80</v>
       </c>
-      <c r="E80" s="1">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G80" s="2">
         <v>7900</v>
       </c>
       <c r="H80">
@@ -4319,26 +4894,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
+    <row r="81" spans="1:14">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>8200</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>415</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>81</v>
       </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G81" s="1">
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G81" s="2">
         <v>8000</v>
       </c>
       <c r="H81">
@@ -4363,26 +4938,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
+    <row r="82" spans="1:14">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>8300</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>420</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>82</v>
       </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G82" s="1">
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G82" s="2">
         <v>8100</v>
       </c>
       <c r="H82">
@@ -4407,26 +4982,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
+    <row r="83" spans="1:14">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>8400</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>425</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>83</v>
       </c>
-      <c r="E83" s="1">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G83" s="1">
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G83" s="2">
         <v>8200</v>
       </c>
       <c r="H83">
@@ -4451,26 +5026,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
+    <row r="84" spans="1:14">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>8500</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>430</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>84</v>
       </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G84" s="1">
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G84" s="2">
         <v>8300</v>
       </c>
       <c r="H84">
@@ -4495,26 +5070,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A85" s="1">
+    <row r="85" spans="1:14">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>8600</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>435</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>85</v>
       </c>
-      <c r="E85" s="1">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G85" s="1">
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G85" s="2">
         <v>8400</v>
       </c>
       <c r="H85">
@@ -4539,26 +5114,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
+    <row r="86" spans="1:14">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>8700</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>440</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>86</v>
       </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G86" s="1">
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G86" s="2">
         <v>8500</v>
       </c>
       <c r="H86">
@@ -4583,26 +5158,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
+    <row r="87" spans="1:14">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>8800</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>445</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>87</v>
       </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G87" s="1">
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G87" s="2">
         <v>8600</v>
       </c>
       <c r="H87">
@@ -4627,26 +5202,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
+    <row r="88" spans="1:14">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>8900</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>450</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>88</v>
       </c>
-      <c r="E88" s="1">
-        <v>1</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G88" s="1">
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G88" s="2">
         <v>8700</v>
       </c>
       <c r="H88">
@@ -4671,26 +5246,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
+    <row r="89" spans="1:14">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>9000</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>455</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>89</v>
       </c>
-      <c r="E89" s="1">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G89" s="1">
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G89" s="2">
         <v>8800</v>
       </c>
       <c r="H89">
@@ -4715,26 +5290,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
+    <row r="90" spans="1:14">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>9100</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>460</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>90</v>
       </c>
-      <c r="E90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G90" s="1">
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G90" s="2">
         <v>8900</v>
       </c>
       <c r="H90">
@@ -4759,26 +5334,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A91" s="1">
+    <row r="91" spans="1:14">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>9200</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>465</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>91</v>
       </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G91" s="1">
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G91" s="2">
         <v>9000</v>
       </c>
       <c r="H91">
@@ -4803,26 +5378,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
+    <row r="92" spans="1:14">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>9300</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>470</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>92</v>
       </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G92" s="1">
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G92" s="2">
         <v>9100</v>
       </c>
       <c r="H92">
@@ -4847,26 +5422,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
+    <row r="93" spans="1:14">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>9400</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>475</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>93</v>
       </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G93" s="1">
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G93" s="2">
         <v>9200</v>
       </c>
       <c r="H93">
@@ -4891,26 +5466,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
+    <row r="94" spans="1:14">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>9500</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>480</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>94</v>
       </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G94" s="1">
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G94" s="2">
         <v>9300</v>
       </c>
       <c r="H94">
@@ -4935,26 +5510,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
+    <row r="95" spans="1:14">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>9600</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>485</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>95</v>
       </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G95" s="1">
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G95" s="2">
         <v>9400</v>
       </c>
       <c r="H95">
@@ -4979,26 +5554,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
+    <row r="96" spans="1:14">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>9700</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>490</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>96</v>
       </c>
-      <c r="E96" s="1">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G96" s="1">
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G96" s="2">
         <v>9500</v>
       </c>
       <c r="H96">
@@ -5023,26 +5598,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
+    <row r="97" spans="1:14">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>9800</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>495</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>97</v>
       </c>
-      <c r="E97" s="1">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G97" s="1">
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G97" s="2">
         <v>9600</v>
       </c>
       <c r="H97">
@@ -5067,26 +5642,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
+    <row r="98" spans="1:14">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>9900</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>500</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>98</v>
       </c>
-      <c r="E98" s="1">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G98" s="1">
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G98" s="2">
         <v>9700</v>
       </c>
       <c r="H98">
@@ -5111,26 +5686,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
+    <row r="99" spans="1:14">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>10000</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>505</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>99</v>
       </c>
-      <c r="E99" s="1">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G99" s="1">
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G99" s="2">
         <v>9800</v>
       </c>
       <c r="H99">
@@ -5155,26 +5730,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
+    <row r="100" spans="1:14">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>10100</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>510</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>100</v>
       </c>
-      <c r="E100" s="1">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G100" s="1">
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G100" s="2">
         <v>9900</v>
       </c>
       <c r="H100">
@@ -5199,26 +5774,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
+    <row r="101" spans="1:14">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>10200</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>515</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>101</v>
       </c>
-      <c r="E101" s="1">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="G101" s="1">
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="G101" s="2">
         <v>10000</v>
       </c>
       <c r="H101">
@@ -5244,37 +5819,43 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="21405" windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,12 +330,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+攻击类型
+1 为近战
+0 为远程</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>role_lv</t>
   </si>
@@ -378,16 +402,19 @@
   <si>
     <t>real_dam</t>
   </si>
+  <si>
+    <t>range_type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -402,6 +429,97 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,37 +539,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,46 +552,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,30 +575,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -558,7 +585,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,31 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,49 +735,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,84 +769,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -752,26 +779,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,29 +805,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,6 +829,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -849,6 +861,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -857,10 +884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,133 +896,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1372,9 +1399,10 @@
     <col min="4" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1445,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1461,8 +1492,11 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1505,8 +1539,11 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1549,8 +1586,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1593,8 +1633,11 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1637,8 +1680,11 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1681,8 +1727,11 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1725,8 +1774,11 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1769,8 +1821,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1813,8 +1868,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1857,8 +1915,11 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1901,8 +1962,11 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1945,8 +2009,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1989,8 +2056,11 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2033,8 +2103,11 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2077,8 +2150,11 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2121,8 +2197,11 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2165,8 +2244,11 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2209,8 +2291,11 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2253,8 +2338,11 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2297,8 +2385,11 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2341,8 +2432,11 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2385,8 +2479,11 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2429,8 +2526,11 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2473,8 +2573,11 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2517,8 +2620,11 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2561,8 +2667,11 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2605,8 +2714,11 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2649,8 +2761,11 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2693,8 +2808,11 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2737,8 +2855,11 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2781,8 +2902,11 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2825,8 +2949,11 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2869,8 +2996,11 @@
       <c r="N34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2913,8 +3043,11 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2957,8 +3090,11 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3001,8 +3137,11 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3045,8 +3184,11 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3089,8 +3231,11 @@
       <c r="N39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3133,8 +3278,11 @@
       <c r="N40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3177,8 +3325,11 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3221,8 +3372,11 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3265,8 +3419,11 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3309,8 +3466,11 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3353,8 +3513,11 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3397,8 +3560,11 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3441,8 +3607,11 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3485,8 +3654,11 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3529,8 +3701,11 @@
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3573,8 +3748,11 @@
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3617,8 +3795,11 @@
       <c r="N51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3661,8 +3842,11 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3705,8 +3889,11 @@
       <c r="N53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3749,8 +3936,11 @@
       <c r="N54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3793,8 +3983,11 @@
       <c r="N55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3837,8 +4030,11 @@
       <c r="N56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3881,8 +4077,11 @@
       <c r="N57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3925,8 +4124,11 @@
       <c r="N58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3969,8 +4171,11 @@
       <c r="N59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4013,8 +4218,11 @@
       <c r="N60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4057,8 +4265,11 @@
       <c r="N61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4101,8 +4312,11 @@
       <c r="N62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4145,8 +4359,11 @@
       <c r="N63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4189,8 +4406,11 @@
       <c r="N64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4233,8 +4453,11 @@
       <c r="N65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4277,8 +4500,11 @@
       <c r="N66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4321,8 +4547,11 @@
       <c r="N67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4365,8 +4594,11 @@
       <c r="N68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4409,8 +4641,11 @@
       <c r="N69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4453,8 +4688,11 @@
       <c r="N70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -4497,8 +4735,11 @@
       <c r="N71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4541,8 +4782,11 @@
       <c r="N72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4585,8 +4829,11 @@
       <c r="N73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4629,8 +4876,11 @@
       <c r="N74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4673,8 +4923,11 @@
       <c r="N75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4717,8 +4970,11 @@
       <c r="N76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4761,8 +5017,11 @@
       <c r="N77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4805,8 +5064,11 @@
       <c r="N78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4849,8 +5111,11 @@
       <c r="N79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4893,8 +5158,11 @@
       <c r="N80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4937,8 +5205,11 @@
       <c r="N81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4981,8 +5252,11 @@
       <c r="N82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5025,8 +5299,11 @@
       <c r="N83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5069,8 +5346,11 @@
       <c r="N84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5113,8 +5393,11 @@
       <c r="N85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5157,8 +5440,11 @@
       <c r="N86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5201,8 +5487,11 @@
       <c r="N87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5245,8 +5534,11 @@
       <c r="N88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -5289,8 +5581,11 @@
       <c r="N89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -5333,8 +5628,11 @@
       <c r="N90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -5377,8 +5675,11 @@
       <c r="N91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -5421,8 +5722,11 @@
       <c r="N92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -5465,8 +5769,11 @@
       <c r="N93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -5509,8 +5816,11 @@
       <c r="N94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5553,8 +5863,11 @@
       <c r="N95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -5597,8 +5910,11 @@
       <c r="N96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5641,8 +5957,11 @@
       <c r="N97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5685,8 +6004,11 @@
       <c r="N98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5729,8 +6051,11 @@
       <c r="N99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5773,8 +6098,11 @@
       <c r="N100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5816,6 +6144,9 @@
       </c>
       <c r="N101">
         <v>0</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3940A0C-D1CB-4F86-B91C-9FAEA7DF302B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +22,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
     <author>48203541@qq.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -339,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,6 +590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -624,6 +642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,11 +834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="G500" sqref="G500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -864,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1200</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
@@ -908,13 +943,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2400</v>
+        <v>2002</v>
       </c>
       <c r="C3" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <v>1000</v>
@@ -952,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3600</v>
+        <v>3003</v>
       </c>
       <c r="C4" s="2">
         <v>45</v>
@@ -996,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>4800</v>
+        <v>4004</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
@@ -1040,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>6000</v>
+        <v>5005</v>
       </c>
       <c r="C6" s="2">
         <v>75</v>
@@ -1084,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>7200</v>
+        <v>6006</v>
       </c>
       <c r="C7" s="2">
         <v>90</v>
@@ -1128,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>8400</v>
+        <v>7007</v>
       </c>
       <c r="C8" s="2">
         <v>105</v>
@@ -1172,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>9600</v>
+        <v>8008</v>
       </c>
       <c r="C9" s="2">
         <v>120</v>
@@ -1216,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>10800</v>
+        <v>9009</v>
       </c>
       <c r="C10" s="2">
         <v>135</v>
@@ -1260,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>12000</v>
+        <v>10010</v>
       </c>
       <c r="C11" s="2">
         <v>150</v>
@@ -1304,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>13200</v>
+        <v>11011</v>
       </c>
       <c r="C12" s="2">
         <v>165</v>
@@ -1348,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>14400</v>
+        <v>12012</v>
       </c>
       <c r="C13" s="2">
         <v>180</v>
@@ -1392,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>15600</v>
+        <v>13013</v>
       </c>
       <c r="C14" s="2">
         <v>195</v>
@@ -1436,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>16800</v>
+        <v>14014</v>
       </c>
       <c r="C15" s="2">
         <v>210</v>
@@ -1480,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>18000</v>
+        <v>15015</v>
       </c>
       <c r="C16" s="2">
         <v>225</v>
@@ -1524,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>19200</v>
+        <v>16016</v>
       </c>
       <c r="C17" s="2">
         <v>240</v>
@@ -1568,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>20400</v>
+        <v>17017</v>
       </c>
       <c r="C18" s="2">
         <v>255</v>
@@ -1612,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>21600</v>
+        <v>18018</v>
       </c>
       <c r="C19" s="2">
         <v>270</v>
@@ -1656,7 +1691,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>22800</v>
+        <v>19019</v>
       </c>
       <c r="C20" s="2">
         <v>285</v>
@@ -1700,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>24000</v>
+        <v>20020</v>
       </c>
       <c r="C21" s="2">
         <v>300</v>
@@ -1744,7 +1779,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>27000</v>
+        <v>22521</v>
       </c>
       <c r="C22" s="2">
         <v>336</v>
@@ -1788,7 +1823,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>30000</v>
+        <v>25022</v>
       </c>
       <c r="C23" s="2">
         <v>372</v>
@@ -1832,7 +1867,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>33000</v>
+        <v>27523</v>
       </c>
       <c r="C24" s="2">
         <v>408</v>
@@ -1876,7 +1911,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>36000</v>
+        <v>30024</v>
       </c>
       <c r="C25" s="2">
         <v>444</v>
@@ -1920,7 +1955,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>39000</v>
+        <v>32525</v>
       </c>
       <c r="C26" s="2">
         <v>480</v>
@@ -1964,7 +1999,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>42000</v>
+        <v>35026</v>
       </c>
       <c r="C27" s="2">
         <v>516</v>
@@ -2008,7 +2043,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>45000</v>
+        <v>37527</v>
       </c>
       <c r="C28" s="2">
         <v>552</v>
@@ -2052,7 +2087,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>48000</v>
+        <v>40028</v>
       </c>
       <c r="C29" s="2">
         <v>588</v>
@@ -2096,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>51000</v>
+        <v>42529</v>
       </c>
       <c r="C30" s="2">
         <v>624</v>
@@ -2140,7 +2175,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>54000</v>
+        <v>45030</v>
       </c>
       <c r="C31" s="2">
         <v>660</v>
@@ -2184,7 +2219,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>57000</v>
+        <v>47531</v>
       </c>
       <c r="C32" s="2">
         <v>696</v>
@@ -2228,7 +2263,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>60000</v>
+        <v>50032</v>
       </c>
       <c r="C33" s="2">
         <v>732</v>
@@ -2272,7 +2307,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>63000</v>
+        <v>52533</v>
       </c>
       <c r="C34" s="2">
         <v>768</v>
@@ -2316,7 +2351,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>66000</v>
+        <v>55034</v>
       </c>
       <c r="C35" s="2">
         <v>804</v>
@@ -2360,7 +2395,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>69000</v>
+        <v>57535</v>
       </c>
       <c r="C36" s="2">
         <v>840</v>
@@ -2404,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>72000</v>
+        <v>60036</v>
       </c>
       <c r="C37" s="2">
         <v>876</v>
@@ -2448,7 +2483,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>75000</v>
+        <v>62537</v>
       </c>
       <c r="C38" s="2">
         <v>912</v>
@@ -2492,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>78000</v>
+        <v>65038</v>
       </c>
       <c r="C39" s="2">
         <v>948</v>
@@ -2536,7 +2571,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>81000</v>
+        <v>67539</v>
       </c>
       <c r="C40" s="2">
         <v>984</v>
@@ -2580,7 +2615,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>84000</v>
+        <v>70040</v>
       </c>
       <c r="C41" s="2">
         <v>1020</v>
@@ -2624,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>88500</v>
+        <v>73790</v>
       </c>
       <c r="C42" s="2">
         <v>1074</v>
@@ -2668,7 +2703,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>93000</v>
+        <v>77540</v>
       </c>
       <c r="C43" s="2">
         <v>1128</v>
@@ -2712,7 +2747,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>97500</v>
+        <v>81290</v>
       </c>
       <c r="C44" s="2">
         <v>1182</v>
@@ -2756,7 +2791,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>102000</v>
+        <v>85040</v>
       </c>
       <c r="C45" s="2">
         <v>1236</v>
@@ -2800,7 +2835,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>106500</v>
+        <v>88790</v>
       </c>
       <c r="C46" s="2">
         <v>1290</v>
@@ -2844,7 +2879,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>111000</v>
+        <v>92540</v>
       </c>
       <c r="C47" s="2">
         <v>1344</v>
@@ -2888,7 +2923,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>115500</v>
+        <v>96290</v>
       </c>
       <c r="C48" s="2">
         <v>1398</v>
@@ -2932,7 +2967,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>120000</v>
+        <v>100040</v>
       </c>
       <c r="C49" s="2">
         <v>1452</v>
@@ -2976,7 +3011,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>124500</v>
+        <v>103790</v>
       </c>
       <c r="C50" s="2">
         <v>1506</v>
@@ -3020,7 +3055,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>129000</v>
+        <v>107540</v>
       </c>
       <c r="C51" s="2">
         <v>1560</v>
@@ -3064,7 +3099,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>133500</v>
+        <v>111290</v>
       </c>
       <c r="C52" s="2">
         <v>1614</v>
@@ -3108,7 +3143,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>138000</v>
+        <v>115040</v>
       </c>
       <c r="C53" s="2">
         <v>1668</v>
@@ -3152,7 +3187,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>142500</v>
+        <v>118790</v>
       </c>
       <c r="C54" s="2">
         <v>1722</v>
@@ -3196,7 +3231,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>147000</v>
+        <v>122540</v>
       </c>
       <c r="C55" s="2">
         <v>1776</v>
@@ -3240,7 +3275,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>151500</v>
+        <v>126290</v>
       </c>
       <c r="C56" s="2">
         <v>1830</v>
@@ -3284,7 +3319,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>156000</v>
+        <v>130040</v>
       </c>
       <c r="C57" s="2">
         <v>1884</v>
@@ -3328,7 +3363,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>160500</v>
+        <v>133790</v>
       </c>
       <c r="C58" s="2">
         <v>1938</v>
@@ -3372,7 +3407,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>165000</v>
+        <v>137540</v>
       </c>
       <c r="C59" s="2">
         <v>1992</v>
@@ -3416,7 +3451,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>169500</v>
+        <v>141290</v>
       </c>
       <c r="C60" s="2">
         <v>2046</v>
@@ -3460,7 +3495,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>174000</v>
+        <v>145040</v>
       </c>
       <c r="C61" s="2">
         <v>2100</v>
@@ -3504,7 +3539,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>180000</v>
+        <v>150040</v>
       </c>
       <c r="C62" s="2">
         <v>2172</v>
@@ -3548,7 +3583,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>186000</v>
+        <v>155040</v>
       </c>
       <c r="C63" s="2">
         <v>2244</v>
@@ -3592,7 +3627,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>192000</v>
+        <v>160040</v>
       </c>
       <c r="C64" s="2">
         <v>2316</v>
@@ -3636,7 +3671,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>198000</v>
+        <v>165040</v>
       </c>
       <c r="C65" s="2">
         <v>2388</v>
@@ -3680,7 +3715,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>204000</v>
+        <v>170040</v>
       </c>
       <c r="C66" s="2">
         <v>2460</v>
@@ -3724,7 +3759,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>210000</v>
+        <v>175040</v>
       </c>
       <c r="C67" s="2">
         <v>2532</v>
@@ -3768,7 +3803,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>216000</v>
+        <v>180040</v>
       </c>
       <c r="C68" s="2">
         <v>2604</v>
@@ -3812,7 +3847,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>222000</v>
+        <v>185040</v>
       </c>
       <c r="C69" s="2">
         <v>2676</v>
@@ -3856,7 +3891,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>228000</v>
+        <v>190040</v>
       </c>
       <c r="C70" s="2">
         <v>2748</v>
@@ -3900,7 +3935,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>234000</v>
+        <v>195040</v>
       </c>
       <c r="C71" s="2">
         <v>2820</v>
@@ -3944,7 +3979,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>240000</v>
+        <v>200040</v>
       </c>
       <c r="C72" s="2">
         <v>2892</v>
@@ -3988,7 +4023,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>246000</v>
+        <v>205040</v>
       </c>
       <c r="C73" s="2">
         <v>2964</v>
@@ -4032,7 +4067,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>252000</v>
+        <v>210040</v>
       </c>
       <c r="C74" s="2">
         <v>3036</v>
@@ -4076,7 +4111,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>258000</v>
+        <v>215040</v>
       </c>
       <c r="C75" s="2">
         <v>3108</v>
@@ -4120,7 +4155,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>264000</v>
+        <v>220040</v>
       </c>
       <c r="C76" s="2">
         <v>3180</v>
@@ -4164,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>270000</v>
+        <v>225040</v>
       </c>
       <c r="C77" s="2">
         <v>3252</v>
@@ -4208,7 +4243,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>276000</v>
+        <v>230040</v>
       </c>
       <c r="C78" s="2">
         <v>3324</v>
@@ -4252,7 +4287,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>282000</v>
+        <v>235040</v>
       </c>
       <c r="C79" s="2">
         <v>3396</v>
@@ -4296,7 +4331,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>288000</v>
+        <v>240040</v>
       </c>
       <c r="C80" s="2">
         <v>3468</v>
@@ -4340,7 +4375,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>294000</v>
+        <v>245040</v>
       </c>
       <c r="C81" s="2">
         <v>3540</v>
@@ -4384,7 +4419,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>301500</v>
+        <v>251291</v>
       </c>
       <c r="C82" s="2">
         <v>3630</v>
@@ -4428,7 +4463,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>309000</v>
+        <v>257542</v>
       </c>
       <c r="C83" s="2">
         <v>3720</v>
@@ -4472,7 +4507,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>316500</v>
+        <v>263793</v>
       </c>
       <c r="C84" s="2">
         <v>3810</v>
@@ -4516,7 +4551,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>324000</v>
+        <v>270044</v>
       </c>
       <c r="C85" s="2">
         <v>3900</v>
@@ -4560,7 +4595,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>331500</v>
+        <v>276295</v>
       </c>
       <c r="C86" s="2">
         <v>3990</v>
@@ -4604,7 +4639,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>339000</v>
+        <v>282546</v>
       </c>
       <c r="C87" s="2">
         <v>4080</v>
@@ -4648,7 +4683,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>346500</v>
+        <v>288797</v>
       </c>
       <c r="C88" s="2">
         <v>4170</v>
@@ -4692,7 +4727,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>354000</v>
+        <v>295048</v>
       </c>
       <c r="C89" s="2">
         <v>4260</v>
@@ -4736,7 +4771,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>361500</v>
+        <v>301299</v>
       </c>
       <c r="C90" s="2">
         <v>4350</v>
@@ -4780,7 +4815,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>369000</v>
+        <v>307550</v>
       </c>
       <c r="C91" s="2">
         <v>4440</v>
@@ -4824,7 +4859,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>376500</v>
+        <v>313801</v>
       </c>
       <c r="C92" s="2">
         <v>4530</v>
@@ -4868,7 +4903,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>384000</v>
+        <v>320052</v>
       </c>
       <c r="C93" s="2">
         <v>4620</v>
@@ -4912,7 +4947,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>391500</v>
+        <v>326303</v>
       </c>
       <c r="C94" s="2">
         <v>4710</v>
@@ -4956,7 +4991,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>399000</v>
+        <v>332554</v>
       </c>
       <c r="C95" s="2">
         <v>4800</v>
@@ -5000,7 +5035,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>406500</v>
+        <v>338805</v>
       </c>
       <c r="C96" s="2">
         <v>4890</v>
@@ -5044,7 +5079,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>414000</v>
+        <v>345056</v>
       </c>
       <c r="C97" s="2">
         <v>4980</v>
@@ -5088,7 +5123,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>421500</v>
+        <v>351307</v>
       </c>
       <c r="C98" s="2">
         <v>5070</v>
@@ -5132,7 +5167,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>429000</v>
+        <v>357558</v>
       </c>
       <c r="C99" s="2">
         <v>5160</v>
@@ -5176,7 +5211,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>436500</v>
+        <v>363809</v>
       </c>
       <c r="C100" s="2">
         <v>5250</v>
@@ -5220,7 +5255,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>444000</v>
+        <v>370060</v>
       </c>
       <c r="C101" s="2">
         <v>5340</v>
@@ -5264,7 +5299,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>453000</v>
+        <v>377560</v>
       </c>
       <c r="C102">
         <v>5448</v>
@@ -5308,7 +5343,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>462000</v>
+        <v>385060</v>
       </c>
       <c r="C103">
         <v>5556</v>
@@ -5352,7 +5387,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>471000</v>
+        <v>392560</v>
       </c>
       <c r="C104">
         <v>5664</v>
@@ -5396,7 +5431,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>480000</v>
+        <v>400060</v>
       </c>
       <c r="C105">
         <v>5772</v>
@@ -5440,7 +5475,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>489000</v>
+        <v>407560</v>
       </c>
       <c r="C106">
         <v>5880</v>
@@ -5484,7 +5519,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>498000</v>
+        <v>415060</v>
       </c>
       <c r="C107">
         <v>5988</v>
@@ -5528,7 +5563,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>507000</v>
+        <v>422560</v>
       </c>
       <c r="C108">
         <v>6096</v>
@@ -5572,7 +5607,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>516000</v>
+        <v>430060</v>
       </c>
       <c r="C109">
         <v>6204</v>
@@ -5616,7 +5651,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>525000</v>
+        <v>437560</v>
       </c>
       <c r="C110">
         <v>6312</v>
@@ -5660,7 +5695,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>534000</v>
+        <v>445060</v>
       </c>
       <c r="C111">
         <v>6420</v>
@@ -5704,7 +5739,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>543000</v>
+        <v>452560</v>
       </c>
       <c r="C112">
         <v>6528</v>
@@ -5748,7 +5783,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>552000</v>
+        <v>460060</v>
       </c>
       <c r="C113">
         <v>6636</v>
@@ -5792,7 +5827,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>561000</v>
+        <v>467560</v>
       </c>
       <c r="C114">
         <v>6744</v>
@@ -5836,7 +5871,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>570000</v>
+        <v>475060</v>
       </c>
       <c r="C115">
         <v>6852</v>
@@ -5880,7 +5915,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>579000</v>
+        <v>482560</v>
       </c>
       <c r="C116">
         <v>6960</v>
@@ -5924,7 +5959,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>588000</v>
+        <v>490060</v>
       </c>
       <c r="C117">
         <v>7068</v>
@@ -5968,7 +6003,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>597000</v>
+        <v>497560</v>
       </c>
       <c r="C118">
         <v>7176</v>
@@ -6012,7 +6047,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>606000</v>
+        <v>505060</v>
       </c>
       <c r="C119">
         <v>7284</v>
@@ -6056,7 +6091,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>615000</v>
+        <v>512560</v>
       </c>
       <c r="C120">
         <v>7392</v>
@@ -6100,7 +6135,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>624000</v>
+        <v>520060</v>
       </c>
       <c r="C121">
         <v>7500</v>
@@ -6144,7 +6179,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>634500</v>
+        <v>528810</v>
       </c>
       <c r="C122">
         <v>7626</v>
@@ -6188,7 +6223,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>645000</v>
+        <v>537560</v>
       </c>
       <c r="C123">
         <v>7752</v>
@@ -6232,7 +6267,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>655500</v>
+        <v>546310</v>
       </c>
       <c r="C124">
         <v>7878</v>
@@ -6276,7 +6311,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>666000</v>
+        <v>555060</v>
       </c>
       <c r="C125">
         <v>8004</v>
@@ -6320,7 +6355,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>676500</v>
+        <v>563810</v>
       </c>
       <c r="C126">
         <v>8130</v>
@@ -6364,7 +6399,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>687000</v>
+        <v>572560</v>
       </c>
       <c r="C127">
         <v>8256</v>
@@ -6408,7 +6443,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>697500</v>
+        <v>581310</v>
       </c>
       <c r="C128">
         <v>8382</v>
@@ -6452,7 +6487,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>708000</v>
+        <v>590060</v>
       </c>
       <c r="C129">
         <v>8508</v>
@@ -6496,7 +6531,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>718500</v>
+        <v>598810</v>
       </c>
       <c r="C130">
         <v>8634</v>
@@ -6540,7 +6575,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>729000</v>
+        <v>607560</v>
       </c>
       <c r="C131">
         <v>8760</v>
@@ -6584,7 +6619,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>739500</v>
+        <v>616310</v>
       </c>
       <c r="C132">
         <v>8886</v>
@@ -6628,7 +6663,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>750000</v>
+        <v>625060</v>
       </c>
       <c r="C133">
         <v>9012</v>
@@ -6672,7 +6707,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>760500</v>
+        <v>633810</v>
       </c>
       <c r="C134">
         <v>9138</v>
@@ -6716,7 +6751,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>771000</v>
+        <v>642560</v>
       </c>
       <c r="C135">
         <v>9264</v>
@@ -6760,7 +6795,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>781500</v>
+        <v>651310</v>
       </c>
       <c r="C136">
         <v>9390</v>
@@ -6804,7 +6839,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>792000</v>
+        <v>660060</v>
       </c>
       <c r="C137">
         <v>9516</v>
@@ -6848,7 +6883,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>802500</v>
+        <v>668810</v>
       </c>
       <c r="C138">
         <v>9642</v>
@@ -6892,7 +6927,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>813000</v>
+        <v>677560</v>
       </c>
       <c r="C139">
         <v>9768</v>
@@ -6936,7 +6971,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>823500</v>
+        <v>686310</v>
       </c>
       <c r="C140">
         <v>9894</v>
@@ -6980,7 +7015,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>834000</v>
+        <v>695060</v>
       </c>
       <c r="C141">
         <v>10020</v>
@@ -7024,7 +7059,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>846000</v>
+        <v>705061</v>
       </c>
       <c r="C142">
         <v>10164</v>
@@ -7068,7 +7103,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>858000</v>
+        <v>715062</v>
       </c>
       <c r="C143">
         <v>10308</v>
@@ -7112,7 +7147,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>870000</v>
+        <v>725063</v>
       </c>
       <c r="C144">
         <v>10452</v>
@@ -7156,7 +7191,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>882000</v>
+        <v>735064</v>
       </c>
       <c r="C145">
         <v>10596</v>
@@ -7200,7 +7235,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>894000</v>
+        <v>745065</v>
       </c>
       <c r="C146">
         <v>10740</v>
@@ -7244,7 +7279,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>906000</v>
+        <v>755066</v>
       </c>
       <c r="C147">
         <v>10884</v>
@@ -7288,7 +7323,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>918000</v>
+        <v>765067</v>
       </c>
       <c r="C148">
         <v>11028</v>
@@ -7332,7 +7367,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>930000</v>
+        <v>775068</v>
       </c>
       <c r="C149">
         <v>11172</v>
@@ -7376,7 +7411,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>942000</v>
+        <v>785069</v>
       </c>
       <c r="C150">
         <v>11316</v>
@@ -7420,7 +7455,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>954000</v>
+        <v>795070</v>
       </c>
       <c r="C151">
         <v>11460</v>
@@ -7464,7 +7499,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>966000</v>
+        <v>805071</v>
       </c>
       <c r="C152">
         <v>11604</v>
@@ -7508,7 +7543,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>978000</v>
+        <v>815072</v>
       </c>
       <c r="C153">
         <v>11748</v>
@@ -7552,7 +7587,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>990000</v>
+        <v>825073</v>
       </c>
       <c r="C154">
         <v>11892</v>
@@ -7596,7 +7631,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1002000</v>
+        <v>835074</v>
       </c>
       <c r="C155">
         <v>12036</v>
@@ -7640,7 +7675,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1014000</v>
+        <v>845075</v>
       </c>
       <c r="C156">
         <v>12180</v>
@@ -7684,7 +7719,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1026000</v>
+        <v>855076</v>
       </c>
       <c r="C157">
         <v>12324</v>
@@ -7728,7 +7763,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1038000</v>
+        <v>865077</v>
       </c>
       <c r="C158">
         <v>12468</v>
@@ -7772,7 +7807,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1050000</v>
+        <v>875078</v>
       </c>
       <c r="C159">
         <v>12612</v>
@@ -7816,7 +7851,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1062000</v>
+        <v>885079</v>
       </c>
       <c r="C160">
         <v>12756</v>
@@ -7860,7 +7895,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1074000</v>
+        <v>895080</v>
       </c>
       <c r="C161">
         <v>12900</v>
@@ -7904,7 +7939,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1087500</v>
+        <v>906330</v>
       </c>
       <c r="C162">
         <v>13062</v>
@@ -7948,7 +7983,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>1101000</v>
+        <v>917580</v>
       </c>
       <c r="C163">
         <v>13224</v>
@@ -7992,7 +8027,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1114500</v>
+        <v>928830</v>
       </c>
       <c r="C164">
         <v>13386</v>
@@ -8036,7 +8071,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1128000</v>
+        <v>940080</v>
       </c>
       <c r="C165">
         <v>13548</v>
@@ -8080,7 +8115,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1141500</v>
+        <v>951330</v>
       </c>
       <c r="C166">
         <v>13710</v>
@@ -8124,7 +8159,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1155000</v>
+        <v>962580</v>
       </c>
       <c r="C167">
         <v>13872</v>
@@ -8168,7 +8203,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1168500</v>
+        <v>973830</v>
       </c>
       <c r="C168">
         <v>14034</v>
@@ -8212,7 +8247,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1182000</v>
+        <v>985080</v>
       </c>
       <c r="C169">
         <v>14196</v>
@@ -8256,7 +8291,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1195500</v>
+        <v>996330</v>
       </c>
       <c r="C170">
         <v>14358</v>
@@ -8300,7 +8335,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1209000</v>
+        <v>1007580</v>
       </c>
       <c r="C171">
         <v>14520</v>
@@ -8344,7 +8379,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1222500</v>
+        <v>1018830</v>
       </c>
       <c r="C172">
         <v>14682</v>
@@ -8388,7 +8423,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1236000</v>
+        <v>1030080</v>
       </c>
       <c r="C173">
         <v>14844</v>
@@ -8432,7 +8467,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1249500</v>
+        <v>1041330</v>
       </c>
       <c r="C174">
         <v>15006</v>
@@ -8476,7 +8511,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1263000</v>
+        <v>1052580</v>
       </c>
       <c r="C175">
         <v>15168</v>
@@ -8520,7 +8555,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1276500</v>
+        <v>1063830</v>
       </c>
       <c r="C176">
         <v>15330</v>
@@ -8564,7 +8599,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1290000</v>
+        <v>1075080</v>
       </c>
       <c r="C177">
         <v>15492</v>
@@ -8608,7 +8643,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1303500</v>
+        <v>1086330</v>
       </c>
       <c r="C178">
         <v>15654</v>
@@ -8652,7 +8687,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1317000</v>
+        <v>1097580</v>
       </c>
       <c r="C179">
         <v>15816</v>
@@ -8696,7 +8731,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1330500</v>
+        <v>1108830</v>
       </c>
       <c r="C180">
         <v>15978</v>
@@ -8740,7 +8775,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1344000</v>
+        <v>1120080</v>
       </c>
       <c r="C181">
         <v>16140</v>
@@ -8784,7 +8819,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1359000</v>
+        <v>1132580</v>
       </c>
       <c r="C182">
         <v>16320</v>
@@ -8828,7 +8863,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1374000</v>
+        <v>1145080</v>
       </c>
       <c r="C183">
         <v>16500</v>
@@ -8872,7 +8907,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1389000</v>
+        <v>1157580</v>
       </c>
       <c r="C184">
         <v>16680</v>
@@ -8916,7 +8951,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1404000</v>
+        <v>1170080</v>
       </c>
       <c r="C185">
         <v>16860</v>
@@ -8960,7 +8995,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1419000</v>
+        <v>1182580</v>
       </c>
       <c r="C186">
         <v>17040</v>
@@ -9004,7 +9039,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1434000</v>
+        <v>1195080</v>
       </c>
       <c r="C187">
         <v>17220</v>
@@ -9048,7 +9083,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1449000</v>
+        <v>1207580</v>
       </c>
       <c r="C188">
         <v>17400</v>
@@ -9092,7 +9127,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1464000</v>
+        <v>1220080</v>
       </c>
       <c r="C189">
         <v>17580</v>
@@ -9136,7 +9171,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1479000</v>
+        <v>1232580</v>
       </c>
       <c r="C190">
         <v>17760</v>
@@ -9180,7 +9215,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1494000</v>
+        <v>1245080</v>
       </c>
       <c r="C191">
         <v>17940</v>
@@ -9224,7 +9259,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1509000</v>
+        <v>1257580</v>
       </c>
       <c r="C192">
         <v>18120</v>
@@ -9268,7 +9303,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1524000</v>
+        <v>1270080</v>
       </c>
       <c r="C193">
         <v>18300</v>
@@ -9312,7 +9347,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1539000</v>
+        <v>1282580</v>
       </c>
       <c r="C194">
         <v>18480</v>
@@ -9356,7 +9391,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1554000</v>
+        <v>1295080</v>
       </c>
       <c r="C195">
         <v>18660</v>
@@ -9400,7 +9435,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1569000</v>
+        <v>1307580</v>
       </c>
       <c r="C196">
         <v>18840</v>
@@ -9444,7 +9479,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1584000</v>
+        <v>1320080</v>
       </c>
       <c r="C197">
         <v>19020</v>
@@ -9488,7 +9523,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1599000</v>
+        <v>1332580</v>
       </c>
       <c r="C198">
         <v>19200</v>
@@ -9532,7 +9567,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1614000</v>
+        <v>1345080</v>
       </c>
       <c r="C199">
         <v>19380</v>
@@ -9576,7 +9611,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1629000</v>
+        <v>1357580</v>
       </c>
       <c r="C200">
         <v>19560</v>
@@ -9620,7 +9655,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1644000</v>
+        <v>1370080</v>
       </c>
       <c r="C201">
         <v>19740</v>
@@ -9664,7 +9699,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1660500</v>
+        <v>1383831</v>
       </c>
       <c r="C202">
         <v>19938</v>
@@ -9708,7 +9743,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1677000</v>
+        <v>1397582</v>
       </c>
       <c r="C203">
         <v>20136</v>
@@ -9752,7 +9787,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1693500</v>
+        <v>1411333</v>
       </c>
       <c r="C204">
         <v>20334</v>
@@ -9796,7 +9831,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1710000</v>
+        <v>1425084</v>
       </c>
       <c r="C205">
         <v>20532</v>
@@ -9840,7 +9875,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1726500</v>
+        <v>1438835</v>
       </c>
       <c r="C206">
         <v>20730</v>
@@ -9884,7 +9919,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1743000</v>
+        <v>1452586</v>
       </c>
       <c r="C207">
         <v>20928</v>
@@ -9928,7 +9963,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1759500</v>
+        <v>1466337</v>
       </c>
       <c r="C208">
         <v>21126</v>
@@ -9972,7 +10007,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1776000</v>
+        <v>1480088</v>
       </c>
       <c r="C209">
         <v>21324</v>
@@ -10016,7 +10051,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1792500</v>
+        <v>1493839</v>
       </c>
       <c r="C210">
         <v>21522</v>
@@ -10060,7 +10095,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1809000</v>
+        <v>1507590</v>
       </c>
       <c r="C211">
         <v>21720</v>
@@ -10104,7 +10139,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1825500</v>
+        <v>1521341</v>
       </c>
       <c r="C212">
         <v>21918</v>
@@ -10148,7 +10183,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1842000</v>
+        <v>1535092</v>
       </c>
       <c r="C213">
         <v>22116</v>
@@ -10192,7 +10227,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1858500</v>
+        <v>1548843</v>
       </c>
       <c r="C214">
         <v>22314</v>
@@ -10236,7 +10271,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1875000</v>
+        <v>1562594</v>
       </c>
       <c r="C215">
         <v>22512</v>
@@ -10280,7 +10315,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>1891500</v>
+        <v>1576345</v>
       </c>
       <c r="C216">
         <v>22710</v>
@@ -10324,7 +10359,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1908000</v>
+        <v>1590096</v>
       </c>
       <c r="C217">
         <v>22908</v>
@@ -10368,7 +10403,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1924500</v>
+        <v>1603847</v>
       </c>
       <c r="C218">
         <v>23106</v>
@@ -10412,7 +10447,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1941000</v>
+        <v>1617598</v>
       </c>
       <c r="C219">
         <v>23304</v>
@@ -10456,7 +10491,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1957500</v>
+        <v>1631349</v>
       </c>
       <c r="C220">
         <v>23502</v>
@@ -10500,7 +10535,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1974000</v>
+        <v>1645100</v>
       </c>
       <c r="C221">
         <v>23700</v>
@@ -10544,7 +10579,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1992000</v>
+        <v>1660100</v>
       </c>
       <c r="C222">
         <v>23916</v>
@@ -10588,7 +10623,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>2010000</v>
+        <v>1675100</v>
       </c>
       <c r="C223">
         <v>24132</v>
@@ -10632,7 +10667,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>2028000</v>
+        <v>1690100</v>
       </c>
       <c r="C224">
         <v>24348</v>
@@ -10676,7 +10711,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>2046000</v>
+        <v>1705100</v>
       </c>
       <c r="C225">
         <v>24564</v>
@@ -10720,7 +10755,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>2064000</v>
+        <v>1720100</v>
       </c>
       <c r="C226">
         <v>24780</v>
@@ -10764,7 +10799,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>2082000</v>
+        <v>1735100</v>
       </c>
       <c r="C227">
         <v>24996</v>
@@ -10808,7 +10843,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>2100000</v>
+        <v>1750100</v>
       </c>
       <c r="C228">
         <v>25212</v>
@@ -10852,7 +10887,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>2118000</v>
+        <v>1765100</v>
       </c>
       <c r="C229">
         <v>25428</v>
@@ -10896,7 +10931,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>2136000</v>
+        <v>1780100</v>
       </c>
       <c r="C230">
         <v>25644</v>
@@ -10940,7 +10975,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>2154000</v>
+        <v>1795100</v>
       </c>
       <c r="C231">
         <v>25860</v>
@@ -10984,7 +11019,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>2172000</v>
+        <v>1810100</v>
       </c>
       <c r="C232">
         <v>26076</v>
@@ -11028,7 +11063,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>2190000</v>
+        <v>1825100</v>
       </c>
       <c r="C233">
         <v>26292</v>
@@ -11072,7 +11107,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>2208000</v>
+        <v>1840100</v>
       </c>
       <c r="C234">
         <v>26508</v>
@@ -11116,7 +11151,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>2226000</v>
+        <v>1855100</v>
       </c>
       <c r="C235">
         <v>26724</v>
@@ -11160,7 +11195,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>2244000</v>
+        <v>1870100</v>
       </c>
       <c r="C236">
         <v>26940</v>
@@ -11204,7 +11239,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>2262000</v>
+        <v>1885100</v>
       </c>
       <c r="C237">
         <v>27156</v>
@@ -11248,7 +11283,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>2280000</v>
+        <v>1900100</v>
       </c>
       <c r="C238">
         <v>27372</v>
@@ -11292,7 +11327,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>2298000</v>
+        <v>1915100</v>
       </c>
       <c r="C239">
         <v>27588</v>
@@ -11336,7 +11371,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>2316000</v>
+        <v>1930100</v>
       </c>
       <c r="C240">
         <v>27804</v>
@@ -11380,7 +11415,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>2334000</v>
+        <v>1945100</v>
       </c>
       <c r="C241">
         <v>28020</v>
@@ -11424,7 +11459,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>2353500</v>
+        <v>1961350</v>
       </c>
       <c r="C242">
         <v>28254</v>
@@ -11468,7 +11503,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>2373000</v>
+        <v>1977600</v>
       </c>
       <c r="C243">
         <v>28488</v>
@@ -11512,7 +11547,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>2392500</v>
+        <v>1993850</v>
       </c>
       <c r="C244">
         <v>28722</v>
@@ -11556,7 +11591,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>2412000</v>
+        <v>2010100</v>
       </c>
       <c r="C245">
         <v>28956</v>
@@ -11600,7 +11635,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>2431500</v>
+        <v>2026350</v>
       </c>
       <c r="C246">
         <v>29190</v>
@@ -11644,7 +11679,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>2451000</v>
+        <v>2042600</v>
       </c>
       <c r="C247">
         <v>29424</v>
@@ -11688,7 +11723,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>2470500</v>
+        <v>2058850</v>
       </c>
       <c r="C248">
         <v>29658</v>
@@ -11732,7 +11767,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>2490000</v>
+        <v>2075100</v>
       </c>
       <c r="C249">
         <v>29892</v>
@@ -11776,7 +11811,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>2509500</v>
+        <v>2091350</v>
       </c>
       <c r="C250">
         <v>30126</v>
@@ -11820,7 +11855,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>2529000</v>
+        <v>2107600</v>
       </c>
       <c r="C251">
         <v>30360</v>
@@ -11864,7 +11899,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>2548500</v>
+        <v>2123850</v>
       </c>
       <c r="C252">
         <v>30594</v>
@@ -11908,7 +11943,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>2568000</v>
+        <v>2140100</v>
       </c>
       <c r="C253">
         <v>30828</v>
@@ -11952,7 +11987,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>2587500</v>
+        <v>2156350</v>
       </c>
       <c r="C254">
         <v>31062</v>
@@ -11996,7 +12031,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>2607000</v>
+        <v>2172600</v>
       </c>
       <c r="C255">
         <v>31296</v>
@@ -12040,7 +12075,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>2626500</v>
+        <v>2188850</v>
       </c>
       <c r="C256">
         <v>31530</v>
@@ -12084,7 +12119,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>2646000</v>
+        <v>2205100</v>
       </c>
       <c r="C257">
         <v>31764</v>
@@ -12128,7 +12163,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>2665500</v>
+        <v>2221350</v>
       </c>
       <c r="C258">
         <v>31998</v>
@@ -12172,7 +12207,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>2685000</v>
+        <v>2237600</v>
       </c>
       <c r="C259">
         <v>32232</v>
@@ -12216,7 +12251,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>2704500</v>
+        <v>2253850</v>
       </c>
       <c r="C260">
         <v>32466</v>
@@ -12260,7 +12295,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2724000</v>
+        <v>2270100</v>
       </c>
       <c r="C261">
         <v>32700</v>
@@ -12304,7 +12339,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>2745000</v>
+        <v>2287601</v>
       </c>
       <c r="C262">
         <v>32952</v>
@@ -12348,7 +12383,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>2766000</v>
+        <v>2305102</v>
       </c>
       <c r="C263">
         <v>33204</v>
@@ -12392,7 +12427,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>2787000</v>
+        <v>2322603</v>
       </c>
       <c r="C264">
         <v>33456</v>
@@ -12436,7 +12471,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>2808000</v>
+        <v>2340104</v>
       </c>
       <c r="C265">
         <v>33708</v>
@@ -12480,7 +12515,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>2829000</v>
+        <v>2357605</v>
       </c>
       <c r="C266">
         <v>33960</v>
@@ -12524,7 +12559,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>2850000</v>
+        <v>2375106</v>
       </c>
       <c r="C267">
         <v>34212</v>
@@ -12568,7 +12603,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>2871000</v>
+        <v>2392607</v>
       </c>
       <c r="C268">
         <v>34464</v>
@@ -12612,7 +12647,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>2892000</v>
+        <v>2410108</v>
       </c>
       <c r="C269">
         <v>34716</v>
@@ -12656,7 +12691,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>2913000</v>
+        <v>2427609</v>
       </c>
       <c r="C270">
         <v>34968</v>
@@ -12700,7 +12735,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>2934000</v>
+        <v>2445110</v>
       </c>
       <c r="C271">
         <v>35220</v>
@@ -12744,7 +12779,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>2955000</v>
+        <v>2462611</v>
       </c>
       <c r="C272">
         <v>35472</v>
@@ -12788,7 +12823,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>2976000</v>
+        <v>2480112</v>
       </c>
       <c r="C273">
         <v>35724</v>
@@ -12832,7 +12867,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>2997000</v>
+        <v>2497613</v>
       </c>
       <c r="C274">
         <v>35976</v>
@@ -12876,7 +12911,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>3018000</v>
+        <v>2515114</v>
       </c>
       <c r="C275">
         <v>36228</v>
@@ -12920,7 +12955,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>3039000</v>
+        <v>2532615</v>
       </c>
       <c r="C276">
         <v>36480</v>
@@ -12964,7 +12999,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>3060000</v>
+        <v>2550116</v>
       </c>
       <c r="C277">
         <v>36732</v>
@@ -13008,7 +13043,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>3081000</v>
+        <v>2567617</v>
       </c>
       <c r="C278">
         <v>36984</v>
@@ -13052,7 +13087,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>3102000</v>
+        <v>2585118</v>
       </c>
       <c r="C279">
         <v>37236</v>
@@ -13096,7 +13131,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>3123000</v>
+        <v>2602619</v>
       </c>
       <c r="C280">
         <v>37488</v>
@@ -13140,7 +13175,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>3144000</v>
+        <v>2620120</v>
       </c>
       <c r="C281">
         <v>37740</v>
@@ -13184,7 +13219,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>3166500</v>
+        <v>2638870</v>
       </c>
       <c r="C282">
         <v>38010</v>
@@ -13228,7 +13263,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>3189000</v>
+        <v>2657620</v>
       </c>
       <c r="C283">
         <v>38280</v>
@@ -13272,7 +13307,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>3211500</v>
+        <v>2676370</v>
       </c>
       <c r="C284">
         <v>38550</v>
@@ -13316,7 +13351,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>3234000</v>
+        <v>2695120</v>
       </c>
       <c r="C285">
         <v>38820</v>
@@ -13360,7 +13395,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>3256500</v>
+        <v>2713870</v>
       </c>
       <c r="C286">
         <v>39090</v>
@@ -13404,7 +13439,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>3279000</v>
+        <v>2732620</v>
       </c>
       <c r="C287">
         <v>39360</v>
@@ -13448,7 +13483,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>3301500</v>
+        <v>2751370</v>
       </c>
       <c r="C288">
         <v>39630</v>
@@ -13492,7 +13527,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>3324000</v>
+        <v>2770120</v>
       </c>
       <c r="C289">
         <v>39900</v>
@@ -13536,7 +13571,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>3346500</v>
+        <v>2788870</v>
       </c>
       <c r="C290">
         <v>40170</v>
@@ -13580,7 +13615,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>3369000</v>
+        <v>2807620</v>
       </c>
       <c r="C291">
         <v>40440</v>
@@ -13624,7 +13659,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>3391500</v>
+        <v>2826370</v>
       </c>
       <c r="C292">
         <v>40710</v>
@@ -13668,7 +13703,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>3414000</v>
+        <v>2845120</v>
       </c>
       <c r="C293">
         <v>40980</v>
@@ -13712,7 +13747,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>3436500</v>
+        <v>2863870</v>
       </c>
       <c r="C294">
         <v>41250</v>
@@ -13756,7 +13791,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>3459000</v>
+        <v>2882620</v>
       </c>
       <c r="C295">
         <v>41520</v>
@@ -13800,7 +13835,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>3481500</v>
+        <v>2901370</v>
       </c>
       <c r="C296">
         <v>41790</v>
@@ -13844,7 +13879,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>3504000</v>
+        <v>2920120</v>
       </c>
       <c r="C297">
         <v>42060</v>
@@ -13888,7 +13923,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>3526500</v>
+        <v>2938870</v>
       </c>
       <c r="C298">
         <v>42330</v>
@@ -13932,7 +13967,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>3549000</v>
+        <v>2957620</v>
       </c>
       <c r="C299">
         <v>42600</v>
@@ -13976,7 +14011,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>3571500</v>
+        <v>2976370</v>
       </c>
       <c r="C300">
         <v>42870</v>
@@ -14020,7 +14055,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>3594000</v>
+        <v>2995120</v>
       </c>
       <c r="C301">
         <v>43140</v>
@@ -14064,7 +14099,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>3618000</v>
+        <v>3015120</v>
       </c>
       <c r="C302">
         <v>43428</v>
@@ -14108,7 +14143,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>3642000</v>
+        <v>3035120</v>
       </c>
       <c r="C303">
         <v>43716</v>
@@ -14152,7 +14187,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>3666000</v>
+        <v>3055120</v>
       </c>
       <c r="C304">
         <v>44004</v>
@@ -14196,7 +14231,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>3690000</v>
+        <v>3075120</v>
       </c>
       <c r="C305">
         <v>44292</v>
@@ -14240,7 +14275,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>3714000</v>
+        <v>3095120</v>
       </c>
       <c r="C306">
         <v>44580</v>
@@ -14284,7 +14319,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>3738000</v>
+        <v>3115120</v>
       </c>
       <c r="C307">
         <v>44868</v>
@@ -14328,7 +14363,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>3762000</v>
+        <v>3135120</v>
       </c>
       <c r="C308">
         <v>45156</v>
@@ -14372,7 +14407,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>3786000</v>
+        <v>3155120</v>
       </c>
       <c r="C309">
         <v>45444</v>
@@ -14416,7 +14451,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>3810000</v>
+        <v>3175120</v>
       </c>
       <c r="C310">
         <v>45732</v>
@@ -14460,7 +14495,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>3834000</v>
+        <v>3195120</v>
       </c>
       <c r="C311">
         <v>46020</v>
@@ -14504,7 +14539,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>3858000</v>
+        <v>3215120</v>
       </c>
       <c r="C312">
         <v>46308</v>
@@ -14548,7 +14583,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>3882000</v>
+        <v>3235120</v>
       </c>
       <c r="C313">
         <v>46596</v>
@@ -14592,7 +14627,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>3906000</v>
+        <v>3255120</v>
       </c>
       <c r="C314">
         <v>46884</v>
@@ -14636,7 +14671,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>3930000</v>
+        <v>3275120</v>
       </c>
       <c r="C315">
         <v>47172</v>
@@ -14680,7 +14715,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>3954000</v>
+        <v>3295120</v>
       </c>
       <c r="C316">
         <v>47460</v>
@@ -14724,7 +14759,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>3978000</v>
+        <v>3315120</v>
       </c>
       <c r="C317">
         <v>47748</v>
@@ -14768,7 +14803,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>4002000</v>
+        <v>3335120</v>
       </c>
       <c r="C318">
         <v>48036</v>
@@ -14812,7 +14847,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>4026000</v>
+        <v>3355120</v>
       </c>
       <c r="C319">
         <v>48324</v>
@@ -14856,7 +14891,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>4050000</v>
+        <v>3375120</v>
       </c>
       <c r="C320">
         <v>48612</v>
@@ -14900,7 +14935,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>4074000</v>
+        <v>3395120</v>
       </c>
       <c r="C321">
         <v>48900</v>
@@ -14944,7 +14979,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>4099500</v>
+        <v>3416371</v>
       </c>
       <c r="C322">
         <v>49206</v>
@@ -14988,7 +15023,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>4125000</v>
+        <v>3437622</v>
       </c>
       <c r="C323">
         <v>49512</v>
@@ -15032,7 +15067,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>4150500</v>
+        <v>3458873</v>
       </c>
       <c r="C324">
         <v>49818</v>
@@ -15076,7 +15111,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>4176000</v>
+        <v>3480124</v>
       </c>
       <c r="C325">
         <v>50124</v>
@@ -15120,7 +15155,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>4201500</v>
+        <v>3501375</v>
       </c>
       <c r="C326">
         <v>50430</v>
@@ -15164,7 +15199,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>4227000</v>
+        <v>3522626</v>
       </c>
       <c r="C327">
         <v>50736</v>
@@ -15208,7 +15243,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>4252500</v>
+        <v>3543877</v>
       </c>
       <c r="C328">
         <v>51042</v>
@@ -15252,7 +15287,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>4278000</v>
+        <v>3565128</v>
       </c>
       <c r="C329">
         <v>51348</v>
@@ -15296,7 +15331,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>4303500</v>
+        <v>3586379</v>
       </c>
       <c r="C330">
         <v>51654</v>
@@ -15340,7 +15375,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>4329000</v>
+        <v>3607630</v>
       </c>
       <c r="C331">
         <v>51960</v>
@@ -15384,7 +15419,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>4354500</v>
+        <v>3628881</v>
       </c>
       <c r="C332">
         <v>52266</v>
@@ -15428,7 +15463,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>4380000</v>
+        <v>3650132</v>
       </c>
       <c r="C333">
         <v>52572</v>
@@ -15472,7 +15507,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>4405500</v>
+        <v>3671383</v>
       </c>
       <c r="C334">
         <v>52878</v>
@@ -15516,7 +15551,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>4431000</v>
+        <v>3692634</v>
       </c>
       <c r="C335">
         <v>53184</v>
@@ -15560,7 +15595,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>4456500</v>
+        <v>3713885</v>
       </c>
       <c r="C336">
         <v>53490</v>
@@ -15604,7 +15639,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>4482000</v>
+        <v>3735136</v>
       </c>
       <c r="C337">
         <v>53796</v>
@@ -15648,7 +15683,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>4507500</v>
+        <v>3756387</v>
       </c>
       <c r="C338">
         <v>54102</v>
@@ -15692,7 +15727,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>4533000</v>
+        <v>3777638</v>
       </c>
       <c r="C339">
         <v>54408</v>
@@ -15736,7 +15771,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>4558500</v>
+        <v>3798889</v>
       </c>
       <c r="C340">
         <v>54714</v>
@@ -15780,7 +15815,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>4584000</v>
+        <v>3820140</v>
       </c>
       <c r="C341">
         <v>55020</v>
@@ -15824,7 +15859,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>4611000</v>
+        <v>3842640</v>
       </c>
       <c r="C342">
         <v>55344</v>
@@ -15868,7 +15903,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>4638000</v>
+        <v>3865140</v>
       </c>
       <c r="C343">
         <v>55668</v>
@@ -15912,7 +15947,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>4665000</v>
+        <v>3887640</v>
       </c>
       <c r="C344">
         <v>55992</v>
@@ -15956,7 +15991,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>4692000</v>
+        <v>3910140</v>
       </c>
       <c r="C345">
         <v>56316</v>
@@ -16000,7 +16035,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>4719000</v>
+        <v>3932640</v>
       </c>
       <c r="C346">
         <v>56640</v>
@@ -16044,7 +16079,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>4746000</v>
+        <v>3955140</v>
       </c>
       <c r="C347">
         <v>56964</v>
@@ -16088,7 +16123,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>4773000</v>
+        <v>3977640</v>
       </c>
       <c r="C348">
         <v>57288</v>
@@ -16132,7 +16167,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>4800000</v>
+        <v>4000140</v>
       </c>
       <c r="C349">
         <v>57612</v>
@@ -16176,7 +16211,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>4827000</v>
+        <v>4022640</v>
       </c>
       <c r="C350">
         <v>57936</v>
@@ -16220,7 +16255,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>4854000</v>
+        <v>4045140</v>
       </c>
       <c r="C351">
         <v>58260</v>
@@ -16264,7 +16299,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>4881000</v>
+        <v>4067640</v>
       </c>
       <c r="C352">
         <v>58584</v>
@@ -16308,7 +16343,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>4908000</v>
+        <v>4090140</v>
       </c>
       <c r="C353">
         <v>58908</v>
@@ -16352,7 +16387,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>4935000</v>
+        <v>4112640</v>
       </c>
       <c r="C354">
         <v>59232</v>
@@ -16396,7 +16431,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>4962000</v>
+        <v>4135140</v>
       </c>
       <c r="C355">
         <v>59556</v>
@@ -16440,7 +16475,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>4989000</v>
+        <v>4157640</v>
       </c>
       <c r="C356">
         <v>59880</v>
@@ -16484,7 +16519,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>5016000</v>
+        <v>4180140</v>
       </c>
       <c r="C357">
         <v>60204</v>
@@ -16528,7 +16563,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>5043000</v>
+        <v>4202640</v>
       </c>
       <c r="C358">
         <v>60528</v>
@@ -16572,7 +16607,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>5070000</v>
+        <v>4225140</v>
       </c>
       <c r="C359">
         <v>60852</v>
@@ -16616,7 +16651,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>5097000</v>
+        <v>4247640</v>
       </c>
       <c r="C360">
         <v>61176</v>
@@ -16660,7 +16695,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>5124000</v>
+        <v>4270140</v>
       </c>
       <c r="C361">
         <v>61500</v>
@@ -16704,7 +16739,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>5152500</v>
+        <v>4293890</v>
       </c>
       <c r="C362">
         <v>61842</v>
@@ -16748,7 +16783,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>5181000</v>
+        <v>4317640</v>
       </c>
       <c r="C363">
         <v>62184</v>
@@ -16792,7 +16827,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>5209500</v>
+        <v>4341390</v>
       </c>
       <c r="C364">
         <v>62526</v>
@@ -16836,7 +16871,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>5238000</v>
+        <v>4365140</v>
       </c>
       <c r="C365">
         <v>62868</v>
@@ -16880,7 +16915,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>5266500</v>
+        <v>4388890</v>
       </c>
       <c r="C366">
         <v>63210</v>
@@ -16924,7 +16959,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>5295000</v>
+        <v>4412640</v>
       </c>
       <c r="C367">
         <v>63552</v>
@@ -16968,7 +17003,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>5323500</v>
+        <v>4436390</v>
       </c>
       <c r="C368">
         <v>63894</v>
@@ -17012,7 +17047,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>5352000</v>
+        <v>4460140</v>
       </c>
       <c r="C369">
         <v>64236</v>
@@ -17056,7 +17091,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>5380500</v>
+        <v>4483890</v>
       </c>
       <c r="C370">
         <v>64578</v>
@@ -17100,7 +17135,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>5409000</v>
+        <v>4507640</v>
       </c>
       <c r="C371">
         <v>64920</v>
@@ -17144,7 +17179,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>5437500</v>
+        <v>4531390</v>
       </c>
       <c r="C372">
         <v>65262</v>
@@ -17188,7 +17223,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>5466000</v>
+        <v>4555140</v>
       </c>
       <c r="C373">
         <v>65604</v>
@@ -17232,7 +17267,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>5494500</v>
+        <v>4578890</v>
       </c>
       <c r="C374">
         <v>65946</v>
@@ -17276,7 +17311,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>5523000</v>
+        <v>4602640</v>
       </c>
       <c r="C375">
         <v>66288</v>
@@ -17320,7 +17355,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>5551500</v>
+        <v>4626390</v>
       </c>
       <c r="C376">
         <v>66630</v>
@@ -17364,7 +17399,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>5580000</v>
+        <v>4650140</v>
       </c>
       <c r="C377">
         <v>66972</v>
@@ -17408,7 +17443,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>5608500</v>
+        <v>4673890</v>
       </c>
       <c r="C378">
         <v>67314</v>
@@ -17452,7 +17487,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>5637000</v>
+        <v>4697640</v>
       </c>
       <c r="C379">
         <v>67656</v>
@@ -17496,7 +17531,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>5665500</v>
+        <v>4721390</v>
       </c>
       <c r="C380">
         <v>67998</v>
@@ -17540,7 +17575,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>5694000</v>
+        <v>4745140</v>
       </c>
       <c r="C381">
         <v>68340</v>
@@ -17584,7 +17619,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>5724000</v>
+        <v>4770141</v>
       </c>
       <c r="C382">
         <v>68700</v>
@@ -17628,7 +17663,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>5754000</v>
+        <v>4795142</v>
       </c>
       <c r="C383">
         <v>69060</v>
@@ -17672,7 +17707,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>5784000</v>
+        <v>4820143</v>
       </c>
       <c r="C384">
         <v>69420</v>
@@ -17716,7 +17751,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>5814000</v>
+        <v>4845144</v>
       </c>
       <c r="C385">
         <v>69780</v>
@@ -17760,7 +17795,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>5844000</v>
+        <v>4870145</v>
       </c>
       <c r="C386">
         <v>70140</v>
@@ -17804,7 +17839,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>5874000</v>
+        <v>4895146</v>
       </c>
       <c r="C387">
         <v>70500</v>
@@ -17848,7 +17883,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>5904000</v>
+        <v>4920147</v>
       </c>
       <c r="C388">
         <v>70860</v>
@@ -17892,7 +17927,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>5934000</v>
+        <v>4945148</v>
       </c>
       <c r="C389">
         <v>71220</v>
@@ -17936,7 +17971,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>5964000</v>
+        <v>4970149</v>
       </c>
       <c r="C390">
         <v>71580</v>
@@ -17980,7 +18015,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>5994000</v>
+        <v>4995150</v>
       </c>
       <c r="C391">
         <v>71940</v>
@@ -18024,7 +18059,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>6024000</v>
+        <v>5020151</v>
       </c>
       <c r="C392">
         <v>72300</v>
@@ -18068,7 +18103,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>6054000</v>
+        <v>5045152</v>
       </c>
       <c r="C393">
         <v>72660</v>
@@ -18112,7 +18147,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>6084000</v>
+        <v>5070153</v>
       </c>
       <c r="C394">
         <v>73020</v>
@@ -18156,7 +18191,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>6114000</v>
+        <v>5095154</v>
       </c>
       <c r="C395">
         <v>73380</v>
@@ -18200,7 +18235,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>6144000</v>
+        <v>5120155</v>
       </c>
       <c r="C396">
         <v>73740</v>
@@ -18244,7 +18279,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>6174000</v>
+        <v>5145156</v>
       </c>
       <c r="C397">
         <v>74100</v>
@@ -18288,7 +18323,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>6204000</v>
+        <v>5170157</v>
       </c>
       <c r="C398">
         <v>74460</v>
@@ -18332,7 +18367,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>6234000</v>
+        <v>5195158</v>
       </c>
       <c r="C399">
         <v>74820</v>
@@ -18376,7 +18411,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>6264000</v>
+        <v>5220159</v>
       </c>
       <c r="C400">
         <v>75180</v>
@@ -18420,7 +18455,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>6294000</v>
+        <v>5245160</v>
       </c>
       <c r="C401">
         <v>75540</v>
@@ -18464,7 +18499,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>6325500</v>
+        <v>5271410</v>
       </c>
       <c r="C402">
         <v>75918</v>
@@ -18508,7 +18543,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>6357000</v>
+        <v>5297660</v>
       </c>
       <c r="C403">
         <v>76296</v>
@@ -18552,7 +18587,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>6388500</v>
+        <v>5323910</v>
       </c>
       <c r="C404">
         <v>76674</v>
@@ -18596,7 +18631,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>6420000</v>
+        <v>5350160</v>
       </c>
       <c r="C405">
         <v>77052</v>
@@ -18640,7 +18675,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>6451500</v>
+        <v>5376410</v>
       </c>
       <c r="C406">
         <v>77430</v>
@@ -18684,7 +18719,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>6483000</v>
+        <v>5402660</v>
       </c>
       <c r="C407">
         <v>77808</v>
@@ -18728,7 +18763,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>6514500</v>
+        <v>5428910</v>
       </c>
       <c r="C408">
         <v>78186</v>
@@ -18772,7 +18807,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>6546000</v>
+        <v>5455160</v>
       </c>
       <c r="C409">
         <v>78564</v>
@@ -18816,7 +18851,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>6577500</v>
+        <v>5481410</v>
       </c>
       <c r="C410">
         <v>78942</v>
@@ -18860,7 +18895,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>6609000</v>
+        <v>5507660</v>
       </c>
       <c r="C411">
         <v>79320</v>
@@ -18904,7 +18939,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>6640500</v>
+        <v>5533910</v>
       </c>
       <c r="C412">
         <v>79698</v>
@@ -18948,7 +18983,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>6672000</v>
+        <v>5560160</v>
       </c>
       <c r="C413">
         <v>80076</v>
@@ -18992,7 +19027,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>6703500</v>
+        <v>5586410</v>
       </c>
       <c r="C414">
         <v>80454</v>
@@ -19036,7 +19071,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>6735000</v>
+        <v>5612660</v>
       </c>
       <c r="C415">
         <v>80832</v>
@@ -19080,7 +19115,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>6766500</v>
+        <v>5638910</v>
       </c>
       <c r="C416">
         <v>81210</v>
@@ -19124,7 +19159,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>6798000</v>
+        <v>5665160</v>
       </c>
       <c r="C417">
         <v>81588</v>
@@ -19168,7 +19203,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>6829500</v>
+        <v>5691410</v>
       </c>
       <c r="C418">
         <v>81966</v>
@@ -19212,7 +19247,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>6861000</v>
+        <v>5717660</v>
       </c>
       <c r="C419">
         <v>82344</v>
@@ -19256,7 +19291,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>6892500</v>
+        <v>5743910</v>
       </c>
       <c r="C420">
         <v>82722</v>
@@ -19300,7 +19335,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>6924000</v>
+        <v>5770160</v>
       </c>
       <c r="C421">
         <v>83100</v>
@@ -19344,7 +19379,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>6957000</v>
+        <v>5797660</v>
       </c>
       <c r="C422">
         <v>83496</v>
@@ -19388,7 +19423,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>6990000</v>
+        <v>5825160</v>
       </c>
       <c r="C423">
         <v>83892</v>
@@ -19432,7 +19467,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>7023000</v>
+        <v>5852660</v>
       </c>
       <c r="C424">
         <v>84288</v>
@@ -19476,7 +19511,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>7056000</v>
+        <v>5880160</v>
       </c>
       <c r="C425">
         <v>84684</v>
@@ -19520,7 +19555,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>7089000</v>
+        <v>5907660</v>
       </c>
       <c r="C426">
         <v>85080</v>
@@ -19564,7 +19599,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>7122000</v>
+        <v>5935160</v>
       </c>
       <c r="C427">
         <v>85476</v>
@@ -19608,7 +19643,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>7155000</v>
+        <v>5962660</v>
       </c>
       <c r="C428">
         <v>85872</v>
@@ -19652,7 +19687,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>7188000</v>
+        <v>5990160</v>
       </c>
       <c r="C429">
         <v>86268</v>
@@ -19696,7 +19731,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>7221000</v>
+        <v>6017660</v>
       </c>
       <c r="C430">
         <v>86664</v>
@@ -19740,7 +19775,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>7254000</v>
+        <v>6045160</v>
       </c>
       <c r="C431">
         <v>87060</v>
@@ -19784,7 +19819,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>7287000</v>
+        <v>6072660</v>
       </c>
       <c r="C432">
         <v>87456</v>
@@ -19828,7 +19863,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>7320000</v>
+        <v>6100160</v>
       </c>
       <c r="C433">
         <v>87852</v>
@@ -19872,7 +19907,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>7353000</v>
+        <v>6127660</v>
       </c>
       <c r="C434">
         <v>88248</v>
@@ -19916,7 +19951,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>7386000</v>
+        <v>6155160</v>
       </c>
       <c r="C435">
         <v>88644</v>
@@ -19960,7 +19995,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>7419000</v>
+        <v>6182660</v>
       </c>
       <c r="C436">
         <v>89040</v>
@@ -20004,7 +20039,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>7452000</v>
+        <v>6210160</v>
       </c>
       <c r="C437">
         <v>89436</v>
@@ -20048,7 +20083,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>7485000</v>
+        <v>6237660</v>
       </c>
       <c r="C438">
         <v>89832</v>
@@ -20092,7 +20127,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>7518000</v>
+        <v>6265160</v>
       </c>
       <c r="C439">
         <v>90228</v>
@@ -20136,7 +20171,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>7551000</v>
+        <v>6292660</v>
       </c>
       <c r="C440">
         <v>90624</v>
@@ -20180,7 +20215,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>7584000</v>
+        <v>6320160</v>
       </c>
       <c r="C441">
         <v>91020</v>
@@ -20224,7 +20259,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>7618500</v>
+        <v>6348911</v>
       </c>
       <c r="C442">
         <v>91434</v>
@@ -20268,7 +20303,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>7653000</v>
+        <v>6377662</v>
       </c>
       <c r="C443">
         <v>91848</v>
@@ -20312,7 +20347,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>7687500</v>
+        <v>6406413</v>
       </c>
       <c r="C444">
         <v>92262</v>
@@ -20356,7 +20391,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>7722000</v>
+        <v>6435164</v>
       </c>
       <c r="C445">
         <v>92676</v>
@@ -20400,7 +20435,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>7756500</v>
+        <v>6463915</v>
       </c>
       <c r="C446">
         <v>93090</v>
@@ -20444,7 +20479,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>7791000</v>
+        <v>6492666</v>
       </c>
       <c r="C447">
         <v>93504</v>
@@ -20488,7 +20523,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>7825500</v>
+        <v>6521417</v>
       </c>
       <c r="C448">
         <v>93918</v>
@@ -20532,7 +20567,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>7860000</v>
+        <v>6550168</v>
       </c>
       <c r="C449">
         <v>94332</v>
@@ -20576,7 +20611,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>7894500</v>
+        <v>6578919</v>
       </c>
       <c r="C450">
         <v>94746</v>
@@ -20620,7 +20655,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>7929000</v>
+        <v>6607670</v>
       </c>
       <c r="C451">
         <v>95160</v>
@@ -20664,7 +20699,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>7963500</v>
+        <v>6636421</v>
       </c>
       <c r="C452">
         <v>95574</v>
@@ -20708,7 +20743,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>7998000</v>
+        <v>6665172</v>
       </c>
       <c r="C453">
         <v>95988</v>
@@ -20752,7 +20787,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>8032500</v>
+        <v>6693923</v>
       </c>
       <c r="C454">
         <v>96402</v>
@@ -20796,7 +20831,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>8067000</v>
+        <v>6722674</v>
       </c>
       <c r="C455">
         <v>96816</v>
@@ -20840,7 +20875,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>8101500</v>
+        <v>6751425</v>
       </c>
       <c r="C456">
         <v>97230</v>
@@ -20884,7 +20919,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>8136000</v>
+        <v>6780176</v>
       </c>
       <c r="C457">
         <v>97644</v>
@@ -20928,7 +20963,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>8170500</v>
+        <v>6808927</v>
       </c>
       <c r="C458">
         <v>98058</v>
@@ -20972,7 +21007,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>8205000</v>
+        <v>6837678</v>
       </c>
       <c r="C459">
         <v>98472</v>
@@ -21016,7 +21051,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>8239500</v>
+        <v>6866429</v>
       </c>
       <c r="C460">
         <v>98886</v>
@@ -21060,7 +21095,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>8274000</v>
+        <v>6895180</v>
       </c>
       <c r="C461">
         <v>99300</v>
@@ -21104,7 +21139,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>8310000</v>
+        <v>6925180</v>
       </c>
       <c r="C462">
         <v>99732</v>
@@ -21148,7 +21183,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>8346000</v>
+        <v>6955180</v>
       </c>
       <c r="C463">
         <v>100164</v>
@@ -21192,7 +21227,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>8382000</v>
+        <v>6985180</v>
       </c>
       <c r="C464">
         <v>100596</v>
@@ -21236,7 +21271,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>8418000</v>
+        <v>7015180</v>
       </c>
       <c r="C465">
         <v>101028</v>
@@ -21280,7 +21315,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>8454000</v>
+        <v>7045180</v>
       </c>
       <c r="C466">
         <v>101460</v>
@@ -21324,7 +21359,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>8490000</v>
+        <v>7075180</v>
       </c>
       <c r="C467">
         <v>101892</v>
@@ -21368,7 +21403,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>8526000</v>
+        <v>7105180</v>
       </c>
       <c r="C468">
         <v>102324</v>
@@ -21412,7 +21447,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>8562000</v>
+        <v>7135180</v>
       </c>
       <c r="C469">
         <v>102756</v>
@@ -21456,7 +21491,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>8598000</v>
+        <v>7165180</v>
       </c>
       <c r="C470">
         <v>103188</v>
@@ -21500,7 +21535,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>8634000</v>
+        <v>7195180</v>
       </c>
       <c r="C471">
         <v>103620</v>
@@ -21544,7 +21579,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>8670000</v>
+        <v>7225180</v>
       </c>
       <c r="C472">
         <v>104052</v>
@@ -21588,7 +21623,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>8706000</v>
+        <v>7255180</v>
       </c>
       <c r="C473">
         <v>104484</v>
@@ -21632,7 +21667,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>8742000</v>
+        <v>7285180</v>
       </c>
       <c r="C474">
         <v>104916</v>
@@ -21676,7 +21711,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>8778000</v>
+        <v>7315180</v>
       </c>
       <c r="C475">
         <v>105348</v>
@@ -21720,7 +21755,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>8814000</v>
+        <v>7345180</v>
       </c>
       <c r="C476">
         <v>105780</v>
@@ -21764,7 +21799,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>8850000</v>
+        <v>7375180</v>
       </c>
       <c r="C477">
         <v>106212</v>
@@ -21808,7 +21843,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>8886000</v>
+        <v>7405180</v>
       </c>
       <c r="C478">
         <v>106644</v>
@@ -21852,7 +21887,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>8922000</v>
+        <v>7435180</v>
       </c>
       <c r="C479">
         <v>107076</v>
@@ -21896,7 +21931,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>8958000</v>
+        <v>7465180</v>
       </c>
       <c r="C480">
         <v>107508</v>
@@ -21940,7 +21975,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>8994000</v>
+        <v>7495180</v>
       </c>
       <c r="C481">
         <v>107940</v>
@@ -21984,7 +22019,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>9031500</v>
+        <v>7526430</v>
       </c>
       <c r="C482">
         <v>108390</v>
@@ -22028,7 +22063,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>9069000</v>
+        <v>7557680</v>
       </c>
       <c r="C483">
         <v>108840</v>
@@ -22072,7 +22107,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>9106500</v>
+        <v>7588930</v>
       </c>
       <c r="C484">
         <v>109290</v>
@@ -22116,7 +22151,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>9144000</v>
+        <v>7620180</v>
       </c>
       <c r="C485">
         <v>109740</v>
@@ -22160,7 +22195,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>9181500</v>
+        <v>7651430</v>
       </c>
       <c r="C486">
         <v>110190</v>
@@ -22204,7 +22239,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>9219000</v>
+        <v>7682680</v>
       </c>
       <c r="C487">
         <v>110640</v>
@@ -22248,7 +22283,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>9256500</v>
+        <v>7713930</v>
       </c>
       <c r="C488">
         <v>111090</v>
@@ -22292,7 +22327,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>9294000</v>
+        <v>7745180</v>
       </c>
       <c r="C489">
         <v>111540</v>
@@ -22336,7 +22371,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>9331500</v>
+        <v>7776430</v>
       </c>
       <c r="C490">
         <v>111990</v>
@@ -22380,7 +22415,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>9369000</v>
+        <v>7807680</v>
       </c>
       <c r="C491">
         <v>112440</v>
@@ -22424,7 +22459,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>9406500</v>
+        <v>7838930</v>
       </c>
       <c r="C492">
         <v>112890</v>
@@ -22468,7 +22503,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>9444000</v>
+        <v>7870180</v>
       </c>
       <c r="C493">
         <v>113340</v>
@@ -22512,7 +22547,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>9481500</v>
+        <v>7901430</v>
       </c>
       <c r="C494">
         <v>113790</v>
@@ -22556,7 +22591,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>9519000</v>
+        <v>7932680</v>
       </c>
       <c r="C495">
         <v>114240</v>
@@ -22600,7 +22635,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>9556500</v>
+        <v>7963930</v>
       </c>
       <c r="C496">
         <v>114690</v>
@@ -22644,7 +22679,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>9594000</v>
+        <v>7995180</v>
       </c>
       <c r="C497">
         <v>115140</v>
@@ -22688,7 +22723,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>9631500</v>
+        <v>8026430</v>
       </c>
       <c r="C498">
         <v>115590</v>
@@ -22732,7 +22767,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>9669000</v>
+        <v>8057680</v>
       </c>
       <c r="C499">
         <v>116040</v>
@@ -22776,7 +22811,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>9706500</v>
+        <v>8088930</v>
       </c>
       <c r="C500">
         <v>116490</v>
@@ -22820,7 +22855,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>9744000</v>
+        <v>8120180</v>
       </c>
       <c r="C501">
         <v>116940</v>
@@ -22868,7 +22903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22882,7 +22917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/other/配置表/J-主角属性配置表.xlsx
+++ b/other/配置表/J-主角属性配置表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3940A0C-D1CB-4F86-B91C-9FAEA7DF302B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B9DDF-3457-417B-8015-21E2AAD0E9B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1001</v>
+        <v>600</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
@@ -943,13 +943,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2002</v>
+        <v>1200</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>1000</v>
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3003</v>
+        <v>1800</v>
       </c>
       <c r="C4" s="2">
         <v>45</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>4004</v>
+        <v>2400</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>5005</v>
+        <v>3000</v>
       </c>
       <c r="C6" s="2">
         <v>75</v>
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>6006</v>
+        <v>3600</v>
       </c>
       <c r="C7" s="2">
         <v>90</v>
@@ -1163,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>7007</v>
+        <v>4200</v>
       </c>
       <c r="C8" s="2">
         <v>105</v>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>8008</v>
+        <v>4800</v>
       </c>
       <c r="C9" s="2">
         <v>120</v>
@@ -1251,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>9009</v>
+        <v>5400</v>
       </c>
       <c r="C10" s="2">
         <v>135</v>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>10010</v>
+        <v>6000</v>
       </c>
       <c r="C11" s="2">
         <v>150</v>
@@ -1339,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>11011</v>
+        <v>6600</v>
       </c>
       <c r="C12" s="2">
         <v>165</v>
@@ -1383,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>12012</v>
+        <v>7200</v>
       </c>
       <c r="C13" s="2">
         <v>180</v>
@@ -1427,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>13013</v>
+        <v>7800</v>
       </c>
       <c r="C14" s="2">
         <v>195</v>
@@ -1471,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>14014</v>
+        <v>8400</v>
       </c>
       <c r="C15" s="2">
         <v>210</v>
@@ -1515,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>15015</v>
+        <v>9000</v>
       </c>
       <c r="C16" s="2">
         <v>225</v>
@@ -1559,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>16016</v>
+        <v>9600</v>
       </c>
       <c r="C17" s="2">
         <v>240</v>
@@ -1603,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>17017</v>
+        <v>10200</v>
       </c>
       <c r="C18" s="2">
         <v>255</v>
@@ -1647,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>18018</v>
+        <v>10800</v>
       </c>
       <c r="C19" s="2">
         <v>270</v>
@@ -1691,7 +1691,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>19019</v>
+        <v>11400</v>
       </c>
       <c r="C20" s="2">
         <v>285</v>
@@ -1735,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>20020</v>
+        <v>12000</v>
       </c>
       <c r="C21" s="2">
         <v>300</v>
@@ -1779,7 +1779,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>22521</v>
+        <v>13500</v>
       </c>
       <c r="C22" s="2">
         <v>336</v>
@@ -1823,7 +1823,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>25022</v>
+        <v>15000</v>
       </c>
       <c r="C23" s="2">
         <v>372</v>
@@ -1867,7 +1867,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>27523</v>
+        <v>16500</v>
       </c>
       <c r="C24" s="2">
         <v>408</v>
@@ -1911,7 +1911,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>30024</v>
+        <v>18000</v>
       </c>
       <c r="C25" s="2">
         <v>444</v>
@@ -1955,7 +1955,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>32525</v>
+        <v>19500</v>
       </c>
       <c r="C26" s="2">
         <v>480</v>
@@ -1999,7 +1999,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>35026</v>
+        <v>21000</v>
       </c>
       <c r="C27" s="2">
         <v>516</v>
@@ -2043,7 +2043,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>37527</v>
+        <v>22500</v>
       </c>
       <c r="C28" s="2">
         <v>552</v>
@@ -2087,7 +2087,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>40028</v>
+        <v>24000</v>
       </c>
       <c r="C29" s="2">
         <v>588</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>42529</v>
+        <v>25500</v>
       </c>
       <c r="C30" s="2">
         <v>624</v>
@@ -2175,7 +2175,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>45030</v>
+        <v>27000</v>
       </c>
       <c r="C31" s="2">
         <v>660</v>
@@ -2219,7 +2219,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>47531</v>
+        <v>28500</v>
       </c>
       <c r="C32" s="2">
         <v>696</v>
@@ -2263,7 +2263,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>50032</v>
+        <v>30000</v>
       </c>
       <c r="C33" s="2">
         <v>732</v>
@@ -2307,7 +2307,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>52533</v>
+        <v>31500</v>
       </c>
       <c r="C34" s="2">
         <v>768</v>
@@ -2351,7 +2351,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>55034</v>
+        <v>33000</v>
       </c>
       <c r="C35" s="2">
         <v>804</v>
@@ -2395,7 +2395,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>57535</v>
+        <v>34500</v>
       </c>
       <c r="C36" s="2">
         <v>840</v>
@@ -2439,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>60036</v>
+        <v>36000</v>
       </c>
       <c r="C37" s="2">
         <v>876</v>
@@ -2483,7 +2483,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>62537</v>
+        <v>37500</v>
       </c>
       <c r="C38" s="2">
         <v>912</v>
@@ -2527,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>65038</v>
+        <v>39000</v>
       </c>
       <c r="C39" s="2">
         <v>948</v>
@@ -2571,7 +2571,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>67539</v>
+        <v>40500</v>
       </c>
       <c r="C40" s="2">
         <v>984</v>
@@ -2615,7 +2615,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>70040</v>
+        <v>42000</v>
       </c>
       <c r="C41" s="2">
         <v>1020</v>
@@ -2659,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>73790</v>
+        <v>44250</v>
       </c>
       <c r="C42" s="2">
         <v>1074</v>
@@ -2703,7 +2703,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>77540</v>
+        <v>46500</v>
       </c>
       <c r="C43" s="2">
         <v>1128</v>
@@ -2747,7 +2747,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>81290</v>
+        <v>48750</v>
       </c>
       <c r="C44" s="2">
         <v>1182</v>
@@ -2791,7 +2791,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>85040</v>
+        <v>51000</v>
       </c>
       <c r="C45" s="2">
         <v>1236</v>
@@ -2835,7 +2835,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>88790</v>
+        <v>53250</v>
       </c>
       <c r="C46" s="2">
         <v>1290</v>
@@ -2879,7 +2879,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>92540</v>
+        <v>55500</v>
       </c>
       <c r="C47" s="2">
         <v>1344</v>
@@ -2923,7 +2923,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>96290</v>
+        <v>57750</v>
       </c>
       <c r="C48" s="2">
         <v>1398</v>
@@ -2967,7 +2967,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>100040</v>
+        <v>60000</v>
       </c>
       <c r="C49" s="2">
         <v>1452</v>
@@ -3011,7 +3011,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>103790</v>
+        <v>62250</v>
       </c>
       <c r="C50" s="2">
         <v>1506</v>
@@ -3055,7 +3055,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>107540</v>
+        <v>64500</v>
       </c>
       <c r="C51" s="2">
         <v>1560</v>
@@ -3099,7 +3099,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>111290</v>
+        <v>66750</v>
       </c>
       <c r="C52" s="2">
         <v>1614</v>
@@ -3143,7 +3143,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>115040</v>
+        <v>69000</v>
       </c>
       <c r="C53" s="2">
         <v>1668</v>
@@ -3187,7 +3187,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>118790</v>
+        <v>71250</v>
       </c>
       <c r="C54" s="2">
         <v>1722</v>
@@ -3231,7 +3231,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>122540</v>
+        <v>73500</v>
       </c>
       <c r="C55" s="2">
         <v>1776</v>
@@ -3275,7 +3275,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>126290</v>
+        <v>75750</v>
       </c>
       <c r="C56" s="2">
         <v>1830</v>
@@ -3319,7 +3319,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>130040</v>
+        <v>78000</v>
       </c>
       <c r="C57" s="2">
         <v>1884</v>
@@ -3363,7 +3363,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>133790</v>
+        <v>80250</v>
       </c>
       <c r="C58" s="2">
         <v>1938</v>
@@ -3407,7 +3407,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>137540</v>
+        <v>82500</v>
       </c>
       <c r="C59" s="2">
         <v>1992</v>
@@ -3451,7 +3451,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>141290</v>
+        <v>84750</v>
       </c>
       <c r="C60" s="2">
         <v>2046</v>
@@ -3495,7 +3495,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>145040</v>
+        <v>87000</v>
       </c>
       <c r="C61" s="2">
         <v>2100</v>
@@ -3539,7 +3539,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>150040</v>
+        <v>90000</v>
       </c>
       <c r="C62" s="2">
         <v>2172</v>
@@ -3583,7 +3583,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>155040</v>
+        <v>93000</v>
       </c>
       <c r="C63" s="2">
         <v>2244</v>
@@ -3627,7 +3627,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>160040</v>
+        <v>96000</v>
       </c>
       <c r="C64" s="2">
         <v>2316</v>
@@ -3671,7 +3671,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>165040</v>
+        <v>99000</v>
       </c>
       <c r="C65" s="2">
         <v>2388</v>
@@ -3715,7 +3715,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>170040</v>
+        <v>102000</v>
       </c>
       <c r="C66" s="2">
         <v>2460</v>
@@ -3759,7 +3759,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>175040</v>
+        <v>105000</v>
       </c>
       <c r="C67" s="2">
         <v>2532</v>
@@ -3803,7 +3803,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>180040</v>
+        <v>108000</v>
       </c>
       <c r="C68" s="2">
         <v>2604</v>
@@ -3847,7 +3847,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>185040</v>
+        <v>111000</v>
       </c>
       <c r="C69" s="2">
         <v>2676</v>
@@ -3891,7 +3891,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>190040</v>
+        <v>114000</v>
       </c>
       <c r="C70" s="2">
         <v>2748</v>
@@ -3935,7 +3935,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>195040</v>
+        <v>117000</v>
       </c>
       <c r="C71" s="2">
         <v>2820</v>
@@ -3979,7 +3979,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>200040</v>
+        <v>120000</v>
       </c>
       <c r="C72" s="2">
         <v>2892</v>
@@ -4023,7 +4023,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>205040</v>
+        <v>123000</v>
       </c>
       <c r="C73" s="2">
         <v>2964</v>
@@ -4067,7 +4067,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>210040</v>
+        <v>126000</v>
       </c>
       <c r="C74" s="2">
         <v>3036</v>
@@ -4111,7 +4111,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>215040</v>
+        <v>129000</v>
       </c>
       <c r="C75" s="2">
         <v>3108</v>
@@ -4155,7 +4155,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>220040</v>
+        <v>132000</v>
       </c>
       <c r="C76" s="2">
         <v>3180</v>
@@ -4199,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>225040</v>
+        <v>135000</v>
       </c>
       <c r="C77" s="2">
         <v>3252</v>
@@ -4243,7 +4243,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>230040</v>
+        <v>138000</v>
       </c>
       <c r="C78" s="2">
         <v>3324</v>
@@ -4287,7 +4287,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>235040</v>
+        <v>141000</v>
       </c>
       <c r="C79" s="2">
         <v>3396</v>
@@ -4331,7 +4331,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>240040</v>
+        <v>144000</v>
       </c>
       <c r="C80" s="2">
         <v>3468</v>
@@ -4375,7 +4375,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>245040</v>
+        <v>147000</v>
       </c>
       <c r="C81" s="2">
         <v>3540</v>
@@ -4419,7 +4419,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>251291</v>
+        <v>150750</v>
       </c>
       <c r="C82" s="2">
         <v>3630</v>
@@ -4463,7 +4463,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>257542</v>
+        <v>154500</v>
       </c>
       <c r="C83" s="2">
         <v>3720</v>
@@ -4507,7 +4507,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>263793</v>
+        <v>158250</v>
       </c>
       <c r="C84" s="2">
         <v>3810</v>
@@ -4551,7 +4551,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>270044</v>
+        <v>162000</v>
       </c>
       <c r="C85" s="2">
         <v>3900</v>
@@ -4595,7 +4595,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>276295</v>
+        <v>165750</v>
       </c>
       <c r="C86" s="2">
         <v>3990</v>
@@ -4639,7 +4639,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>282546</v>
+        <v>169500</v>
       </c>
       <c r="C87" s="2">
         <v>4080</v>
@@ -4683,7 +4683,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>288797</v>
+        <v>173250</v>
       </c>
       <c r="C88" s="2">
         <v>4170</v>
@@ -4727,7 +4727,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>295048</v>
+        <v>177000</v>
       </c>
       <c r="C89" s="2">
         <v>4260</v>
@@ -4771,7 +4771,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>301299</v>
+        <v>180750</v>
       </c>
       <c r="C90" s="2">
         <v>4350</v>
@@ -4815,7 +4815,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>307550</v>
+        <v>184500</v>
       </c>
       <c r="C91" s="2">
         <v>4440</v>
@@ -4859,7 +4859,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>313801</v>
+        <v>188250</v>
       </c>
       <c r="C92" s="2">
         <v>4530</v>
@@ -4903,7 +4903,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>320052</v>
+        <v>192000</v>
       </c>
       <c r="C93" s="2">
         <v>4620</v>
@@ -4947,7 +4947,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>326303</v>
+        <v>195750</v>
       </c>
       <c r="C94" s="2">
         <v>4710</v>
@@ -4991,7 +4991,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>332554</v>
+        <v>199500</v>
       </c>
       <c r="C95" s="2">
         <v>4800</v>
@@ -5035,7 +5035,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>338805</v>
+        <v>203250</v>
       </c>
       <c r="C96" s="2">
         <v>4890</v>
@@ -5079,7 +5079,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>345056</v>
+        <v>207000</v>
       </c>
       <c r="C97" s="2">
         <v>4980</v>
@@ -5123,7 +5123,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>351307</v>
+        <v>210750</v>
       </c>
       <c r="C98" s="2">
         <v>5070</v>
@@ -5167,7 +5167,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>357558</v>
+        <v>214500</v>
       </c>
       <c r="C99" s="2">
         <v>5160</v>
@@ -5211,7 +5211,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>363809</v>
+        <v>218250</v>
       </c>
       <c r="C100" s="2">
         <v>5250</v>
@@ -5255,7 +5255,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>370060</v>
+        <v>222000</v>
       </c>
       <c r="C101" s="2">
         <v>5340</v>
@@ -5299,7 +5299,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>377560</v>
+        <v>226500</v>
       </c>
       <c r="C102">
         <v>5448</v>
@@ -5343,7 +5343,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>385060</v>
+        <v>231000</v>
       </c>
       <c r="C103">
         <v>5556</v>
@@ -5387,7 +5387,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>392560</v>
+        <v>235500</v>
       </c>
       <c r="C104">
         <v>5664</v>
@@ -5431,7 +5431,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>400060</v>
+        <v>240000</v>
       </c>
       <c r="C105">
         <v>5772</v>
@@ -5475,7 +5475,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>407560</v>
+        <v>244500</v>
       </c>
       <c r="C106">
         <v>5880</v>
@@ -5519,7 +5519,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>415060</v>
+        <v>249000</v>
       </c>
       <c r="C107">
         <v>5988</v>
@@ -5563,7 +5563,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>422560</v>
+        <v>253500</v>
       </c>
       <c r="C108">
         <v>6096</v>
@@ -5607,7 +5607,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>430060</v>
+        <v>258000</v>
       </c>
       <c r="C109">
         <v>6204</v>
@@ -5651,7 +5651,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>437560</v>
+        <v>262500</v>
       </c>
       <c r="C110">
         <v>6312</v>
@@ -5695,7 +5695,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>445060</v>
+        <v>267000</v>
       </c>
       <c r="C111">
         <v>6420</v>
@@ -5739,7 +5739,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>452560</v>
+        <v>271500</v>
       </c>
       <c r="C112">
         <v>6528</v>
@@ -5783,7 +5783,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>460060</v>
+        <v>276000</v>
       </c>
       <c r="C113">
         <v>6636</v>
@@ -5827,7 +5827,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>467560</v>
+        <v>280500</v>
       </c>
       <c r="C114">
         <v>6744</v>
@@ -5871,7 +5871,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>475060</v>
+        <v>285000</v>
       </c>
       <c r="C115">
         <v>6852</v>
@@ -5915,7 +5915,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>482560</v>
+        <v>289500</v>
       </c>
       <c r="C116">
         <v>6960</v>
@@ -5959,7 +5959,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>490060</v>
+        <v>294000</v>
       </c>
       <c r="C117">
         <v>7068</v>
@@ -6003,7 +6003,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>497560</v>
+        <v>298500</v>
       </c>
       <c r="C118">
         <v>7176</v>
@@ -6047,7 +6047,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>505060</v>
+        <v>303000</v>
       </c>
       <c r="C119">
         <v>7284</v>
@@ -6091,7 +6091,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>512560</v>
+        <v>307500</v>
       </c>
       <c r="C120">
         <v>7392</v>
@@ -6135,7 +6135,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>520060</v>
+        <v>312000</v>
       </c>
       <c r="C121">
         <v>7500</v>
@@ -6179,7 +6179,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>528810</v>
+        <v>317250</v>
       </c>
       <c r="C122">
         <v>7626</v>
@@ -6223,7 +6223,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>537560</v>
+        <v>322500</v>
       </c>
       <c r="C123">
         <v>7752</v>
@@ -6267,7 +6267,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>546310</v>
+        <v>327750</v>
       </c>
       <c r="C124">
         <v>7878</v>
@@ -6311,7 +6311,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>555060</v>
+        <v>333000</v>
       </c>
       <c r="C125">
         <v>8004</v>
@@ -6355,7 +6355,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>563810</v>
+        <v>338250</v>
       </c>
       <c r="C126">
         <v>8130</v>
@@ -6399,7 +6399,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>572560</v>
+        <v>343500</v>
       </c>
       <c r="C127">
         <v>8256</v>
@@ -6443,7 +6443,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>581310</v>
+        <v>348750</v>
       </c>
       <c r="C128">
         <v>8382</v>
@@ -6487,7 +6487,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>590060</v>
+        <v>354000</v>
       </c>
       <c r="C129">
         <v>8508</v>
@@ -6531,7 +6531,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>598810</v>
+        <v>359250</v>
       </c>
       <c r="C130">
         <v>8634</v>
@@ -6575,7 +6575,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>607560</v>
+        <v>364500</v>
       </c>
       <c r="C131">
         <v>8760</v>
@@ -6619,7 +6619,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>616310</v>
+        <v>369750</v>
       </c>
       <c r="C132">
         <v>8886</v>
@@ -6663,7 +6663,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>625060</v>
+        <v>375000</v>
       </c>
       <c r="C133">
         <v>9012</v>
@@ -6707,7 +6707,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>633810</v>
+        <v>380250</v>
       </c>
       <c r="C134">
         <v>9138</v>
@@ -6751,7 +6751,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>642560</v>
+        <v>385500</v>
       </c>
       <c r="C135">
         <v>9264</v>
@@ -6795,7 +6795,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>651310</v>
+        <v>390750</v>
       </c>
       <c r="C136">
         <v>9390</v>
@@ -6839,7 +6839,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>660060</v>
+        <v>396000</v>
       </c>
       <c r="C137">
         <v>9516</v>
@@ -6883,7 +6883,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>668810</v>
+        <v>401250</v>
       </c>
       <c r="C138">
         <v>9642</v>
@@ -6927,7 +6927,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>677560</v>
+        <v>406500</v>
       </c>
       <c r="C139">
         <v>9768</v>
@@ -6971,7 +6971,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>686310</v>
+        <v>411750</v>
       </c>
       <c r="C140">
         <v>9894</v>
@@ -7015,7 +7015,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>695060</v>
+        <v>417000</v>
       </c>
       <c r="C141">
         <v>10020</v>
@@ -7059,7 +7059,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>705061</v>
+        <v>423000</v>
       </c>
       <c r="C142">
         <v>10164</v>
@@ -7103,7 +7103,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>715062</v>
+        <v>429000</v>
       </c>
       <c r="C143">
         <v>10308</v>
@@ -7147,7 +7147,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>725063</v>
+        <v>435000</v>
       </c>
       <c r="C144">
         <v>10452</v>
@@ -7191,7 +7191,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>735064</v>
+        <v>441000</v>
       </c>
       <c r="C145">
         <v>10596</v>
@@ -7235,7 +7235,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>745065</v>
+        <v>447000</v>
       </c>
       <c r="C146">
         <v>10740</v>
@@ -7279,7 +7279,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>755066</v>
+        <v>453000</v>
       </c>
       <c r="C147">
         <v>10884</v>
@@ -7323,7 +7323,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>765067</v>
+        <v>459000</v>
       </c>
       <c r="C148">
         <v>11028</v>
@@ -7367,7 +7367,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>775068</v>
+        <v>465000</v>
       </c>
       <c r="C149">
         <v>11172</v>
@@ -7411,7 +7411,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>785069</v>
+        <v>471000</v>
       </c>
       <c r="C150">
         <v>11316</v>
@@ -7455,7 +7455,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>795070</v>
+        <v>477000</v>
       </c>
       <c r="C151">
         <v>11460</v>
@@ -7499,7 +7499,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>805071</v>
+        <v>483000</v>
       </c>
       <c r="C152">
         <v>11604</v>
@@ -7543,7 +7543,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>815072</v>
+        <v>489000</v>
       </c>
       <c r="C153">
         <v>11748</v>
@@ -7587,7 +7587,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>825073</v>
+        <v>495000</v>
       </c>
       <c r="C154">
         <v>11892</v>
@@ -7631,7 +7631,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>835074</v>
+        <v>501000</v>
       </c>
       <c r="C155">
         <v>12036</v>
@@ -7675,7 +7675,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>845075</v>
+        <v>507000</v>
       </c>
       <c r="C156">
         <v>12180</v>
@@ -7719,7 +7719,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>855076</v>
+        <v>513000</v>
       </c>
       <c r="C157">
         <v>12324</v>
@@ -7763,7 +7763,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>865077</v>
+        <v>519000</v>
       </c>
       <c r="C158">
         <v>12468</v>
@@ -7807,7 +7807,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>875078</v>
+        <v>525000</v>
       </c>
       <c r="C159">
         <v>12612</v>
@@ -7851,7 +7851,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>885079</v>
+        <v>531000</v>
       </c>
       <c r="C160">
         <v>12756</v>
@@ -7895,7 +7895,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>895080</v>
+        <v>537000</v>
       </c>
       <c r="C161">
         <v>12900</v>
@@ -7939,7 +7939,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>906330</v>
+        <v>543750</v>
       </c>
       <c r="C162">
         <v>13062</v>
@@ -7983,7 +7983,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>917580</v>
+        <v>550500</v>
       </c>
       <c r="C163">
         <v>13224</v>
@@ -8027,7 +8027,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>928830</v>
+        <v>557250</v>
       </c>
       <c r="C164">
         <v>13386</v>
@@ -8071,7 +8071,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>940080</v>
+        <v>564000</v>
       </c>
       <c r="C165">
         <v>13548</v>
@@ -8115,7 +8115,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>951330</v>
+        <v>570750</v>
       </c>
       <c r="C166">
         <v>13710</v>
@@ -8159,7 +8159,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>962580</v>
+        <v>577500</v>
       </c>
       <c r="C167">
         <v>13872</v>
@@ -8203,7 +8203,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>973830</v>
+        <v>584250</v>
       </c>
       <c r="C168">
         <v>14034</v>
@@ -8247,7 +8247,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>985080</v>
+        <v>591000</v>
       </c>
       <c r="C169">
         <v>14196</v>
@@ -8291,7 +8291,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>996330</v>
+        <v>597750</v>
       </c>
       <c r="C170">
         <v>14358</v>
@@ -8335,7 +8335,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1007580</v>
+        <v>604500</v>
       </c>
       <c r="C171">
         <v>14520</v>
@@ -8379,7 +8379,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1018830</v>
+        <v>611250</v>
       </c>
       <c r="C172">
         <v>14682</v>
@@ -8423,7 +8423,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1030080</v>
+        <v>618000</v>
       </c>
       <c r="C173">
         <v>14844</v>
@@ -8467,7 +8467,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1041330</v>
+        <v>624750</v>
       </c>
       <c r="C174">
         <v>15006</v>
@@ -8511,7 +8511,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1052580</v>
+        <v>631500</v>
       </c>
       <c r="C175">
         <v>15168</v>
@@ -8555,7 +8555,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1063830</v>
+        <v>638250</v>
       </c>
       <c r="C176">
         <v>15330</v>
@@ -8599,7 +8599,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1075080</v>
+        <v>645000</v>
       </c>
       <c r="C177">
         <v>15492</v>
@@ -8643,7 +8643,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1086330</v>
+        <v>651750</v>
       </c>
       <c r="C178">
         <v>15654</v>
@@ -8687,7 +8687,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1097580</v>
+        <v>658500</v>
       </c>
       <c r="C179">
         <v>15816</v>
@@ -8731,7 +8731,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1108830</v>
+        <v>665250</v>
       </c>
       <c r="C180">
         <v>15978</v>
@@ -8775,7 +8775,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1120080</v>
+        <v>672000</v>
       </c>
       <c r="C181">
         <v>16140</v>
@@ -8819,7 +8819,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1132580</v>
+        <v>679500</v>
       </c>
       <c r="C182">
         <v>16320</v>
@@ -8863,7 +8863,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1145080</v>
+        <v>687000</v>
       </c>
       <c r="C183">
         <v>16500</v>
@@ -8907,7 +8907,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1157580</v>
+        <v>694500</v>
       </c>
       <c r="C184">
         <v>16680</v>
@@ -8951,7 +8951,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1170080</v>
+        <v>702000</v>
       </c>
       <c r="C185">
         <v>16860</v>
@@ -8995,7 +8995,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1182580</v>
+        <v>709500</v>
       </c>
       <c r="C186">
         <v>17040</v>
@@ -9039,7 +9039,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1195080</v>
+        <v>717000</v>
       </c>
       <c r="C187">
         <v>17220</v>
@@ -9083,7 +9083,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1207580</v>
+        <v>724500</v>
       </c>
       <c r="C188">
         <v>17400</v>
@@ -9127,7 +9127,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1220080</v>
+        <v>732000</v>
       </c>
       <c r="C189">
         <v>17580</v>
@@ -9171,7 +9171,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1232580</v>
+        <v>739500</v>
       </c>
       <c r="C190">
         <v>17760</v>
@@ -9215,7 +9215,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1245080</v>
+        <v>747000</v>
       </c>
       <c r="C191">
         <v>17940</v>
@@ -9259,7 +9259,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1257580</v>
+        <v>754500</v>
       </c>
       <c r="C192">
         <v>18120</v>
@@ -9303,7 +9303,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1270080</v>
+        <v>762000</v>
       </c>
       <c r="C193">
         <v>18300</v>
@@ -9347,7 +9347,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1282580</v>
+        <v>769500</v>
       </c>
       <c r="C194">
         <v>18480</v>
@@ -9391,7 +9391,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1295080</v>
+        <v>777000</v>
       </c>
       <c r="C195">
         <v>18660</v>
@@ -9435,7 +9435,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1307580</v>
+        <v>784500</v>
       </c>
       <c r="C196">
         <v>18840</v>
@@ -9479,7 +9479,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1320080</v>
+        <v>792000</v>
       </c>
       <c r="C197">
         <v>19020</v>
@@ -9523,7 +9523,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1332580</v>
+        <v>799500</v>
       </c>
       <c r="C198">
         <v>19200</v>
@@ -9567,7 +9567,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1345080</v>
+        <v>807000</v>
       </c>
       <c r="C199">
         <v>19380</v>
@@ -9611,7 +9611,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1357580</v>
+        <v>814500</v>
       </c>
       <c r="C200">
         <v>19560</v>
@@ -9655,7 +9655,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1370080</v>
+        <v>822000</v>
       </c>
       <c r="C201">
         <v>19740</v>
@@ -9699,7 +9699,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1383831</v>
+        <v>830250</v>
       </c>
       <c r="C202">
         <v>19938</v>
@@ -9743,7 +9743,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1397582</v>
+        <v>838500</v>
       </c>
       <c r="C203">
         <v>20136</v>
@@ -9787,7 +9787,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1411333</v>
+        <v>846750</v>
       </c>
       <c r="C204">
         <v>20334</v>
@@ -9831,7 +9831,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1425084</v>
+        <v>855000</v>
       </c>
       <c r="C205">
         <v>20532</v>
@@ -9875,7 +9875,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1438835</v>
+        <v>863250</v>
       </c>
       <c r="C206">
         <v>20730</v>
@@ -9919,7 +9919,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1452586</v>
+        <v>871500</v>
       </c>
       <c r="C207">
         <v>20928</v>
@@ -9963,7 +9963,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1466337</v>
+        <v>879750</v>
       </c>
       <c r="C208">
         <v>21126</v>
@@ -10007,7 +10007,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1480088</v>
+        <v>888000</v>
       </c>
       <c r="C209">
         <v>21324</v>
@@ -10051,7 +10051,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1493839</v>
+        <v>896250</v>
       </c>
       <c r="C210">
         <v>21522</v>
@@ -10095,7 +10095,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1507590</v>
+        <v>904500</v>
       </c>
       <c r="C211">
         <v>21720</v>
@@ -10139,7 +10139,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1521341</v>
+        <v>912750</v>
       </c>
       <c r="C212">
         <v>21918</v>
@@ -10183,7 +10183,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1535092</v>
+        <v>921000</v>
       </c>
       <c r="C213">
         <v>22116</v>
@@ -10227,7 +10227,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1548843</v>
+        <v>929250</v>
       </c>
       <c r="C214">
         <v>22314</v>
@@ -10271,7 +10271,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1562594</v>
+        <v>937500</v>
       </c>
       <c r="C215">
         <v>22512</v>
@@ -10315,7 +10315,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>1576345</v>
+        <v>945750</v>
       </c>
       <c r="C216">
         <v>22710</v>
@@ -10359,7 +10359,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1590096</v>
+        <v>954000</v>
       </c>
       <c r="C217">
         <v>22908</v>
@@ -10403,7 +10403,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1603847</v>
+        <v>962250</v>
       </c>
       <c r="C218">
         <v>23106</v>
@@ -10447,7 +10447,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1617598</v>
+        <v>970500</v>
       </c>
       <c r="C219">
         <v>23304</v>
@@ -10491,7 +10491,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1631349</v>
+        <v>978750</v>
       </c>
       <c r="C220">
         <v>23502</v>
@@ -10535,7 +10535,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1645100</v>
+        <v>987000</v>
       </c>
       <c r="C221">
         <v>23700</v>
@@ -10579,7 +10579,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1660100</v>
+        <v>996000</v>
       </c>
       <c r="C222">
         <v>23916</v>
@@ -10623,7 +10623,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1675100</v>
+        <v>1005000</v>
       </c>
       <c r="C223">
         <v>24132</v>
@@ -10667,7 +10667,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1690100</v>
+        <v>1014000</v>
       </c>
       <c r="C224">
         <v>24348</v>
@@ -10711,7 +10711,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1705100</v>
+        <v>1023000</v>
       </c>
       <c r="C225">
         <v>24564</v>
@@ -10755,7 +10755,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1720100</v>
+        <v>1032000</v>
       </c>
       <c r="C226">
         <v>24780</v>
@@ -10799,7 +10799,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1735100</v>
+        <v>1041000</v>
       </c>
       <c r="C227">
         <v>24996</v>
@@ -10843,7 +10843,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1750100</v>
+        <v>1050000</v>
       </c>
       <c r="C228">
         <v>25212</v>
@@ -10887,7 +10887,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>1765100</v>
+        <v>1059000</v>
       </c>
       <c r="C229">
         <v>25428</v>
@@ -10931,7 +10931,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1780100</v>
+        <v>1068000</v>
       </c>
       <c r="C230">
         <v>25644</v>
@@ -10975,7 +10975,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1795100</v>
+        <v>1077000</v>
       </c>
       <c r="C231">
         <v>25860</v>
@@ -11019,7 +11019,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1810100</v>
+        <v>1086000</v>
       </c>
       <c r="C232">
         <v>26076</v>
@@ -11063,7 +11063,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1825100</v>
+        <v>1095000</v>
       </c>
       <c r="C233">
         <v>26292</v>
@@ -11107,7 +11107,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1840100</v>
+        <v>1104000</v>
       </c>
       <c r="C234">
         <v>26508</v>
@@ -11151,7 +11151,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1855100</v>
+        <v>1113000</v>
       </c>
       <c r="C235">
         <v>26724</v>
@@ -11195,7 +11195,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>1870100</v>
+        <v>1122000</v>
       </c>
       <c r="C236">
         <v>26940</v>
@@ -11239,7 +11239,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1885100</v>
+        <v>1131000</v>
       </c>
       <c r="C237">
         <v>27156</v>
@@ -11283,7 +11283,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>1900100</v>
+        <v>1140000</v>
       </c>
       <c r="C238">
         <v>27372</v>
@@ -11327,7 +11327,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>1915100</v>
+        <v>1149000</v>
       </c>
       <c r="C239">
         <v>27588</v>
@@ -11371,7 +11371,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1930100</v>
+        <v>1158000</v>
       </c>
       <c r="C240">
         <v>27804</v>
@@ -11415,7 +11415,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>1945100</v>
+        <v>1167000</v>
       </c>
       <c r="C241">
         <v>28020</v>
@@ -11459,7 +11459,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>1961350</v>
+        <v>1176750</v>
       </c>
       <c r="C242">
         <v>28254</v>
@@ -11503,7 +11503,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>1977600</v>
+        <v>1186500</v>
       </c>
       <c r="C243">
         <v>28488</v>
@@ -11547,7 +11547,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>1993850</v>
+        <v>1196250</v>
       </c>
       <c r="C244">
         <v>28722</v>
@@ -11591,7 +11591,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>2010100</v>
+        <v>1206000</v>
       </c>
       <c r="C245">
         <v>28956</v>
@@ -11635,7 +11635,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>2026350</v>
+        <v>1215750</v>
       </c>
       <c r="C246">
         <v>29190</v>
@@ -11679,7 +11679,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>2042600</v>
+        <v>1225500</v>
       </c>
       <c r="C247">
         <v>29424</v>
@@ -11723,7 +11723,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>2058850</v>
+        <v>1235250</v>
       </c>
       <c r="C248">
         <v>29658</v>
@@ -11767,7 +11767,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>2075100</v>
+        <v>1245000</v>
       </c>
       <c r="C249">
         <v>29892</v>
@@ -11811,7 +11811,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>2091350</v>
+        <v>1254750</v>
       </c>
       <c r="C250">
         <v>30126</v>
@@ -11855,7 +11855,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>2107600</v>
+        <v>1264500</v>
       </c>
       <c r="C251">
         <v>30360</v>
@@ -11899,7 +11899,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>2123850</v>
+        <v>1274250</v>
       </c>
       <c r="C252">
         <v>30594</v>
@@ -11943,7 +11943,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>2140100</v>
+        <v>1284000</v>
       </c>
       <c r="C253">
         <v>30828</v>
@@ -11987,7 +11987,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>2156350</v>
+        <v>1293750</v>
       </c>
       <c r="C254">
         <v>31062</v>
@@ -12031,7 +12031,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>2172600</v>
+        <v>1303500</v>
       </c>
       <c r="C255">
         <v>31296</v>
@@ -12075,7 +12075,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>2188850</v>
+        <v>1313250</v>
       </c>
       <c r="C256">
         <v>31530</v>
@@ -12119,7 +12119,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>2205100</v>
+        <v>1323000</v>
       </c>
       <c r="C257">
         <v>31764</v>
@@ -12163,7 +12163,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>2221350</v>
+        <v>1332750</v>
       </c>
       <c r="C258">
         <v>31998</v>
@@ -12207,7 +12207,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>2237600</v>
+        <v>1342500</v>
       </c>
       <c r="C259">
         <v>32232</v>
@@ -12251,7 +12251,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>2253850</v>
+        <v>1352250</v>
       </c>
       <c r="C260">
         <v>32466</v>
@@ -12295,7 +12295,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2270100</v>
+        <v>1362000</v>
       </c>
       <c r="C261">
         <v>32700</v>
@@ -12339,7 +12339,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>2287601</v>
+        <v>1372500</v>
       </c>
       <c r="C262">
         <v>32952</v>
@@ -12383,7 +12383,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>2305102</v>
+        <v>1383000</v>
       </c>
       <c r="C263">
         <v>33204</v>
@@ -12427,7 +12427,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>2322603</v>
+        <v>1393500</v>
       </c>
       <c r="C264">
         <v>33456</v>
@@ -12471,7 +12471,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>2340104</v>
+        <v>1404000</v>
       </c>
       <c r="C265">
         <v>33708</v>
@@ -12515,7 +12515,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>2357605</v>
+        <v>1414500</v>
       </c>
       <c r="C266">
         <v>33960</v>
@@ -12559,7 +12559,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>2375106</v>
+        <v>1425000</v>
       </c>
       <c r="C267">
         <v>34212</v>
@@ -12603,7 +12603,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>2392607</v>
+        <v>1435500</v>
       </c>
       <c r="C268">
         <v>34464</v>
@@ -12647,7 +12647,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>2410108</v>
+        <v>1446000</v>
       </c>
       <c r="C269">
         <v>34716</v>
@@ -12691,7 +12691,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>2427609</v>
+        <v>1456500</v>
       </c>
       <c r="C270">
         <v>34968</v>
@@ -12735,7 +12735,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>2445110</v>
+        <v>1467000</v>
       </c>
       <c r="C271">
         <v>35220</v>
@@ -12779,7 +12779,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>2462611</v>
+        <v>1477500</v>
       </c>
       <c r="C272">
         <v>35472</v>
@@ -12823,7 +12823,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>2480112</v>
+        <v>1488000</v>
       </c>
       <c r="C273">
         <v>35724</v>
@@ -12867,7 +12867,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>2497613</v>
+        <v>1498500</v>
       </c>
       <c r="C274">
         <v>35976</v>
@@ -12911,7 +12911,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>2515114</v>
+        <v>1509000</v>
       </c>
       <c r="C275">
         <v>36228</v>
@@ -12955,7 +12955,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>2532615</v>
+        <v>1519500</v>
       </c>
       <c r="C276">
         <v>36480</v>
@@ -12999,7 +12999,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>2550116</v>
+        <v>1530000</v>
       </c>
       <c r="C277">
         <v>36732</v>
@@ -13043,7 +13043,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>2567617</v>
+        <v>1540500</v>
       </c>
       <c r="C278">
         <v>36984</v>
@@ -13087,7 +13087,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>2585118</v>
+        <v>1551000</v>
       </c>
       <c r="C279">
         <v>37236</v>
@@ -13131,7 +13131,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>2602619</v>
+        <v>1561500</v>
       </c>
       <c r="C280">
         <v>37488</v>
@@ -13175,7 +13175,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>2620120</v>
+        <v>1572000</v>
       </c>
       <c r="C281">
         <v>37740</v>
@@ -13219,7 +13219,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>2638870</v>
+        <v>1583250</v>
       </c>
       <c r="C282">
         <v>38010</v>
@@ -13263,7 +13263,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>2657620</v>
+        <v>1594500</v>
       </c>
       <c r="C283">
         <v>38280</v>
@@ -13307,7 +13307,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>2676370</v>
+        <v>1605750</v>
       </c>
       <c r="C284">
         <v>38550</v>
@@ -13351,7 +13351,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>2695120</v>
+        <v>1617000</v>
       </c>
       <c r="C285">
         <v>38820</v>
@@ -13395,7 +13395,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>2713870</v>
+        <v>1628250</v>
       </c>
       <c r="C286">
         <v>39090</v>
@@ -13439,7 +13439,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>2732620</v>
+        <v>1639500</v>
       </c>
       <c r="C287">
         <v>39360</v>
@@ -13483,7 +13483,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>2751370</v>
+        <v>1650750</v>
       </c>
       <c r="C288">
         <v>39630</v>
@@ -13527,7 +13527,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>2770120</v>
+        <v>1662000</v>
       </c>
       <c r="C289">
         <v>39900</v>
@@ -13571,7 +13571,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>2788870</v>
+        <v>1673250</v>
       </c>
       <c r="C290">
         <v>40170</v>
@@ -13615,7 +13615,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>2807620</v>
+        <v>1684500</v>
       </c>
       <c r="C291">
         <v>40440</v>
@@ -13659,7 +13659,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>2826370</v>
+        <v>1695750</v>
       </c>
       <c r="C292">
         <v>40710</v>
@@ -13703,7 +13703,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>2845120</v>
+        <v>1707000</v>
       </c>
       <c r="C293">
         <v>40980</v>
@@ -13747,7 +13747,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>2863870</v>
+        <v>1718250</v>
       </c>
       <c r="C294">
         <v>41250</v>
@@ -13791,7 +13791,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>2882620</v>
+        <v>1729500</v>
       </c>
       <c r="C295">
         <v>41520</v>
@@ -13835,7 +13835,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>2901370</v>
+        <v>1740750</v>
       </c>
       <c r="C296">
         <v>41790</v>
@@ -13879,7 +13879,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>2920120</v>
+        <v>1752000</v>
       </c>
       <c r="C297">
         <v>42060</v>
@@ -13923,7 +13923,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>2938870</v>
+        <v>1763250</v>
       </c>
       <c r="C298">
         <v>42330</v>
@@ -13967,7 +13967,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>2957620</v>
+        <v>1774500</v>
       </c>
       <c r="C299">
         <v>42600</v>
@@ -14011,7 +14011,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>2976370</v>
+        <v>1785750</v>
       </c>
       <c r="C300">
         <v>42870</v>
@@ -14055,7 +14055,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>2995120</v>
+        <v>1797000</v>
       </c>
       <c r="C301">
         <v>43140</v>
@@ -14099,7 +14099,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>3015120</v>
+        <v>1809000</v>
       </c>
       <c r="C302">
         <v>43428</v>
@@ -14143,7 +14143,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>3035120</v>
+        <v>1821000</v>
       </c>
       <c r="C303">
         <v>43716</v>
@@ -14187,7 +14187,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>3055120</v>
+        <v>1833000</v>
       </c>
       <c r="C304">
         <v>44004</v>
@@ -14231,7 +14231,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>3075120</v>
+        <v>1845000</v>
       </c>
       <c r="C305">
         <v>44292</v>
@@ -14275,7 +14275,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>3095120</v>
+        <v>1857000</v>
       </c>
       <c r="C306">
         <v>44580</v>
@@ -14319,7 +14319,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>3115120</v>
+        <v>1869000</v>
       </c>
       <c r="C307">
         <v>44868</v>
@@ -14363,7 +14363,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>3135120</v>
+        <v>1881000</v>
       </c>
       <c r="C308">
         <v>45156</v>
@@ -14407,7 +14407,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>3155120</v>
+        <v>1893000</v>
       </c>
       <c r="C309">
         <v>45444</v>
@@ -14451,7 +14451,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>3175120</v>
+        <v>1905000</v>
       </c>
       <c r="C310">
         <v>45732</v>
@@ -14495,7 +14495,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>3195120</v>
+        <v>1917000</v>
       </c>
       <c r="C311">
         <v>46020</v>
@@ -14539,7 +14539,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>3215120</v>
+        <v>1929000</v>
       </c>
       <c r="C312">
         <v>46308</v>
@@ -14583,7 +14583,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>3235120</v>
+        <v>1941000</v>
       </c>
       <c r="C313">
         <v>46596</v>
@@ -14627,7 +14627,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>3255120</v>
+        <v>1953000</v>
       </c>
       <c r="C314">
         <v>46884</v>
@@ -14671,7 +14671,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>3275120</v>
+        <v>1965000</v>
       </c>
       <c r="C315">
         <v>47172</v>
@@ -14715,7 +14715,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>3295120</v>
+        <v>1977000</v>
       </c>
       <c r="C316">
         <v>47460</v>
@@ -14759,7 +14759,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>3315120</v>
+        <v>1989000</v>
       </c>
       <c r="C317">
         <v>47748</v>
@@ -14803,7 +14803,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>3335120</v>
+        <v>2001000</v>
       </c>
       <c r="C318">
         <v>48036</v>
@@ -14847,7 +14847,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>3355120</v>
+        <v>2013000</v>
       </c>
       <c r="C319">
         <v>48324</v>
@@ -14891,7 +14891,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>3375120</v>
+        <v>2025000</v>
       </c>
       <c r="C320">
         <v>48612</v>
@@ -14935,7 +14935,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>3395120</v>
+        <v>2037000</v>
       </c>
       <c r="C321">
         <v>48900</v>
@@ -14979,7 +14979,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>3416371</v>
+        <v>2049750</v>
       </c>
       <c r="C322">
         <v>49206</v>
@@ -15023,7 +15023,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>3437622</v>
+        <v>2062500</v>
       </c>
       <c r="C323">
         <v>49512</v>
@@ -15067,7 +15067,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>3458873</v>
+        <v>2075250</v>
       </c>
       <c r="C324">
         <v>49818</v>
@@ -15111,7 +15111,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>3480124</v>
+        <v>2088000</v>
       </c>
       <c r="C325">
         <v>50124</v>
@@ -15155,7 +15155,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>3501375</v>
+        <v>2100750</v>
       </c>
       <c r="C326">
         <v>50430</v>
@@ -15199,7 +15199,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>3522626</v>
+        <v>2113500</v>
       </c>
       <c r="C327">
         <v>50736</v>
@@ -15243,7 +15243,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>3543877</v>
+        <v>2126250</v>
       </c>
       <c r="C328">
         <v>51042</v>
@@ -15287,7 +15287,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>3565128</v>
+        <v>2139000</v>
       </c>
       <c r="C329">
         <v>51348</v>
@@ -15331,7 +15331,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>3586379</v>
+        <v>2151750</v>
       </c>
       <c r="C330">
         <v>51654</v>
@@ -15375,7 +15375,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>3607630</v>
+        <v>2164500</v>
       </c>
       <c r="C331">
         <v>51960</v>
@@ -15419,7 +15419,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>3628881</v>
+        <v>2177250</v>
       </c>
       <c r="C332">
         <v>52266</v>
@@ -15463,7 +15463,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>3650132</v>
+        <v>2190000</v>
       </c>
       <c r="C333">
         <v>52572</v>
@@ -15507,7 +15507,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>3671383</v>
+        <v>2202750</v>
       </c>
       <c r="C334">
         <v>52878</v>
@@ -15551,7 +15551,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>3692634</v>
+        <v>2215500</v>
       </c>
       <c r="C335">
         <v>53184</v>
@@ -15595,7 +15595,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>3713885</v>
+        <v>2228250</v>
       </c>
       <c r="C336">
         <v>53490</v>
@@ -15639,7 +15639,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>3735136</v>
+        <v>2241000</v>
       </c>
       <c r="C337">
         <v>53796</v>
@@ -15683,7 +15683,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>3756387</v>
+        <v>2253750</v>
       </c>
       <c r="C338">
         <v>54102</v>
@@ -15727,7 +15727,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>3777638</v>
+        <v>2266500</v>
       </c>
       <c r="C339">
         <v>54408</v>
@@ -15771,7 +15771,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>3798889</v>
+        <v>2279250</v>
       </c>
       <c r="C340">
         <v>54714</v>
@@ -15815,7 +15815,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>3820140</v>
+        <v>2292000</v>
       </c>
       <c r="C341">
         <v>55020</v>
@@ -15859,7 +15859,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>3842640</v>
+        <v>2305500</v>
       </c>
       <c r="C342">
         <v>55344</v>
@@ -15903,7 +15903,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>3865140</v>
+        <v>2319000</v>
       </c>
       <c r="C343">
         <v>55668</v>
@@ -15947,7 +15947,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>3887640</v>
+        <v>2332500</v>
       </c>
       <c r="C344">
         <v>55992</v>
@@ -15991,7 +15991,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>3910140</v>
+        <v>2346000</v>
       </c>
       <c r="C345">
         <v>56316</v>
@@ -16035,7 +16035,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>3932640</v>
+        <v>2359500</v>
       </c>
       <c r="C346">
         <v>56640</v>
@@ -16079,7 +16079,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>3955140</v>
+        <v>2373000</v>
       </c>
       <c r="C347">
         <v>56964</v>
@@ -16123,7 +16123,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>3977640</v>
+        <v>2386500</v>
       </c>
       <c r="C348">
         <v>57288</v>
@@ -16167,7 +16167,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>4000140</v>
+        <v>2400000</v>
       </c>
       <c r="C349">
         <v>57612</v>
@@ -16211,7 +16211,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>4022640</v>
+        <v>2413500</v>
       </c>
       <c r="C350">
         <v>57936</v>
@@ -16255,7 +16255,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>4045140</v>
+        <v>2427000</v>
       </c>
       <c r="C351">
         <v>58260</v>
@@ -16299,7 +16299,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>4067640</v>
+        <v>2440500</v>
       </c>
       <c r="C352">
         <v>58584</v>
@@ -16343,7 +16343,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>4090140</v>
+        <v>2454000</v>
       </c>
       <c r="C353">
         <v>58908</v>
@@ -16387,7 +16387,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>4112640</v>
+        <v>2467500</v>
       </c>
       <c r="C354">
         <v>59232</v>
@@ -16431,7 +16431,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>4135140</v>
+        <v>2481000</v>
       </c>
       <c r="C355">
         <v>59556</v>
@@ -16475,7 +16475,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>4157640</v>
+        <v>2494500</v>
       </c>
       <c r="C356">
         <v>59880</v>
@@ -16519,7 +16519,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>4180140</v>
+        <v>2508000</v>
       </c>
       <c r="C357">
         <v>60204</v>
@@ -16563,7 +16563,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>4202640</v>
+        <v>2521500</v>
       </c>
       <c r="C358">
         <v>60528</v>
@@ -16607,7 +16607,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>4225140</v>
+        <v>2535000</v>
       </c>
       <c r="C359">
         <v>60852</v>
@@ -16651,7 +16651,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>4247640</v>
+        <v>2548500</v>
       </c>
       <c r="C360">
         <v>61176</v>
@@ -16695,7 +16695,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>4270140</v>
+        <v>2562000</v>
       </c>
       <c r="C361">
         <v>61500</v>
@@ -16739,7 +16739,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>4293890</v>
+        <v>2576250</v>
       </c>
       <c r="C362">
         <v>61842</v>
@@ -16783,7 +16783,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>4317640</v>
+        <v>2590500</v>
       </c>
       <c r="C363">
         <v>62184</v>
@@ -16827,7 +16827,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>4341390</v>
+        <v>2604750</v>
       </c>
       <c r="C364">
         <v>62526</v>
@@ -16871,7 +16871,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>4365140</v>
+        <v>2619000</v>
       </c>
       <c r="C365">
         <v>62868</v>
@@ -16915,7 +16915,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>4388890</v>
+        <v>2633250</v>
       </c>
       <c r="C366">
         <v>63210</v>
@@ -16959,7 +16959,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>4412640</v>
+        <v>2647500</v>
       </c>
       <c r="C367">
         <v>63552</v>
@@ -17003,7 +17003,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>4436390</v>
+        <v>2661750</v>
       </c>
       <c r="C368">
         <v>63894</v>
@@ -17047,7 +17047,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>4460140</v>
+        <v>2676000</v>
       </c>
       <c r="C369">
         <v>64236</v>
@@ -17091,7 +17091,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>4483890</v>
+        <v>2690250</v>
       </c>
       <c r="C370">
         <v>64578</v>
@@ -17135,7 +17135,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>4507640</v>
+        <v>2704500</v>
       </c>
       <c r="C371">
         <v>64920</v>
@@ -17179,7 +17179,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>4531390</v>
+        <v>2718750</v>
       </c>
       <c r="C372">
         <v>65262</v>
@@ -17223,7 +17223,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>4555140</v>
+        <v>2733000</v>
       </c>
       <c r="C373">
         <v>65604</v>
@@ -17267,7 +17267,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>4578890</v>
+        <v>2747250</v>
       </c>
       <c r="C374">
         <v>65946</v>
@@ -17311,7 +17311,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>4602640</v>
+        <v>2761500</v>
       </c>
       <c r="C375">
         <v>66288</v>
@@ -17355,7 +17355,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>4626390</v>
+        <v>2775750</v>
       </c>
       <c r="C376">
         <v>66630</v>
@@ -17399,7 +17399,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>4650140</v>
+        <v>2790000</v>
       </c>
       <c r="C377">
         <v>66972</v>
@@ -17443,7 +17443,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>4673890</v>
+        <v>2804250</v>
       </c>
       <c r="C378">
         <v>67314</v>
@@ -17487,7 +17487,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>4697640</v>
+        <v>2818500</v>
       </c>
       <c r="C379">
         <v>67656</v>
@@ -17531,7 +17531,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>4721390</v>
+        <v>2832750</v>
       </c>
       <c r="C380">
         <v>67998</v>
@@ -17575,7 +17575,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>4745140</v>
+        <v>2847000</v>
       </c>
       <c r="C381">
         <v>68340</v>
@@ -17619,7 +17619,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>4770141</v>
+        <v>2862000</v>
       </c>
       <c r="C382">
         <v>68700</v>
@@ -17663,7 +17663,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>4795142</v>
+        <v>2877000</v>
       </c>
       <c r="C383">
         <v>69060</v>
@@ -17707,7 +17707,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>4820143</v>
+        <v>2892000</v>
       </c>
       <c r="C384">
         <v>69420</v>
@@ -17751,7 +17751,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>4845144</v>
+        <v>2907000</v>
       </c>
       <c r="C385">
         <v>69780</v>
@@ -17795,7 +17795,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>4870145</v>
+        <v>2922000</v>
       </c>
       <c r="C386">
         <v>70140</v>
@@ -17839,7 +17839,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>4895146</v>
+        <v>2937000</v>
       </c>
       <c r="C387">
         <v>70500</v>
@@ -17883,7 +17883,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>4920147</v>
+        <v>2952000</v>
       </c>
       <c r="C388">
         <v>70860</v>
@@ -17927,7 +17927,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>4945148</v>
+        <v>2967000</v>
       </c>
       <c r="C389">
         <v>71220</v>
@@ -17971,7 +17971,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>4970149</v>
+        <v>2982000</v>
       </c>
       <c r="C390">
         <v>71580</v>
@@ -18015,7 +18015,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>4995150</v>
+        <v>2997000</v>
       </c>
       <c r="C391">
         <v>71940</v>
@@ -18059,7 +18059,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>5020151</v>
+        <v>3012000</v>
       </c>
       <c r="C392">
         <v>72300</v>
@@ -18103,7 +18103,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>5045152</v>
+        <v>3027000</v>
       </c>
       <c r="C393">
         <v>72660</v>
@@ -18147,7 +18147,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>5070153</v>
+        <v>3042000</v>
       </c>
       <c r="C394">
         <v>73020</v>
@@ -18191,7 +18191,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>5095154</v>
+        <v>3057000</v>
       </c>
       <c r="C395">
         <v>73380</v>
@@ -18235,7 +18235,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>5120155</v>
+        <v>3072000</v>
       </c>
       <c r="C396">
         <v>73740</v>
@@ -18279,7 +18279,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>5145156</v>
+        <v>3087000</v>
       </c>
       <c r="C397">
         <v>74100</v>
@@ -18323,7 +18323,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>5170157</v>
+        <v>3102000</v>
       </c>
       <c r="C398">
         <v>74460</v>
@@ -18367,7 +18367,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>5195158</v>
+        <v>3117000</v>
       </c>
       <c r="C399">
         <v>74820</v>
@@ -18411,7 +18411,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>5220159</v>
+        <v>3132000</v>
       </c>
       <c r="C400">
         <v>75180</v>
@@ -18455,7 +18455,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>5245160</v>
+        <v>3147000</v>
       </c>
       <c r="C401">
         <v>75540</v>
@@ -18499,7 +18499,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>5271410</v>
+        <v>3162750</v>
       </c>
       <c r="C402">
         <v>75918</v>
@@ -18543,7 +18543,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>5297660</v>
+        <v>3178500</v>
       </c>
       <c r="C403">
         <v>76296</v>
@@ -18587,7 +18587,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>5323910</v>
+        <v>3194250</v>
       </c>
       <c r="C404">
         <v>76674</v>
@@ -18631,7 +18631,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>5350160</v>
+        <v>3210000</v>
       </c>
       <c r="C405">
         <v>77052</v>
@@ -18675,7 +18675,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>5376410</v>
+        <v>3225750</v>
       </c>
       <c r="C406">
         <v>77430</v>
@@ -18719,7 +18719,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>5402660</v>
+        <v>3241500</v>
       </c>
       <c r="C407">
         <v>77808</v>
@@ -18763,7 +18763,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>5428910</v>
+        <v>3257250</v>
       </c>
       <c r="C408">
         <v>78186</v>
@@ -18807,7 +18807,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>5455160</v>
+        <v>3273000</v>
       </c>
       <c r="C409">
         <v>78564</v>
@@ -18851,7 +18851,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>5481410</v>
+        <v>3288750</v>
       </c>
       <c r="C410">
         <v>78942</v>
@@ -18895,7 +18895,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>5507660</v>
+        <v>3304500</v>
       </c>
       <c r="C411">
         <v>79320</v>
@@ -18939,7 +18939,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>5533910</v>
+        <v>3320250</v>
       </c>
       <c r="C412">
         <v>79698</v>
@@ -18983,7 +18983,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>5560160</v>
+        <v>3336000</v>
       </c>
       <c r="C413">
         <v>80076</v>
@@ -19027,7 +19027,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>5586410</v>
+        <v>3351750</v>
       </c>
       <c r="C414">
         <v>80454</v>
@@ -19071,7 +19071,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>5612660</v>
+        <v>3367500</v>
       </c>
       <c r="C415">
         <v>80832</v>
@@ -19115,7 +19115,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>5638910</v>
+        <v>3383250</v>
       </c>
       <c r="C416">
         <v>81210</v>
@@ -19159,7 +19159,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>5665160</v>
+        <v>3399000</v>
       </c>
       <c r="C417">
         <v>81588</v>
@@ -19203,7 +19203,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>5691410</v>
+        <v>3414750</v>
       </c>
       <c r="C418">
         <v>81966</v>
@@ -19247,7 +19247,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>5717660</v>
+        <v>3430500</v>
       </c>
       <c r="C419">
         <v>82344</v>
@@ -19291,7 +19291,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>5743910</v>
+        <v>3446250</v>
       </c>
       <c r="C420">
         <v>82722</v>
@@ -19335,7 +19335,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>5770160</v>
+        <v>3462000</v>
       </c>
       <c r="C421">
         <v>83100</v>
@@ -19379,7 +19379,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>5797660</v>
+        <v>3478500</v>
       </c>
       <c r="C422">
         <v>83496</v>
@@ -19423,7 +19423,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>5825160</v>
+        <v>3495000</v>
       </c>
       <c r="C423">
         <v>83892</v>
@@ -19467,7 +19467,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>5852660</v>
+        <v>3511500</v>
       </c>
       <c r="C424">
         <v>84288</v>
@@ -19511,7 +19511,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>5880160</v>
+        <v>3528000</v>
       </c>
       <c r="C425">
         <v>84684</v>
@@ -19555,7 +19555,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>5907660</v>
+        <v>3544500</v>
       </c>
       <c r="C426">
         <v>85080</v>
@@ -19599,7 +19599,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>5935160</v>
+        <v>3561000</v>
       </c>
       <c r="C427">
         <v>85476</v>
@@ -19643,7 +19643,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>5962660</v>
+        <v>3577500</v>
       </c>
       <c r="C428">
         <v>85872</v>
@@ -19687,7 +19687,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>5990160</v>
+        <v>3594000</v>
       </c>
       <c r="C429">
         <v>86268</v>
@@ -19731,7 +19731,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>6017660</v>
+        <v>3610500</v>
       </c>
       <c r="C430">
         <v>86664</v>
@@ -19775,7 +19775,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>6045160</v>
+        <v>3627000</v>
       </c>
       <c r="C431">
         <v>87060</v>
@@ -19819,7 +19819,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>6072660</v>
+        <v>3643500</v>
       </c>
       <c r="C432">
         <v>87456</v>
@@ -19863,7 +19863,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>6100160</v>
+        <v>3660000</v>
       </c>
       <c r="C433">
         <v>87852</v>
@@ -19907,7 +19907,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>6127660</v>
+        <v>3676500</v>
       </c>
       <c r="C434">
         <v>88248</v>
@@ -19951,7 +19951,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>6155160</v>
+        <v>3693000</v>
       </c>
       <c r="C435">
         <v>88644</v>
@@ -19995,7 +19995,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>6182660</v>
+        <v>3709500</v>
       </c>
       <c r="C436">
         <v>89040</v>
@@ -20039,7 +20039,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>6210160</v>
+        <v>3726000</v>
       </c>
       <c r="C437">
         <v>89436</v>
@@ -20083,7 +20083,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>6237660</v>
+        <v>3742500</v>
       </c>
       <c r="C438">
         <v>89832</v>
@@ -20127,7 +20127,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>6265160</v>
+        <v>3759000</v>
       </c>
       <c r="C439">
         <v>90228</v>
@@ -20171,7 +20171,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>6292660</v>
+        <v>3775500</v>
       </c>
       <c r="C440">
         <v>90624</v>
@@ -20215,7 +20215,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>6320160</v>
+        <v>3792000</v>
       </c>
       <c r="C441">
         <v>91020</v>
@@ -20259,7 +20259,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>6348911</v>
+        <v>3809250</v>
       </c>
       <c r="C442">
         <v>91434</v>
@@ -20303,7 +20303,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>6377662</v>
+        <v>3826500</v>
       </c>
       <c r="C443">
         <v>91848</v>
@@ -20347,7 +20347,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>6406413</v>
+        <v>3843750</v>
       </c>
       <c r="C444">
         <v>92262</v>
@@ -20391,7 +20391,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>6435164</v>
+        <v>3861000</v>
       </c>
       <c r="C445">
         <v>92676</v>
@@ -20435,7 +20435,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>6463915</v>
+        <v>3878250</v>
       </c>
       <c r="C446">
         <v>93090</v>
@@ -20479,7 +20479,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>6492666</v>
+        <v>3895500</v>
       </c>
       <c r="C447">
         <v>93504</v>
@@ -20523,7 +20523,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>6521417</v>
+        <v>3912750</v>
       </c>
       <c r="C448">
         <v>93918</v>
@@ -20567,7 +20567,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>6550168</v>
+        <v>3930000</v>
       </c>
       <c r="C449">
         <v>94332</v>
@@ -20611,7 +20611,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>6578919</v>
+        <v>3947250</v>
       </c>
       <c r="C450">
         <v>94746</v>
@@ -20655,7 +20655,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>6607670</v>
+        <v>3964500</v>
       </c>
       <c r="C451">
         <v>95160</v>
@@ -20699,7 +20699,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>6636421</v>
+        <v>3981750</v>
       </c>
       <c r="C452">
         <v>95574</v>
@@ -20743,7 +20743,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>6665172</v>
+        <v>3999000</v>
       </c>
       <c r="C453">
         <v>95988</v>
@@ -20787,7 +20787,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>6693923</v>
+        <v>4016250</v>
       </c>
       <c r="C454">
         <v>96402</v>
@@ -20831,7 +20831,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>6722674</v>
+        <v>4033500</v>
       </c>
       <c r="C455">
         <v>96816</v>
@@ -20875,7 +20875,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>6751425</v>
+        <v>4050750</v>
       </c>
       <c r="C456">
         <v>97230</v>
@@ -20919,7 +20919,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>6780176</v>
+        <v>4068000</v>
       </c>
       <c r="C457">
         <v>97644</v>
@@ -20963,7 +20963,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>6808927</v>
+        <v>4085250</v>
       </c>
       <c r="C458">
         <v>98058</v>
@@ -21007,7 +21007,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>6837678</v>
+        <v>4102500</v>
       </c>
       <c r="C459">
         <v>98472</v>
@@ -21051,7 +21051,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>6866429</v>
+        <v>4119750</v>
       </c>
       <c r="C460">
         <v>98886</v>
@@ -21095,7 +21095,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>6895180</v>
+        <v>4137000</v>
       </c>
       <c r="C461">
         <v>99300</v>
@@ -21139,7 +21139,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>6925180</v>
+        <v>4155000</v>
       </c>
       <c r="C462">
         <v>99732</v>
@@ -21183,7 +21183,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>6955180</v>
+        <v>4173000</v>
       </c>
       <c r="C463">
         <v>100164</v>
@@ -21227,7 +21227,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>6985180</v>
+        <v>4191000</v>
       </c>
       <c r="C464">
         <v>100596</v>
@@ -21271,7 +21271,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>7015180</v>
+        <v>4209000</v>
       </c>
       <c r="C465">
         <v>101028</v>
@@ -21315,7 +21315,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>7045180</v>
+        <v>4227000</v>
       </c>
       <c r="C466">
         <v>101460</v>
@@ -21359,7 +21359,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>7075180</v>
+        <v>4245000</v>
       </c>
       <c r="C467">
         <v>101892</v>
@@ -21403,7 +21403,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>7105180</v>
+        <v>4263000</v>
       </c>
       <c r="C468">
         <v>102324</v>
@@ -21447,7 +21447,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>7135180</v>
+        <v>4281000</v>
       </c>
       <c r="C469">
         <v>102756</v>
@@ -21491,7 +21491,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>7165180</v>
+        <v>4299000</v>
       </c>
       <c r="C470">
         <v>103188</v>
@@ -21535,7 +21535,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>7195180</v>
+        <v>4317000</v>
       </c>
       <c r="C471">
         <v>103620</v>
@@ -21579,7 +21579,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>7225180</v>
+        <v>4335000</v>
       </c>
       <c r="C472">
         <v>104052</v>
@@ -21623,7 +21623,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>7255180</v>
+        <v>4353000</v>
       </c>
       <c r="C473">
         <v>104484</v>
@@ -21667,7 +21667,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>7285180</v>
+        <v>4371000</v>
       </c>
       <c r="C474">
         <v>104916</v>
@@ -21711,7 +21711,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>7315180</v>
+        <v>4389000</v>
       </c>
       <c r="C475">
         <v>105348</v>
@@ -21755,7 +21755,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>7345180</v>
+        <v>4407000</v>
       </c>
       <c r="C476">
         <v>105780</v>
@@ -21799,7 +21799,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>7375180</v>
+        <v>4425000</v>
       </c>
       <c r="C477">
         <v>106212</v>
@@ -21843,7 +21843,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>7405180</v>
+        <v>4443000</v>
       </c>
       <c r="C478">
         <v>106644</v>
@@ -21887,7 +21887,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>7435180</v>
+        <v>4461000</v>
       </c>
       <c r="C479">
         <v>107076</v>
@@ -21931,7 +21931,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>7465180</v>
+        <v>4479000</v>
       </c>
       <c r="C480">
         <v>107508</v>
@@ -21975,7 +21975,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>7495180</v>
+        <v>4497000</v>
       </c>
       <c r="C481">
         <v>107940</v>
@@ -22019,7 +22019,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>7526430</v>
+        <v>4515750</v>
       </c>
       <c r="C482">
         <v>108390</v>
@@ -22063,7 +22063,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>7557680</v>
+        <v>4534500</v>
       </c>
       <c r="C483">
         <v>108840</v>
@@ -22107,7 +22107,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>7588930</v>
+        <v>4553250</v>
       </c>
       <c r="C484">
         <v>109290</v>
@@ -22151,7 +22151,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>7620180</v>
+        <v>4572000</v>
       </c>
       <c r="C485">
         <v>109740</v>
@@ -22195,7 +22195,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>7651430</v>
+        <v>4590750</v>
       </c>
       <c r="C486">
         <v>110190</v>
@@ -22239,7 +22239,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>7682680</v>
+        <v>4609500</v>
       </c>
       <c r="C487">
         <v>110640</v>
@@ -22283,7 +22283,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>7713930</v>
+        <v>4628250</v>
       </c>
       <c r="C488">
         <v>111090</v>
@@ -22327,7 +22327,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>7745180</v>
+        <v>4647000</v>
       </c>
       <c r="C489">
         <v>111540</v>
@@ -22371,7 +22371,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>7776430</v>
+        <v>4665750</v>
       </c>
       <c r="C490">
         <v>111990</v>
@@ -22415,7 +22415,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>7807680</v>
+        <v>4684500</v>
       </c>
       <c r="C491">
         <v>112440</v>
@@ -22459,7 +22459,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>7838930</v>
+        <v>4703250</v>
       </c>
       <c r="C492">
         <v>112890</v>
@@ -22503,7 +22503,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>7870180</v>
+        <v>4722000</v>
       </c>
       <c r="C493">
         <v>113340</v>
@@ -22547,7 +22547,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>7901430</v>
+        <v>4740750</v>
       </c>
       <c r="C494">
         <v>113790</v>
@@ -22591,7 +22591,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>7932680</v>
+        <v>4759500</v>
       </c>
       <c r="C495">
         <v>114240</v>
@@ -22635,7 +22635,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>7963930</v>
+        <v>4778250</v>
       </c>
       <c r="C496">
         <v>114690</v>
@@ -22679,7 +22679,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>7995180</v>
+        <v>4797000</v>
       </c>
       <c r="C497">
         <v>115140</v>
@@ -22723,7 +22723,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>8026430</v>
+        <v>4815750</v>
       </c>
       <c r="C498">
         <v>115590</v>
@@ -22767,7 +22767,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>8057680</v>
+        <v>4834500</v>
       </c>
       <c r="C499">
         <v>116040</v>
@@ -22811,7 +22811,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>8088930</v>
+        <v>4853250</v>
       </c>
       <c r="C500">
         <v>116490</v>
@@ -22855,7 +22855,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>8120180</v>
+        <v>4872000</v>
       </c>
       <c r="C501">
         <v>116940</v>
